--- a/II Core/Localization Strings.xlsx
+++ b/II Core/Localization Strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B04ECAB-94AB-423F-9724-32CC5F333FC0}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C15D6DAA-CCA8-4266-9FA4-CED122CF863A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8028" uniqueCount="3416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8028" uniqueCount="3423">
   <si>
     <t>Temperature</t>
   </si>
@@ -6345,9 +6345,6 @@
     <t>إعدادات الرجفان</t>
   </si>
   <si>
-    <t>الصفر محول</t>
-  </si>
-  <si>
     <t>دی اکسید کربن در پایان نفس</t>
   </si>
   <si>
@@ -6366,9 +6363,6 @@
     <t>הגדרות דפיברילטור</t>
   </si>
   <si>
-    <t>אפס מתמר</t>
-  </si>
-  <si>
     <t>مشاهدة 1</t>
   </si>
   <si>
@@ -10273,6 +10267,33 @@
   </si>
   <si>
     <t>Hali hii imesimamishwa. Bonyeza kitufe ili uendelee.</t>
+  </si>
+  <si>
+    <t>Cero</t>
+  </si>
+  <si>
+    <t>Nulle</t>
+  </si>
+  <si>
+    <t>Zero</t>
+  </si>
+  <si>
+    <t>Sufuri</t>
+  </si>
+  <si>
+    <t>нулевой</t>
+  </si>
+  <si>
+    <t>제로</t>
+  </si>
+  <si>
+    <t>Null</t>
+  </si>
+  <si>
+    <t>אפס</t>
+  </si>
+  <si>
+    <t>صفر</t>
   </si>
 </sst>
 </file>
@@ -10653,8 +10674,8 @@
   <dimension ref="A1:P283"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <pane ySplit="1" topLeftCell="A219" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A232" sqref="A232:XFD232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10679,13 +10700,13 @@
         <v>852</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>1551</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>853</v>
@@ -10703,7 +10724,7 @@
         <v>1552</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>856</v>
@@ -10735,7 +10756,7 @@
         <v>1715</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>293</v>
@@ -10753,7 +10774,7 @@
         <v>1807</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>2251</v>
+        <v>2249</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>172</v>
@@ -10785,7 +10806,7 @@
         <v>1716</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>294</v>
@@ -10803,7 +10824,7 @@
         <v>1808</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>173</v>
@@ -10835,7 +10856,7 @@
         <v>1717</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>295</v>
@@ -10853,7 +10874,7 @@
         <v>1809</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>2253</v>
+        <v>2251</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>174</v>
@@ -10886,7 +10907,7 @@
         <v>1718</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>332</v>
@@ -10904,7 +10925,7 @@
         <v>1810</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>2255</v>
+        <v>2253</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>208</v>
@@ -10936,7 +10957,7 @@
         <v>1813</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>346</v>
@@ -10954,7 +10975,7 @@
         <v>1831</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>344</v>
@@ -10986,7 +11007,7 @@
         <v>1928</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>607</v>
@@ -11004,7 +11025,7 @@
         <v>1841</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>604</v>
@@ -11036,7 +11057,7 @@
         <v>1930</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>607</v>
@@ -11054,7 +11075,7 @@
         <v>1840</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>708</v>
@@ -11086,7 +11107,7 @@
         <v>1929</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>607</v>
@@ -11104,7 +11125,7 @@
         <v>1842</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>1279</v>
@@ -11136,7 +11157,7 @@
         <v>1927</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>607</v>
@@ -11154,7 +11175,7 @@
         <v>1926</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>1440</v>
@@ -11187,7 +11208,7 @@
         <v>1719</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>1177</v>
@@ -11205,7 +11226,7 @@
         <v>1811</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>1189</v>
@@ -11237,7 +11258,7 @@
         <v>1720</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>1178</v>
@@ -11255,7 +11276,7 @@
         <v>1812</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>1186</v>
@@ -11288,7 +11309,7 @@
         <v>1721</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>2404</v>
+        <v>2402</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>483</v>
@@ -11306,7 +11327,7 @@
         <v>1774</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>422</v>
@@ -11338,7 +11359,7 @@
         <v>1722</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>2405</v>
+        <v>2403</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>484</v>
@@ -11356,7 +11377,7 @@
         <v>1775</v>
       </c>
       <c r="K18" s="4" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
       <c r="L18" s="4" t="s">
         <v>538</v>
@@ -11388,7 +11409,7 @@
         <v>1722</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>2406</v>
+        <v>2404</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>485</v>
@@ -11406,7 +11427,7 @@
         <v>1776</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>539</v>
@@ -11438,7 +11459,7 @@
         <v>1723</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>2407</v>
+        <v>2405</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>486</v>
@@ -11456,7 +11477,7 @@
         <v>1777</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
       <c r="L20" s="4" t="s">
         <v>540</v>
@@ -11488,7 +11509,7 @@
         <v>1724</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>2408</v>
+        <v>2406</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>487</v>
@@ -11506,7 +11527,7 @@
         <v>1778</v>
       </c>
       <c r="K21" s="4" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="L21" s="4" t="s">
         <v>541</v>
@@ -11538,7 +11559,7 @@
         <v>1725</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>2409</v>
+        <v>2407</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>488</v>
@@ -11556,7 +11577,7 @@
         <v>1779</v>
       </c>
       <c r="K22" s="4" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>542</v>
@@ -11588,7 +11609,7 @@
         <v>1726</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>489</v>
@@ -11606,7 +11627,7 @@
         <v>1780</v>
       </c>
       <c r="K23" s="4" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
       <c r="L23" s="4" t="s">
         <v>543</v>
@@ -11638,7 +11659,7 @@
         <v>1727</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2411</v>
+        <v>2409</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>490</v>
@@ -11656,7 +11677,7 @@
         <v>1781</v>
       </c>
       <c r="K24" s="4" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>377</v>
@@ -11688,7 +11709,7 @@
         <v>1728</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2412</v>
+        <v>2410</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>491</v>
@@ -11706,7 +11727,7 @@
         <v>1782</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="L25" s="4" t="s">
         <v>544</v>
@@ -11738,7 +11759,7 @@
         <v>1729</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2413</v>
+        <v>2411</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>492</v>
@@ -11756,7 +11777,7 @@
         <v>1783</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="L26" s="4" t="s">
         <v>545</v>
@@ -11788,7 +11809,7 @@
         <v>1730</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>2414</v>
+        <v>2412</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>493</v>
@@ -11806,7 +11827,7 @@
         <v>1784</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
       <c r="L27" s="4" t="s">
         <v>546</v>
@@ -11826,102 +11847,102 @@
     </row>
     <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>3082</v>
+        <v>3080</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>3112</v>
+        <v>3110</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>3117</v>
+        <v>3115</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>3118</v>
+        <v>3116</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>3099</v>
+        <v>3097</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>3122</v>
+        <v>3120</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>3098</v>
+        <v>3096</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>3095</v>
+        <v>3093</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>3128</v>
+        <v>3126</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>3091</v>
+        <v>3089</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>3131</v>
+        <v>3129</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>3085</v>
+        <v>3083</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>3090</v>
+        <v>3088</v>
       </c>
       <c r="P28" s="4" t="s">
-        <v>3111</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
+        <v>3079</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>3081</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>3083</v>
-      </c>
       <c r="C29" s="4" t="s">
-        <v>3113</v>
+        <v>3111</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>3119</v>
+        <v>3117</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>3100</v>
+        <v>3098</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>3123</v>
+        <v>3121</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>3094</v>
+        <v>3092</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>3129</v>
+        <v>3127</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>3092</v>
+        <v>3090</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>3130</v>
+        <v>3128</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>3086</v>
+        <v>3084</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>3089</v>
+        <v>3087</v>
       </c>
       <c r="P29" s="4" t="s">
-        <v>3110</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11938,7 +11959,7 @@
         <v>1731</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>494</v>
@@ -11956,7 +11977,7 @@
         <v>1785</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="L30" s="4" t="s">
         <v>547</v>
@@ -11971,57 +11992,57 @@
         <v>588</v>
       </c>
       <c r="P30" s="4" t="s">
-        <v>3103</v>
+        <v>3101</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>3080</v>
+        <v>3078</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>3084</v>
+        <v>3082</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>3114</v>
+        <v>3112</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>3115</v>
+        <v>3113</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>3120</v>
+        <v>3118</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>3101</v>
+        <v>3099</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>3121</v>
+        <v>3119</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>3097</v>
+        <v>3095</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>3126</v>
+        <v>3124</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>3127</v>
+        <v>3125</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>3132</v>
+        <v>3130</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>3087</v>
+        <v>3085</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>3088</v>
+        <v>3086</v>
       </c>
       <c r="P31" s="4" t="s">
-        <v>3104</v>
+        <v>3102</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12038,7 +12059,7 @@
         <v>1732</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>495</v>
@@ -12056,7 +12077,7 @@
         <v>1786</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>548</v>
@@ -12071,7 +12092,7 @@
         <v>589</v>
       </c>
       <c r="P32" s="4" t="s">
-        <v>3105</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12088,7 +12109,7 @@
         <v>1733</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>496</v>
@@ -12106,7 +12127,7 @@
         <v>1787</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>549</v>
@@ -12121,7 +12142,7 @@
         <v>590</v>
       </c>
       <c r="P33" s="4" t="s">
-        <v>3106</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12138,7 +12159,7 @@
         <v>1734</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>497</v>
@@ -12156,7 +12177,7 @@
         <v>1788</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>550</v>
@@ -12171,7 +12192,7 @@
         <v>591</v>
       </c>
       <c r="P34" s="4" t="s">
-        <v>3107</v>
+        <v>3105</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12188,7 +12209,7 @@
         <v>1735</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>498</v>
@@ -12206,7 +12227,7 @@
         <v>1789</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>551</v>
@@ -12221,7 +12242,7 @@
         <v>592</v>
       </c>
       <c r="P35" s="4" t="s">
-        <v>3108</v>
+        <v>3106</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12238,7 +12259,7 @@
         <v>1736</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>499</v>
@@ -12256,7 +12277,7 @@
         <v>1790</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="L36" s="4" t="s">
         <v>552</v>
@@ -12271,7 +12292,7 @@
         <v>593</v>
       </c>
       <c r="P36" s="4" t="s">
-        <v>3109</v>
+        <v>3107</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12288,7 +12309,7 @@
         <v>1737</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>500</v>
@@ -12306,7 +12327,7 @@
         <v>1791</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
       <c r="L37" s="4" t="s">
         <v>553</v>
@@ -12321,7 +12342,7 @@
         <v>594</v>
       </c>
       <c r="P37" s="4" t="s">
-        <v>3102</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12338,7 +12359,7 @@
         <v>1738</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>501</v>
@@ -12356,7 +12377,7 @@
         <v>1792</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
       <c r="L38" s="4" t="s">
         <v>554</v>
@@ -12388,7 +12409,7 @@
         <v>1739</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>502</v>
@@ -12406,7 +12427,7 @@
         <v>1793</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>2450</v>
+        <v>2448</v>
       </c>
       <c r="L39" s="4" t="s">
         <v>555</v>
@@ -12438,7 +12459,7 @@
         <v>1740</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>503</v>
@@ -12456,7 +12477,7 @@
         <v>1794</v>
       </c>
       <c r="K40" s="4" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>556</v>
@@ -12488,7 +12509,7 @@
         <v>1741</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>504</v>
@@ -12506,7 +12527,7 @@
         <v>1795</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>2452</v>
+        <v>2450</v>
       </c>
       <c r="L41" s="4" t="s">
         <v>391</v>
@@ -12538,7 +12559,7 @@
         <v>1742</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>510</v>
@@ -12556,7 +12577,7 @@
         <v>1796</v>
       </c>
       <c r="K42" s="4" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
       <c r="L42" s="4" t="s">
         <v>557</v>
@@ -12588,7 +12609,7 @@
         <v>1743</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>511</v>
@@ -12606,7 +12627,7 @@
         <v>1797</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
       <c r="L43" s="4" t="s">
         <v>558</v>
@@ -12638,7 +12659,7 @@
         <v>1744</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>505</v>
@@ -12656,7 +12677,7 @@
         <v>1798</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
       <c r="L44" s="4" t="s">
         <v>559</v>
@@ -12676,52 +12697,52 @@
     </row>
     <row r="45" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>3017</v>
+        <v>3015</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>3022</v>
+        <v>3020</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>3035</v>
+        <v>3033</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>3039</v>
+        <v>3037</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>3042</v>
+        <v>3040</v>
       </c>
       <c r="G45" s="4" t="s">
+        <v>3062</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>3043</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>3048</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>3051</v>
+      </c>
+      <c r="K45" s="4" t="s">
+        <v>3055</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>3059</v>
+      </c>
+      <c r="M45" s="4" t="s">
         <v>3064</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>3045</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>3050</v>
-      </c>
-      <c r="J45" s="4" t="s">
-        <v>3053</v>
-      </c>
-      <c r="K45" s="4" t="s">
-        <v>3057</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>3061</v>
-      </c>
-      <c r="M45" s="4" t="s">
-        <v>3066</v>
-      </c>
       <c r="N45" s="4" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="O45" s="4" t="s">
-        <v>3029</v>
+        <v>3027</v>
       </c>
       <c r="P45" s="4" t="s">
-        <v>3026</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12738,7 +12759,7 @@
         <v>1745</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>506</v>
@@ -12756,7 +12777,7 @@
         <v>1799</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>420</v>
@@ -12776,202 +12797,202 @@
     </row>
     <row r="47" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>3018</v>
+        <v>3016</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>3023</v>
+        <v>3021</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>3033</v>
+        <v>3031</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>3037</v>
+        <v>3035</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>3038</v>
+        <v>3036</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>3043</v>
+        <v>3041</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>3046</v>
+        <v>3044</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="N47" s="4" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="O47" s="4" t="s">
-        <v>3030</v>
+        <v>3028</v>
       </c>
       <c r="P47" s="4" t="s">
-        <v>3027</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="48" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>3019</v>
+        <v>3017</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>3024</v>
+        <v>3022</v>
       </c>
       <c r="C48" s="4" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>3034</v>
       </c>
-      <c r="D48" s="4" t="s">
-        <v>3036</v>
-      </c>
       <c r="E48" s="4" t="s">
-        <v>3040</v>
+        <v>3038</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>3044</v>
+        <v>3042</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>3047</v>
+        <v>3045</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="K48" s="4" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="O48" s="4" t="s">
-        <v>3031</v>
+        <v>3029</v>
       </c>
       <c r="P48" s="4" t="s">
-        <v>3028</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>3020</v>
+        <v>3018</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
       <c r="C49" s="8" t="s">
+        <v>3070</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>3039</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="J49" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="K49" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="M49" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>3023</v>
+      </c>
+      <c r="O49" s="8" t="s">
         <v>3072</v>
       </c>
-      <c r="D49" s="8" t="s">
-        <v>3073</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>3041</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>3025</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>3025</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>3048</v>
-      </c>
-      <c r="I49" s="4" t="s">
-        <v>3025</v>
-      </c>
-      <c r="J49" s="4" t="s">
-        <v>3025</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>3025</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>3025</v>
-      </c>
-      <c r="M49" s="4" t="s">
-        <v>3025</v>
-      </c>
-      <c r="N49" s="4" t="s">
-        <v>3025</v>
-      </c>
-      <c r="O49" s="8" t="s">
-        <v>3074</v>
-      </c>
       <c r="P49" s="4" t="s">
-        <v>3025</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>3078</v>
+        <v>3076</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>3032</v>
+        <v>3030</v>
       </c>
       <c r="D50" s="8" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>3074</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>3047</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="J50" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="K50" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="M50" s="4" t="s">
+        <v>3054</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>3019</v>
+      </c>
+      <c r="O50" s="8" t="s">
         <v>3075</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>3076</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>3021</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>3056</v>
-      </c>
-      <c r="H50" s="4" t="s">
-        <v>3049</v>
-      </c>
-      <c r="I50" s="4" t="s">
-        <v>3021</v>
-      </c>
-      <c r="J50" s="4" t="s">
-        <v>3056</v>
-      </c>
-      <c r="K50" s="4" t="s">
-        <v>3056</v>
-      </c>
-      <c r="L50" s="4" t="s">
-        <v>3021</v>
-      </c>
-      <c r="M50" s="4" t="s">
-        <v>3056</v>
-      </c>
-      <c r="N50" s="4" t="s">
-        <v>3021</v>
-      </c>
-      <c r="O50" s="8" t="s">
-        <v>3077</v>
-      </c>
       <c r="P50" s="4" t="s">
-        <v>3021</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -12988,7 +13009,7 @@
         <v>1746</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="F51" s="4" t="s">
         <v>507</v>
@@ -13006,7 +13027,7 @@
         <v>1800</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
       <c r="L51" s="4" t="s">
         <v>560</v>
@@ -13026,202 +13047,202 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>3133</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>3134</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>3135</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>3136</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>3137</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>3138</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>3139</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>3140</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>3141</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>3142</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>3143</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>3144</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>3145</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="N52" s="2" t="s">
         <v>3146</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="O52" s="2" t="s">
         <v>3147</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="P52" s="2" t="s">
         <v>3148</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>3149</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>3150</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>3149</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>3150</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>3151</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>3152</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>3153</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>3154</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>3155</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>3156</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>3157</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>3158</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>3159</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>3160</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>3161</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="N53" s="2" t="s">
         <v>3162</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="O53" s="2" t="s">
         <v>3163</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="P53" s="2" t="s">
         <v>3164</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>3165</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>3166</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>3165</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3166</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>3167</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>3168</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>3169</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>3170</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>3171</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>3172</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>3173</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>3174</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>3175</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>3176</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>3177</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="N54" s="2" t="s">
         <v>3178</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="O54" s="2" t="s">
         <v>3179</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="P54" s="2" t="s">
         <v>3180</v>
-      </c>
-      <c r="O54" s="2" t="s">
-        <v>3181</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>3182</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>3182</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3167</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>3183</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>3184</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>3169</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>3185</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>3186</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>3187</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>3188</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="J55" s="2" t="s">
         <v>3189</v>
       </c>
-      <c r="I55" s="2" t="s">
+      <c r="K55" s="2" t="s">
         <v>3190</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>3191</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="M55" s="2" t="s">
         <v>3192</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="N55" s="2" t="s">
         <v>3193</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="O55" s="2" t="s">
         <v>3194</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="P55" s="9" t="s">
         <v>3195</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>3196</v>
-      </c>
-      <c r="P55" s="9" t="s">
-        <v>3197</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -13258,199 +13279,199 @@
     </row>
     <row r="62" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>3215</v>
+        <v>3213</v>
       </c>
       <c r="B62" s="4" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>3259</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>3257</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>3258</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>3220</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>3260</v>
+      </c>
+      <c r="H62" s="4" t="s">
         <v>3221</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="I62" s="4" t="s">
+        <v>3222</v>
+      </c>
+      <c r="J62" s="4" t="s">
+        <v>3244</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>3261</v>
       </c>
-      <c r="D62" s="4" t="s">
-        <v>3259</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>3260</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>3222</v>
-      </c>
-      <c r="G62" s="4" t="s">
+      <c r="L62" s="4" t="s">
+        <v>3223</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>3262</v>
       </c>
-      <c r="H62" s="4" t="s">
-        <v>3223</v>
-      </c>
-      <c r="I62" s="4" t="s">
+      <c r="N62" s="4" t="s">
         <v>3224</v>
       </c>
-      <c r="J62" s="4" t="s">
-        <v>3246</v>
-      </c>
-      <c r="K62" s="4" t="s">
-        <v>3263</v>
-      </c>
-      <c r="L62" s="4" t="s">
+      <c r="O62" s="4" t="s">
         <v>3225</v>
       </c>
-      <c r="M62" s="4" t="s">
-        <v>3264</v>
-      </c>
-      <c r="N62" s="4" t="s">
-        <v>3226</v>
-      </c>
-      <c r="O62" s="4" t="s">
-        <v>3227</v>
-      </c>
       <c r="P62" s="4" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>3216</v>
+        <v>3214</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>3220</v>
+        <v>3218</v>
       </c>
       <c r="C63" s="4" t="s">
+        <v>3269</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>3270</v>
+      </c>
+      <c r="E63" s="4" t="s">
         <v>3271</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="F63" s="4" t="s">
+        <v>3231</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>3230</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>3229</v>
+      </c>
+      <c r="J63" s="4" t="s">
+        <v>3245</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>3272</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="L63" s="4" t="s">
+        <v>3228</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>3273</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>3233</v>
-      </c>
-      <c r="H63" s="4" t="s">
-        <v>3232</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>3231</v>
-      </c>
-      <c r="J63" s="4" t="s">
-        <v>3247</v>
-      </c>
-      <c r="K63" s="4" t="s">
+      <c r="N63" s="4" t="s">
+        <v>3227</v>
+      </c>
+      <c r="O63" s="4" t="s">
+        <v>3226</v>
+      </c>
+      <c r="P63" s="4" t="s">
         <v>3274</v>
-      </c>
-      <c r="L63" s="4" t="s">
-        <v>3230</v>
-      </c>
-      <c r="M63" s="4" t="s">
-        <v>3275</v>
-      </c>
-      <c r="N63" s="4" t="s">
-        <v>3229</v>
-      </c>
-      <c r="O63" s="4" t="s">
-        <v>3228</v>
-      </c>
-      <c r="P63" s="4" t="s">
-        <v>3276</v>
       </c>
     </row>
     <row r="64" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
+        <v>3215</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>3217</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>3219</v>
-      </c>
       <c r="C64" s="4" t="s">
-        <v>3270</v>
+        <v>3268</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>3269</v>
+        <v>3267</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>3268</v>
+        <v>3266</v>
       </c>
       <c r="F64" s="4" t="s">
+        <v>3232</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>3265</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>3233</v>
+      </c>
+      <c r="I64" s="4" t="s">
         <v>3234</v>
       </c>
-      <c r="G64" s="4" t="s">
-        <v>3267</v>
-      </c>
-      <c r="H64" s="4" t="s">
+      <c r="J64" s="4" t="s">
+        <v>3246</v>
+      </c>
+      <c r="K64" s="4" t="s">
+        <v>3264</v>
+      </c>
+      <c r="L64" s="4" t="s">
         <v>3235</v>
       </c>
-      <c r="I64" s="4" t="s">
+      <c r="M64" s="4" t="s">
+        <v>3263</v>
+      </c>
+      <c r="N64" s="4" t="s">
         <v>3236</v>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>3248</v>
-      </c>
-      <c r="K64" s="4" t="s">
-        <v>3266</v>
-      </c>
-      <c r="L64" s="4" t="s">
+      <c r="O64" s="4" t="s">
         <v>3237</v>
       </c>
-      <c r="M64" s="4" t="s">
-        <v>3265</v>
-      </c>
-      <c r="N64" s="4" t="s">
-        <v>3238</v>
-      </c>
-      <c r="O64" s="4" t="s">
-        <v>3239</v>
-      </c>
       <c r="P64" s="4" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>3218</v>
+        <v>3216</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>3214</v>
+        <v>3212</v>
       </c>
       <c r="C65" s="4" t="s">
+        <v>3251</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>3248</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>3250</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>3243</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>3249</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>3241</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>3242</v>
+      </c>
+      <c r="J65" s="4" t="s">
+        <v>3247</v>
+      </c>
+      <c r="K65" s="4" t="s">
+        <v>3252</v>
+      </c>
+      <c r="L65" s="4" t="s">
+        <v>3240</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>3253</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>3250</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>3252</v>
-      </c>
-      <c r="F65" s="4" t="s">
-        <v>3245</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>3251</v>
-      </c>
-      <c r="H65" s="4" t="s">
-        <v>3243</v>
-      </c>
-      <c r="I65" s="4" t="s">
-        <v>3244</v>
-      </c>
-      <c r="J65" s="4" t="s">
-        <v>3249</v>
-      </c>
-      <c r="K65" s="4" t="s">
+      <c r="N65" s="4" t="s">
+        <v>3239</v>
+      </c>
+      <c r="O65" s="4" t="s">
+        <v>3238</v>
+      </c>
+      <c r="P65" s="4" t="s">
         <v>3254</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>3242</v>
-      </c>
-      <c r="M65" s="4" t="s">
-        <v>3255</v>
-      </c>
-      <c r="N65" s="4" t="s">
-        <v>3241</v>
-      </c>
-      <c r="O65" s="4" t="s">
-        <v>3240</v>
-      </c>
-      <c r="P65" s="4" t="s">
-        <v>3256</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13467,7 +13488,7 @@
         <v>1814</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>296</v>
@@ -13485,7 +13506,7 @@
         <v>1832</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>2276</v>
+        <v>2274</v>
       </c>
       <c r="L67" s="4" t="s">
         <v>175</v>
@@ -13505,52 +13526,52 @@
     </row>
     <row r="68" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>3290</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>3304</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>3303</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>3302</v>
+      </c>
+      <c r="F68" s="4" t="s">
         <v>3291</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="G68" s="4" t="s">
+        <v>3301</v>
+      </c>
+      <c r="H68" s="4" t="s">
         <v>3292</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>3306</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>3305</v>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>3304</v>
-      </c>
-      <c r="F68" s="4" t="s">
+      <c r="I68" s="4" t="s">
         <v>3293</v>
       </c>
-      <c r="G68" s="4" t="s">
-        <v>3303</v>
-      </c>
-      <c r="H68" s="4" t="s">
+      <c r="J68" s="4" t="s">
         <v>3294</v>
       </c>
-      <c r="I68" s="4" t="s">
+      <c r="K68" s="4" t="s">
+        <v>3300</v>
+      </c>
+      <c r="L68" s="4" t="s">
         <v>3295</v>
       </c>
-      <c r="J68" s="4" t="s">
+      <c r="M68" s="4" t="s">
+        <v>3299</v>
+      </c>
+      <c r="N68" s="4" t="s">
         <v>3296</v>
       </c>
-      <c r="K68" s="4" t="s">
-        <v>3302</v>
-      </c>
-      <c r="L68" s="4" t="s">
+      <c r="O68" s="4" t="s">
         <v>3297</v>
       </c>
-      <c r="M68" s="4" t="s">
-        <v>3301</v>
-      </c>
-      <c r="N68" s="4" t="s">
+      <c r="P68" s="4" t="s">
         <v>3298</v>
-      </c>
-      <c r="O68" s="4" t="s">
-        <v>3299</v>
-      </c>
-      <c r="P68" s="4" t="s">
-        <v>3300</v>
       </c>
     </row>
     <row r="69" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -13567,7 +13588,7 @@
         <v>1815</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>2270</v>
+        <v>2268</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>297</v>
@@ -13585,7 +13606,7 @@
         <v>1833</v>
       </c>
       <c r="K69" s="4" t="s">
-        <v>2277</v>
+        <v>2275</v>
       </c>
       <c r="L69" s="4" t="s">
         <v>176</v>
@@ -13617,7 +13638,7 @@
         <v>1816</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>2271</v>
+        <v>2269</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>298</v>
@@ -13635,7 +13656,7 @@
         <v>1834</v>
       </c>
       <c r="K70" s="4" t="s">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="L70" s="4" t="s">
         <v>177</v>
@@ -13667,7 +13688,7 @@
         <v>1817</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>348</v>
@@ -13685,7 +13706,7 @@
         <v>1835</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="L71" s="4" t="s">
         <v>351</v>
@@ -13717,7 +13738,7 @@
         <v>1818</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>2273</v>
+        <v>2271</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>347</v>
@@ -13735,7 +13756,7 @@
         <v>1836</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>2280</v>
+        <v>2278</v>
       </c>
       <c r="L72" s="4" t="s">
         <v>354</v>
@@ -13767,7 +13788,7 @@
         <v>1819</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>2274</v>
+        <v>2272</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>362</v>
@@ -13785,7 +13806,7 @@
         <v>1837</v>
       </c>
       <c r="K73" s="4" t="s">
-        <v>2281</v>
+        <v>2279</v>
       </c>
       <c r="L73" s="4" t="s">
         <v>359</v>
@@ -13817,7 +13838,7 @@
         <v>1820</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2275</v>
+        <v>2273</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>299</v>
@@ -13835,7 +13856,7 @@
         <v>1838</v>
       </c>
       <c r="K74" s="4" t="s">
-        <v>2282</v>
+        <v>2280</v>
       </c>
       <c r="L74" s="4" t="s">
         <v>178</v>
@@ -13867,7 +13888,7 @@
         <v>1821</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>300</v>
@@ -13885,7 +13906,7 @@
         <v>1839</v>
       </c>
       <c r="K75" s="4" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="L75" s="4" t="s">
         <v>179</v>
@@ -13918,7 +13939,7 @@
         <v>1845</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>301</v>
@@ -13936,7 +13957,7 @@
         <v>1863</v>
       </c>
       <c r="K77" s="4" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="L77" s="4" t="s">
         <v>180</v>
@@ -13968,7 +13989,7 @@
         <v>1846</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>302</v>
@@ -13986,7 +14007,7 @@
         <v>1864</v>
       </c>
       <c r="K78" s="4" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="L78" s="4" t="s">
         <v>181</v>
@@ -14018,7 +14039,7 @@
         <v>1847</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>303</v>
@@ -14036,7 +14057,7 @@
         <v>1844</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>182</v>
@@ -14068,7 +14089,7 @@
         <v>1848</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>4</v>
@@ -14086,7 +14107,7 @@
         <v>1865</v>
       </c>
       <c r="K80" s="4" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="L80" s="4" t="s">
         <v>183</v>
@@ -14118,7 +14139,7 @@
         <v>1849</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>3</v>
@@ -14136,7 +14157,7 @@
         <v>1866</v>
       </c>
       <c r="K81" s="4" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="L81" s="4" t="s">
         <v>184</v>
@@ -14168,7 +14189,7 @@
         <v>1850</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>304</v>
@@ -14186,7 +14207,7 @@
         <v>1843</v>
       </c>
       <c r="K82" s="4" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="L82" s="4" t="s">
         <v>185</v>
@@ -14218,7 +14239,7 @@
         <v>1851</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>1079</v>
@@ -14236,7 +14257,7 @@
         <v>1867</v>
       </c>
       <c r="K83" s="4" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="L83" s="4" t="s">
         <v>1082</v>
@@ -14268,7 +14289,7 @@
         <v>1852</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>305</v>
@@ -14286,7 +14307,7 @@
         <v>1868</v>
       </c>
       <c r="K84" s="4" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="L84" s="4" t="s">
         <v>186</v>
@@ -14318,7 +14339,7 @@
         <v>1853</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>306</v>
@@ -14336,7 +14357,7 @@
         <v>1869</v>
       </c>
       <c r="K85" s="4" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="L85" s="4" t="s">
         <v>187</v>
@@ -14357,125 +14378,125 @@
     <row r="86" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="87" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>2816</v>
+        <v>2814</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2829</v>
+        <v>2827</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>2790</v>
+        <v>2788</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="J87" s="4" t="s">
-        <v>2777</v>
+        <v>2775</v>
       </c>
       <c r="K87" s="4" t="s">
-        <v>2764</v>
+        <v>2762</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
       <c r="O87" s="4" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
       <c r="P87" s="4" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="88" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>2817</v>
+        <v>2815</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2830</v>
+        <v>2828</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>2778</v>
+        <v>2776</v>
       </c>
       <c r="K88" s="4" t="s">
-        <v>2765</v>
+        <v>2763</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>2753</v>
+        <v>2751</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="O88" s="4" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
       <c r="P88" s="4" t="s">
-        <v>2739</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="89" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>2818</v>
+        <v>2816</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>2831</v>
+        <v>2829</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>1178</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>2792</v>
+        <v>2790</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>1184</v>
@@ -14484,13 +14505,13 @@
         <v>1185</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>2779</v>
+        <v>2777</v>
       </c>
       <c r="K89" s="4" t="s">
-        <v>2766</v>
+        <v>2764</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>1187</v>
@@ -14502,908 +14523,908 @@
         <v>1181</v>
       </c>
       <c r="P89" s="4" t="s">
-        <v>2740</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="90" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>2819</v>
+        <v>2817</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>2832</v>
+        <v>2830</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>2780</v>
+        <v>2778</v>
       </c>
       <c r="K90" s="4" t="s">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>2754</v>
+        <v>2752</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="O90" s="4" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
       <c r="P90" s="4" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="91" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>2820</v>
+        <v>2818</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2833</v>
+        <v>2831</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>2781</v>
+        <v>2779</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>2768</v>
+        <v>2766</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="O91" s="4" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
       <c r="P91" s="4" t="s">
-        <v>2742</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="92" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>2821</v>
+        <v>2819</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2834</v>
+        <v>2832</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>2782</v>
+        <v>2780</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>2769</v>
+        <v>2767</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
       <c r="O92" s="4" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
       <c r="P92" s="4" t="s">
-        <v>2741</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="93" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>2822</v>
+        <v>2820</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
       <c r="J93" s="4" t="s">
-        <v>2783</v>
+        <v>2781</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>2770</v>
+        <v>2768</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>2757</v>
+        <v>2755</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
       <c r="O93" s="4" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="P93" s="4" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="94" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>2823</v>
+        <v>2821</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2836</v>
+        <v>2834</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="J94" s="4" t="s">
-        <v>2784</v>
+        <v>2782</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>2771</v>
+        <v>2769</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
       <c r="O94" s="4" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
       <c r="P94" s="4" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="95" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>2824</v>
+        <v>2822</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2837</v>
+        <v>2835</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="J95" s="4" t="s">
-        <v>2785</v>
+        <v>2783</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>2772</v>
+        <v>2770</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>2759</v>
+        <v>2757</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
       <c r="O95" s="4" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
       <c r="P95" s="4" t="s">
-        <v>2743</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>2825</v>
+        <v>2823</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>2811</v>
+        <v>2809</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2838</v>
+        <v>2836</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
       <c r="J96" s="4" t="s">
-        <v>2786</v>
+        <v>2784</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>2773</v>
+        <v>2771</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>2760</v>
+        <v>2758</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
       <c r="O96" s="4" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="P96" s="4" t="s">
-        <v>2744</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="97" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
+        <v>2666</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>2668</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>2670</v>
-      </c>
       <c r="C97" s="4" t="s">
-        <v>2826</v>
+        <v>2824</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>2812</v>
+        <v>2810</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2839</v>
+        <v>2837</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>2787</v>
+        <v>2785</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>2774</v>
+        <v>2772</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>2761</v>
+        <v>2759</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="O97" s="4" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="P97" s="4" t="s">
-        <v>2746</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
+        <v>2667</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>2669</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>2671</v>
-      </c>
       <c r="C98" s="4" t="s">
-        <v>2827</v>
+        <v>2825</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>2813</v>
+        <v>2811</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2840</v>
+        <v>2838</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>2788</v>
+        <v>2786</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>2775</v>
+        <v>2773</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>2762</v>
+        <v>2760</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
       <c r="O98" s="4" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="P98" s="4" t="s">
-        <v>2747</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="99" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>2828</v>
+        <v>2826</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>2814</v>
+        <v>2812</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2841</v>
+        <v>2839</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>2789</v>
+        <v>2787</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>2776</v>
+        <v>2774</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>2763</v>
+        <v>2761</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
       <c r="O99" s="4" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
       <c r="P99" s="4" t="s">
-        <v>2745</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="101" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>3133</v>
+        <v>3131</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>3134</v>
+        <v>3132</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>3290</v>
+        <v>3288</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>3289</v>
+        <v>3287</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="F101" s="4" t="s">
+        <v>3280</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>3285</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>3281</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>3282</v>
       </c>
-      <c r="G101" s="4" t="s">
-        <v>3287</v>
-      </c>
-      <c r="H101" s="4" t="s">
+      <c r="J101" s="4" t="s">
         <v>3283</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="K101" s="4" t="s">
         <v>3284</v>
       </c>
-      <c r="J101" s="4" t="s">
-        <v>3285</v>
-      </c>
-      <c r="K101" s="4" t="s">
-        <v>3286</v>
-      </c>
       <c r="L101" s="4" t="s">
-        <v>3281</v>
+        <v>3279</v>
       </c>
       <c r="M101" s="4" t="s">
+        <v>3276</v>
+      </c>
+      <c r="N101" s="4" t="s">
+        <v>3277</v>
+      </c>
+      <c r="O101" s="4" t="s">
         <v>3278</v>
       </c>
-      <c r="N101" s="4" t="s">
-        <v>3279</v>
-      </c>
-      <c r="O101" s="4" t="s">
-        <v>3280</v>
-      </c>
       <c r="P101" s="4" t="s">
-        <v>3277</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="102" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>3346</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>3349</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>3347</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>3348</v>
-      </c>
-      <c r="C102" s="4" t="s">
+      <c r="F102" s="4" t="s">
         <v>3350</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="G102" s="4" t="s">
         <v>3351</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>3349</v>
-      </c>
-      <c r="F102" s="4" t="s">
+      <c r="H102" s="4" t="s">
         <v>3352</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="I102" s="4" t="s">
         <v>3353</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="J102" s="4" t="s">
         <v>3354</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="K102" s="4" t="s">
         <v>3355</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="L102" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="M102" s="4" t="s">
         <v>3356</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="N102" s="4" t="s">
+        <v>3352</v>
+      </c>
+      <c r="O102" s="4" t="s">
         <v>3357</v>
       </c>
-      <c r="L102" s="4" t="s">
-        <v>3354</v>
-      </c>
-      <c r="M102" s="4" t="s">
+      <c r="P102" s="4" t="s">
         <v>3358</v>
-      </c>
-      <c r="N102" s="4" t="s">
-        <v>3354</v>
-      </c>
-      <c r="O102" s="4" t="s">
-        <v>3359</v>
-      </c>
-      <c r="P102" s="4" t="s">
-        <v>3360</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>3339</v>
+        <v>3337</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>3343</v>
+        <v>3341</v>
       </c>
       <c r="C103" s="4" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>3376</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>3374</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>3377</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="G103" s="4" t="s">
         <v>3378</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>3376</v>
-      </c>
-      <c r="F103" s="4" t="s">
+      <c r="H103" s="4" t="s">
         <v>3379</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="I103" s="4" t="s">
         <v>3380</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="J103" s="4" t="s">
         <v>3381</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="K103" s="4" t="s">
         <v>3382</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="L103" s="4" t="s">
         <v>3383</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="M103" s="4" t="s">
+        <v>3373</v>
+      </c>
+      <c r="N103" s="4" t="s">
         <v>3384</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="O103" s="4" t="s">
+        <v>3372</v>
+      </c>
+      <c r="P103" s="4" t="s">
         <v>3385</v>
-      </c>
-      <c r="M103" s="4" t="s">
-        <v>3375</v>
-      </c>
-      <c r="N103" s="4" t="s">
-        <v>3386</v>
-      </c>
-      <c r="O103" s="4" t="s">
-        <v>3374</v>
-      </c>
-      <c r="P103" s="4" t="s">
-        <v>3387</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>3340</v>
+        <v>3338</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>3346</v>
+        <v>3344</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>3401</v>
+        <v>3399</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>3399</v>
+        <v>3397</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="F104" s="4" t="s">
+        <v>3388</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>3396</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I104" s="4" t="s">
         <v>3390</v>
       </c>
-      <c r="G104" s="4" t="s">
-        <v>3398</v>
-      </c>
-      <c r="H104" s="4" t="s">
+      <c r="J104" s="4" t="s">
+        <v>3395</v>
+      </c>
+      <c r="K104" s="4" t="s">
+        <v>3394</v>
+      </c>
+      <c r="L104" s="4" t="s">
         <v>3391</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="M104" s="4" t="s">
+        <v>3393</v>
+      </c>
+      <c r="N104" s="4" t="s">
+        <v>3387</v>
+      </c>
+      <c r="O104" s="4" t="s">
         <v>3392</v>
       </c>
-      <c r="J104" s="4" t="s">
-        <v>3397</v>
-      </c>
-      <c r="K104" s="4" t="s">
-        <v>3396</v>
-      </c>
-      <c r="L104" s="4" t="s">
-        <v>3393</v>
-      </c>
-      <c r="M104" s="4" t="s">
-        <v>3395</v>
-      </c>
-      <c r="N104" s="4" t="s">
-        <v>3389</v>
-      </c>
-      <c r="O104" s="4" t="s">
-        <v>3394</v>
-      </c>
       <c r="P104" s="4" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="105" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>3341</v>
+        <v>3339</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>3342</v>
+        <v>3340</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>3361</v>
+      </c>
+      <c r="E105" s="4" t="s">
         <v>3362</v>
       </c>
-      <c r="D105" s="4" t="s">
+      <c r="F105" s="4" t="s">
         <v>3363</v>
       </c>
-      <c r="E105" s="4" t="s">
+      <c r="G105" s="4" t="s">
         <v>3364</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="H105" s="4" t="s">
         <v>3365</v>
       </c>
-      <c r="G105" s="4" t="s">
+      <c r="I105" s="4" t="s">
         <v>3366</v>
       </c>
-      <c r="H105" s="4" t="s">
+      <c r="J105" s="4" t="s">
         <v>3367</v>
       </c>
-      <c r="I105" s="4" t="s">
+      <c r="K105" s="4" t="s">
         <v>3368</v>
       </c>
-      <c r="J105" s="4" t="s">
+      <c r="L105" s="4" t="s">
         <v>3369</v>
       </c>
-      <c r="K105" s="4" t="s">
+      <c r="M105" s="4" t="s">
         <v>3370</v>
       </c>
-      <c r="L105" s="4" t="s">
+      <c r="N105" s="4" t="s">
+        <v>3365</v>
+      </c>
+      <c r="O105" s="4" t="s">
         <v>3371</v>
       </c>
-      <c r="M105" s="4" t="s">
-        <v>3372</v>
-      </c>
-      <c r="N105" s="4" t="s">
-        <v>3367</v>
-      </c>
-      <c r="O105" s="4" t="s">
-        <v>3373</v>
-      </c>
       <c r="P105" s="4" t="s">
-        <v>3361</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>3344</v>
+        <v>3342</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>3345</v>
+        <v>3343</v>
       </c>
       <c r="C106" s="4" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>3402</v>
       </c>
-      <c r="D106" s="4" t="s">
+      <c r="E106" s="4" t="s">
+        <v>3401</v>
+      </c>
+      <c r="F106" s="4" t="s">
         <v>3404</v>
       </c>
-      <c r="E106" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>3403</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="H106" s="4" t="s">
+        <v>3405</v>
+      </c>
+      <c r="I106" s="4" t="s">
         <v>3406</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>3405</v>
-      </c>
-      <c r="H106" s="4" t="s">
+      <c r="J106" s="4" t="s">
+        <v>3409</v>
+      </c>
+      <c r="K106" s="4" t="s">
+        <v>3410</v>
+      </c>
+      <c r="L106" s="4" t="s">
         <v>3407</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="M106" s="4" t="s">
+        <v>3411</v>
+      </c>
+      <c r="N106" s="4" t="s">
         <v>3408</v>
       </c>
-      <c r="J106" s="4" t="s">
-        <v>3411</v>
-      </c>
-      <c r="K106" s="4" t="s">
+      <c r="O106" s="4" t="s">
         <v>3412</v>
       </c>
-      <c r="L106" s="4" t="s">
-        <v>3409</v>
-      </c>
-      <c r="M106" s="4" t="s">
+      <c r="P106" s="4" t="s">
         <v>3413</v>
-      </c>
-      <c r="N106" s="4" t="s">
-        <v>3410</v>
-      </c>
-      <c r="O106" s="4" t="s">
-        <v>3414</v>
-      </c>
-      <c r="P106" s="4" t="s">
-        <v>3415</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>3307</v>
+        <v>3305</v>
       </c>
       <c r="B107" s="4" t="s">
+        <v>3308</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>3309</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>3310</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="E107" s="4" t="s">
+        <v>3312</v>
+      </c>
+      <c r="F107" s="4" t="s">
         <v>3311</v>
       </c>
-      <c r="D107" s="4" t="s">
-        <v>3312</v>
-      </c>
-      <c r="E107" s="4" t="s">
+      <c r="G107" s="4" t="s">
+        <v>3313</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>3316</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>3315</v>
+      </c>
+      <c r="K107" s="4" t="s">
         <v>3314</v>
       </c>
-      <c r="F107" s="4" t="s">
-        <v>3313</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>3315</v>
-      </c>
-      <c r="H107" s="4" t="s">
+      <c r="L107" s="4" t="s">
+        <v>3318</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>3320</v>
+      </c>
+      <c r="N107" s="4" t="s">
         <v>3319</v>
       </c>
-      <c r="I107" s="4" t="s">
-        <v>3318</v>
-      </c>
-      <c r="J107" s="4" t="s">
-        <v>3317</v>
-      </c>
-      <c r="K107" s="4" t="s">
-        <v>3316</v>
-      </c>
-      <c r="L107" s="4" t="s">
-        <v>3320</v>
-      </c>
-      <c r="M107" s="4" t="s">
+      <c r="O107" s="4" t="s">
+        <v>3321</v>
+      </c>
+      <c r="P107" s="4" t="s">
         <v>3322</v>
-      </c>
-      <c r="N107" s="4" t="s">
-        <v>3321</v>
-      </c>
-      <c r="O107" s="4" t="s">
-        <v>3323</v>
-      </c>
-      <c r="P107" s="4" t="s">
-        <v>3324</v>
       </c>
     </row>
     <row r="108" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>3308</v>
+        <v>3306</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>3309</v>
+        <v>3307</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>3338</v>
+        <v>3336</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>3336</v>
+        <v>3334</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>3337</v>
+        <v>3335</v>
       </c>
       <c r="F108" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J108" s="4" t="s">
         <v>3332</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="K108" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="H108" s="4" t="s">
-        <v>3331</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>3330</v>
-      </c>
-      <c r="J108" s="4" t="s">
-        <v>3334</v>
-      </c>
-      <c r="K108" s="4" t="s">
-        <v>3335</v>
-      </c>
       <c r="L108" s="4" t="s">
-        <v>3328</v>
+        <v>3326</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>3325</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="109" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -15421,7 +15442,7 @@
         <v>1881</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>319</v>
@@ -15439,7 +15460,7 @@
         <v>1921</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="L110" s="4" t="s">
         <v>196</v>
@@ -15471,7 +15492,7 @@
         <v>1870</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>307</v>
@@ -15489,7 +15510,7 @@
         <v>1909</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="L111" s="4" t="s">
         <v>188</v>
@@ -15521,7 +15542,7 @@
         <v>1871</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>308</v>
@@ -15539,7 +15560,7 @@
         <v>1910</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="L112" s="4" t="s">
         <v>189</v>
@@ -15571,7 +15592,7 @@
         <v>1872</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>309</v>
@@ -15589,7 +15610,7 @@
         <v>1911</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="L113" s="4" t="s">
         <v>190</v>
@@ -15621,7 +15642,7 @@
         <v>1907</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>310</v>
@@ -15639,7 +15660,7 @@
         <v>1912</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="L114" s="4" t="s">
         <v>191</v>
@@ -15671,7 +15692,7 @@
         <v>1873</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>311</v>
@@ -15689,7 +15710,7 @@
         <v>1913</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="L115" s="4" t="s">
         <v>101</v>
@@ -15721,7 +15742,7 @@
         <v>1874</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>312</v>
@@ -15739,7 +15760,7 @@
         <v>1914</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="L116" s="4" t="s">
         <v>52</v>
@@ -15771,7 +15792,7 @@
         <v>1875</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>313</v>
@@ -15789,7 +15810,7 @@
         <v>1915</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="L117" s="4" t="s">
         <v>192</v>
@@ -15821,7 +15842,7 @@
         <v>1876</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>314</v>
@@ -15839,7 +15860,7 @@
         <v>1916</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="L118" s="4" t="s">
         <v>193</v>
@@ -15871,7 +15892,7 @@
         <v>1877</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>315</v>
@@ -15889,7 +15910,7 @@
         <v>1917</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="L119" s="4" t="s">
         <v>194</v>
@@ -15909,102 +15930,102 @@
     </row>
     <row r="120" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
       <c r="B120" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H120" s="4" t="s">
         <v>2535</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D120" s="4" t="s">
+      <c r="I120" s="4" t="s">
         <v>2536</v>
       </c>
-      <c r="E120" s="4" t="s">
+      <c r="J120" s="4" t="s">
         <v>2541</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="K120" s="4" t="s">
         <v>2542</v>
       </c>
-      <c r="G120" s="4" t="s">
-        <v>2539</v>
-      </c>
-      <c r="H120" s="4" t="s">
-        <v>2537</v>
-      </c>
-      <c r="I120" s="4" t="s">
-        <v>2538</v>
-      </c>
-      <c r="J120" s="4" t="s">
+      <c r="L120" s="4" t="s">
         <v>2543</v>
       </c>
-      <c r="K120" s="4" t="s">
+      <c r="M120" s="4" t="s">
         <v>2544</v>
       </c>
-      <c r="L120" s="4" t="s">
+      <c r="N120" s="4" t="s">
         <v>2545</v>
       </c>
-      <c r="M120" s="4" t="s">
+      <c r="O120" s="4" t="s">
         <v>2546</v>
       </c>
-      <c r="N120" s="4" t="s">
+      <c r="P120" s="4" t="s">
         <v>2547</v>
-      </c>
-      <c r="O120" s="4" t="s">
-        <v>2548</v>
-      </c>
-      <c r="P120" s="4" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="121" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="C121" s="4" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E121" s="4" t="s">
         <v>2556</v>
       </c>
-      <c r="D121" s="4" t="s">
+      <c r="F121" s="4" t="s">
         <v>2557</v>
       </c>
-      <c r="E121" s="4" t="s">
+      <c r="G121" s="4" t="s">
         <v>2558</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="H121" s="4" t="s">
         <v>2559</v>
       </c>
-      <c r="G121" s="4" t="s">
+      <c r="I121" s="4" t="s">
         <v>2560</v>
       </c>
-      <c r="H121" s="4" t="s">
+      <c r="J121" s="4" t="s">
         <v>2561</v>
       </c>
-      <c r="I121" s="4" t="s">
+      <c r="K121" s="4" t="s">
         <v>2562</v>
       </c>
-      <c r="J121" s="4" t="s">
+      <c r="L121" s="4" t="s">
         <v>2563</v>
       </c>
-      <c r="K121" s="4" t="s">
+      <c r="M121" s="4" t="s">
         <v>2564</v>
       </c>
-      <c r="L121" s="4" t="s">
+      <c r="N121" s="4" t="s">
         <v>2565</v>
       </c>
-      <c r="M121" s="4" t="s">
-        <v>2566</v>
-      </c>
-      <c r="N121" s="4" t="s">
-        <v>2567</v>
-      </c>
       <c r="O121" s="4" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="P121" s="4" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="122" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -16021,7 +16042,7 @@
         <v>1878</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>316</v>
@@ -16039,7 +16060,7 @@
         <v>1918</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="L122" s="4" t="s">
         <v>105</v>
@@ -16062,7 +16083,7 @@
         <v>21</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>2947</v>
+        <v>2945</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>1615</v>
@@ -16071,7 +16092,7 @@
         <v>1879</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>317</v>
@@ -16089,7 +16110,7 @@
         <v>1919</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>195</v>
@@ -16109,52 +16130,52 @@
     </row>
     <row r="124" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>2948</v>
+        <v>2946</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>2949</v>
+        <v>2947</v>
       </c>
       <c r="C124" s="4" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>2956</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>2957</v>
       </c>
-      <c r="D124" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>2958</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="G124" s="4" t="s">
         <v>2959</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="H124" s="4" t="s">
         <v>2960</v>
       </c>
-      <c r="G124" s="4" t="s">
+      <c r="I124" s="4" t="s">
         <v>2961</v>
       </c>
-      <c r="H124" s="4" t="s">
+      <c r="J124" s="4" t="s">
         <v>2962</v>
       </c>
-      <c r="I124" s="4" t="s">
+      <c r="K124" s="4" t="s">
         <v>2963</v>
       </c>
-      <c r="J124" s="4" t="s">
+      <c r="L124" s="4" t="s">
         <v>2964</v>
       </c>
-      <c r="K124" s="4" t="s">
+      <c r="M124" s="4" t="s">
         <v>2965</v>
       </c>
-      <c r="L124" s="4" t="s">
+      <c r="N124" s="4" t="s">
         <v>2966</v>
       </c>
-      <c r="M124" s="4" t="s">
+      <c r="O124" s="4" t="s">
         <v>2967</v>
       </c>
-      <c r="N124" s="4" t="s">
-        <v>2968</v>
-      </c>
-      <c r="O124" s="4" t="s">
-        <v>2969</v>
-      </c>
       <c r="P124" s="4" t="s">
-        <v>2956</v>
+        <v>2954</v>
       </c>
     </row>
     <row r="125" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -16171,7 +16192,7 @@
         <v>1880</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>318</v>
@@ -16189,7 +16210,7 @@
         <v>1920</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="L125" s="4" t="s">
         <v>97</v>
@@ -16221,7 +16242,7 @@
         <v>1882</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>320</v>
@@ -16239,7 +16260,7 @@
         <v>1922</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>2236</v>
+        <v>2234</v>
       </c>
       <c r="L126" s="4" t="s">
         <v>197</v>
@@ -16271,7 +16292,7 @@
         <v>1883</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>321</v>
@@ -16289,7 +16310,7 @@
         <v>1923</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>2237</v>
+        <v>2235</v>
       </c>
       <c r="L127" s="4" t="s">
         <v>198</v>
@@ -16321,7 +16342,7 @@
         <v>1884</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>2220</v>
+        <v>2218</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>322</v>
@@ -16339,7 +16360,7 @@
         <v>1924</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="L128" s="4" t="s">
         <v>199</v>
@@ -16371,7 +16392,7 @@
         <v>1885</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>2221</v>
+        <v>2219</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>323</v>
@@ -16389,7 +16410,7 @@
         <v>1925</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>2239</v>
+        <v>2237</v>
       </c>
       <c r="L129" s="4" t="s">
         <v>200</v>
@@ -16409,252 +16430,252 @@
     </row>
     <row r="130" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>2949</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>2644</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>2643</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>2641</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>2639</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>2638</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>2637</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>2636</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>2635</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>2634</v>
+      </c>
+      <c r="O130" s="4" t="s">
         <v>2633</v>
       </c>
-      <c r="B130" s="4" t="s">
-        <v>2951</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>2647</v>
-      </c>
-      <c r="D130" s="4" t="s">
-        <v>2646</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>2645</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>2644</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>2643</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>2642</v>
-      </c>
-      <c r="I130" s="4" t="s">
-        <v>2641</v>
-      </c>
-      <c r="J130" s="4" t="s">
-        <v>2640</v>
-      </c>
-      <c r="K130" s="4" t="s">
-        <v>2639</v>
-      </c>
-      <c r="L130" s="4" t="s">
-        <v>2638</v>
-      </c>
-      <c r="M130" s="4" t="s">
-        <v>2637</v>
-      </c>
-      <c r="N130" s="4" t="s">
-        <v>2636</v>
-      </c>
-      <c r="O130" s="4" t="s">
-        <v>2635</v>
-      </c>
       <c r="P130" s="4" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
+        <v>2950</v>
+      </c>
+      <c r="B131" s="4" t="s">
         <v>2952</v>
       </c>
-      <c r="B131" s="4" t="s">
-        <v>2954</v>
-      </c>
       <c r="C131" s="4" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E131" s="4" t="s">
         <v>2977</v>
       </c>
-      <c r="D131" s="4" t="s">
+      <c r="F131" s="4" t="s">
+        <v>2974</v>
+      </c>
+      <c r="G131" s="4" t="s">
         <v>2978</v>
       </c>
-      <c r="E131" s="4" t="s">
+      <c r="H131" s="4" t="s">
+        <v>2973</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>2972</v>
+      </c>
+      <c r="J131" s="4" t="s">
         <v>2979</v>
       </c>
-      <c r="F131" s="4" t="s">
-        <v>2976</v>
-      </c>
-      <c r="G131" s="4" t="s">
+      <c r="K131" s="4" t="s">
         <v>2980</v>
       </c>
-      <c r="H131" s="4" t="s">
-        <v>2975</v>
-      </c>
-      <c r="I131" s="4" t="s">
-        <v>2974</v>
-      </c>
-      <c r="J131" s="4" t="s">
+      <c r="L131" s="4" t="s">
+        <v>2971</v>
+      </c>
+      <c r="M131" s="4" t="s">
         <v>2981</v>
       </c>
-      <c r="K131" s="4" t="s">
-        <v>2982</v>
-      </c>
-      <c r="L131" s="4" t="s">
-        <v>2973</v>
-      </c>
-      <c r="M131" s="4" t="s">
-        <v>2983</v>
-      </c>
       <c r="N131" s="4" t="s">
-        <v>2972</v>
+        <v>2970</v>
       </c>
       <c r="O131" s="4" t="s">
-        <v>2970</v>
+        <v>2968</v>
       </c>
       <c r="P131" s="4" t="s">
-        <v>2971</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="132" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
+        <v>2951</v>
+      </c>
+      <c r="B132" s="4" t="s">
         <v>2953</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>2955</v>
-      </c>
       <c r="C132" s="4" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E132" s="4" t="s">
         <v>2984</v>
       </c>
-      <c r="D132" s="4" t="s">
+      <c r="F132" s="4" t="s">
         <v>2985</v>
       </c>
-      <c r="E132" s="4" t="s">
+      <c r="G132" s="4" t="s">
         <v>2986</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="H132" s="4" t="s">
         <v>2987</v>
       </c>
-      <c r="G132" s="4" t="s">
+      <c r="I132" s="4" t="s">
         <v>2988</v>
       </c>
-      <c r="H132" s="4" t="s">
+      <c r="J132" s="4" t="s">
+        <v>2995</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>2994</v>
+      </c>
+      <c r="L132" s="4" t="s">
         <v>2989</v>
       </c>
-      <c r="I132" s="4" t="s">
+      <c r="M132" s="4" t="s">
+        <v>2993</v>
+      </c>
+      <c r="N132" s="4" t="s">
         <v>2990</v>
       </c>
-      <c r="J132" s="4" t="s">
-        <v>2997</v>
-      </c>
-      <c r="K132" s="4" t="s">
-        <v>2996</v>
-      </c>
-      <c r="L132" s="4" t="s">
+      <c r="O132" s="4" t="s">
+        <v>2992</v>
+      </c>
+      <c r="P132" s="4" t="s">
         <v>2991</v>
-      </c>
-      <c r="M132" s="4" t="s">
-        <v>2995</v>
-      </c>
-      <c r="N132" s="4" t="s">
-        <v>2992</v>
-      </c>
-      <c r="O132" s="4" t="s">
-        <v>2994</v>
-      </c>
-      <c r="P132" s="4" t="s">
-        <v>2993</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>3196</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>3197</v>
+      </c>
+      <c r="C133" s="2" t="s">
         <v>3198</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="D133" s="2" t="s">
         <v>3199</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="E133" s="2" t="s">
         <v>3200</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="F133" s="2" t="s">
         <v>3201</v>
       </c>
-      <c r="E133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>3202</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>3203</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>3204</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>3205</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="K133" s="2" t="s">
         <v>3206</v>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="L133" s="2" t="s">
         <v>3207</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="M133" s="2" t="s">
         <v>3208</v>
       </c>
-      <c r="L133" s="2" t="s">
+      <c r="N133" s="2" t="s">
         <v>3209</v>
       </c>
-      <c r="M133" s="2" t="s">
+      <c r="O133" s="2" t="s">
         <v>3210</v>
       </c>
-      <c r="N133" s="2" t="s">
+      <c r="P133" s="2" t="s">
         <v>3211</v>
-      </c>
-      <c r="O133" s="2" t="s">
-        <v>3212</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>3213</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>2950</v>
+        <v>2948</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>2855</v>
+        <v>2853</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>2862</v>
+        <v>2860</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>2869</v>
+        <v>2867</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>2881</v>
+        <v>2879</v>
       </c>
       <c r="G134" s="4" t="s">
-        <v>2888</v>
+        <v>2886</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>2887</v>
+        <v>2885</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>2895</v>
+        <v>2893</v>
       </c>
       <c r="J134" s="4" t="s">
-        <v>2901</v>
+        <v>2899</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>2907</v>
+        <v>2905</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>2914</v>
+        <v>2912</v>
       </c>
       <c r="M134" s="4" t="s">
-        <v>2921</v>
+        <v>2919</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>2928</v>
+        <v>2926</v>
       </c>
       <c r="O134" s="4" t="s">
-        <v>2933</v>
+        <v>2931</v>
       </c>
       <c r="P134" s="4" t="s">
-        <v>2940</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="135" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -16671,7 +16692,7 @@
         <v>1905</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>324</v>
@@ -16689,7 +16710,7 @@
         <v>1901</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="L135" s="4" t="s">
         <v>201</v>
@@ -16721,7 +16742,7 @@
         <v>1906</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>325</v>
@@ -16739,7 +16760,7 @@
         <v>1902</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="L136" s="4" t="s">
         <v>64</v>
@@ -16816,28 +16837,28 @@
     <row r="144" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>2856</v>
+        <v>2854</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>2863</v>
+        <v>2861</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>2870</v>
+        <v>2868</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="G145" s="4" t="s">
-        <v>2889</v>
+        <v>2887</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>536</v>
@@ -16846,272 +16867,272 @@
         <v>1800</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>2908</v>
+        <v>2906</v>
       </c>
       <c r="L145" s="4" t="s">
-        <v>2915</v>
+        <v>2913</v>
       </c>
       <c r="M145" s="4" t="s">
-        <v>2922</v>
+        <v>2920</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>2848</v>
+        <v>2846</v>
       </c>
       <c r="O145" s="4" t="s">
-        <v>2934</v>
+        <v>2932</v>
       </c>
       <c r="P145" s="4" t="s">
-        <v>2941</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="146" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>2843</v>
+        <v>2841</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>2852</v>
+        <v>2850</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>2857</v>
+        <v>2855</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>2864</v>
+        <v>2862</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>2871</v>
+        <v>2869</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>2876</v>
+        <v>2874</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>2890</v>
+        <v>2888</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>2882</v>
+        <v>2880</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>2896</v>
+        <v>2894</v>
       </c>
       <c r="J146" s="4" t="s">
-        <v>2905</v>
+        <v>2903</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>2909</v>
+        <v>2907</v>
       </c>
       <c r="L146" s="4" t="s">
-        <v>2916</v>
+        <v>2914</v>
       </c>
       <c r="M146" s="4" t="s">
-        <v>2923</v>
+        <v>2921</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>2929</v>
+        <v>2927</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>2935</v>
+        <v>2933</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>2942</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="147" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>2844</v>
+        <v>2842</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>2853</v>
+        <v>2851</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>2858</v>
+        <v>2856</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>2872</v>
+        <v>2870</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>2877</v>
+        <v>2875</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>2891</v>
+        <v>2889</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>2883</v>
+        <v>2881</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>2897</v>
+        <v>2895</v>
       </c>
       <c r="J147" s="4" t="s">
-        <v>2906</v>
+        <v>2904</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>2910</v>
+        <v>2908</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>2917</v>
+        <v>2915</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>2924</v>
+        <v>2922</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>2930</v>
+        <v>2928</v>
       </c>
       <c r="O147" s="4" t="s">
-        <v>2936</v>
+        <v>2934</v>
       </c>
       <c r="P147" s="4" t="s">
-        <v>2943</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="148" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>2845</v>
+        <v>2843</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>2859</v>
+        <v>2857</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>2866</v>
+        <v>2864</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>2873</v>
+        <v>2871</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>2878</v>
+        <v>2876</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2892</v>
+        <v>2890</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>2884</v>
+        <v>2882</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="J148" s="4" t="s">
-        <v>2902</v>
+        <v>2900</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>2911</v>
+        <v>2909</v>
       </c>
       <c r="L148" s="4" t="s">
-        <v>2918</v>
+        <v>2916</v>
       </c>
       <c r="M148" s="4" t="s">
-        <v>2925</v>
+        <v>2923</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>2931</v>
+        <v>2929</v>
       </c>
       <c r="O148" s="4" t="s">
-        <v>2937</v>
+        <v>2935</v>
       </c>
       <c r="P148" s="4" t="s">
-        <v>2944</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="149" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>2846</v>
+        <v>2844</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>2850</v>
+        <v>2848</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>2860</v>
+        <v>2858</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>2867</v>
+        <v>2865</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>2874</v>
+        <v>2872</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>2879</v>
+        <v>2877</v>
       </c>
       <c r="G149" s="4" t="s">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>2899</v>
+        <v>2897</v>
       </c>
       <c r="J149" s="4" t="s">
-        <v>2903</v>
+        <v>2901</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>2912</v>
+        <v>2910</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>2919</v>
+        <v>2917</v>
       </c>
       <c r="M149" s="4" t="s">
-        <v>2926</v>
+        <v>2924</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>2885</v>
+        <v>2883</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>2938</v>
+        <v>2936</v>
       </c>
       <c r="P149" s="4" t="s">
-        <v>2945</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="150" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>2847</v>
+        <v>2845</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>2851</v>
+        <v>2849</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>2861</v>
+        <v>2859</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>2868</v>
+        <v>2866</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>2875</v>
+        <v>2873</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>2880</v>
+        <v>2878</v>
       </c>
       <c r="G150" s="4" t="s">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>2886</v>
+        <v>2884</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>2900</v>
+        <v>2898</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>2904</v>
+        <v>2902</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>2913</v>
+        <v>2911</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>2920</v>
+        <v>2918</v>
       </c>
       <c r="M150" s="4" t="s">
-        <v>2927</v>
+        <v>2925</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>2932</v>
+        <v>2930</v>
       </c>
       <c r="O150" s="4" t="s">
-        <v>2939</v>
+        <v>2937</v>
       </c>
       <c r="P150" s="4" t="s">
-        <v>2946</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="152" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -17128,7 +17149,7 @@
         <v>1848</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="F152" s="4" t="s">
         <v>4</v>
@@ -17146,7 +17167,7 @@
         <v>1865</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="L152" s="4" t="s">
         <v>183</v>
@@ -17178,7 +17199,7 @@
         <v>1957</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>1358</v>
@@ -17196,7 +17217,7 @@
         <v>1961</v>
       </c>
       <c r="K153" s="4" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="L153" s="4" t="s">
         <v>1436</v>
@@ -17228,7 +17249,7 @@
         <v>1958</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="F154" s="4" t="s">
         <v>1359</v>
@@ -17246,7 +17267,7 @@
         <v>1962</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="L154" s="4" t="s">
         <v>1437</v>
@@ -17278,7 +17299,7 @@
         <v>1963</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>1360</v>
@@ -17296,7 +17317,7 @@
         <v>1994</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>2303</v>
+        <v>2301</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>1441</v>
@@ -17328,7 +17349,7 @@
         <v>1964</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="F156" s="4" t="s">
         <v>1361</v>
@@ -17346,7 +17367,7 @@
         <v>1995</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>2304</v>
+        <v>2302</v>
       </c>
       <c r="L156" s="4" t="s">
         <v>1442</v>
@@ -17378,7 +17399,7 @@
         <v>1965</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>1362</v>
@@ -17396,7 +17417,7 @@
         <v>1996</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>2305</v>
+        <v>2303</v>
       </c>
       <c r="L157" s="4" t="s">
         <v>1443</v>
@@ -17419,7 +17440,7 @@
         <v>1323</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>1633</v>
@@ -17428,7 +17449,7 @@
         <v>1966</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="F158" s="4" t="s">
         <v>1199</v>
@@ -17446,7 +17467,7 @@
         <v>1997</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>2306</v>
+        <v>2304</v>
       </c>
       <c r="L158" s="4" t="s">
         <v>1444</v>
@@ -17478,7 +17499,7 @@
         <v>1967</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F159" s="4" t="s">
         <v>1363</v>
@@ -17496,7 +17517,7 @@
         <v>1998</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>2307</v>
+        <v>2305</v>
       </c>
       <c r="L159" s="4" t="s">
         <v>1445</v>
@@ -17528,7 +17549,7 @@
         <v>1968</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>1364</v>
@@ -17546,7 +17567,7 @@
         <v>1999</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>2308</v>
+        <v>2306</v>
       </c>
       <c r="L160" s="4" t="s">
         <v>1446</v>
@@ -17578,7 +17599,7 @@
         <v>1969</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>1365</v>
@@ -17596,7 +17617,7 @@
         <v>2000</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>2309</v>
+        <v>2307</v>
       </c>
       <c r="L161" s="4" t="s">
         <v>1447</v>
@@ -17628,7 +17649,7 @@
         <v>1970</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>1366</v>
@@ -17646,7 +17667,7 @@
         <v>2001</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="L162" s="4" t="s">
         <v>1389</v>
@@ -17678,7 +17699,7 @@
         <v>1971</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>1218</v>
@@ -17696,7 +17717,7 @@
         <v>2002</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="L163" s="4" t="s">
         <v>1221</v>
@@ -17728,7 +17749,7 @@
         <v>1972</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="F164" s="4" t="s">
         <v>1339</v>
@@ -17746,7 +17767,7 @@
         <v>2003</v>
       </c>
       <c r="K164" s="4" t="s">
-        <v>2312</v>
+        <v>2310</v>
       </c>
       <c r="L164" s="4" t="s">
         <v>1448</v>
@@ -17778,7 +17799,7 @@
         <v>1968</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
       <c r="F165" s="4" t="s">
         <v>1367</v>
@@ -17796,7 +17817,7 @@
         <v>2004</v>
       </c>
       <c r="K165" s="4" t="s">
-        <v>2313</v>
+        <v>2311</v>
       </c>
       <c r="L165" s="4" t="s">
         <v>1449</v>
@@ -17816,102 +17837,102 @@
     </row>
     <row r="166" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
+        <v>2566</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>2567</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>2570</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>2571</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>2572</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>2573</v>
+      </c>
+      <c r="H166" s="4" t="s">
+        <v>2574</v>
+      </c>
+      <c r="I166" s="4" t="s">
+        <v>2576</v>
+      </c>
+      <c r="J166" s="4" t="s">
+        <v>2575</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>2568</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>2569</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>2572</v>
-      </c>
-      <c r="D166" s="4" t="s">
-        <v>2573</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>2571</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>2574</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>2575</v>
-      </c>
-      <c r="H166" s="4" t="s">
-        <v>2576</v>
-      </c>
-      <c r="I166" s="4" t="s">
+      <c r="L166" s="4" t="s">
+        <v>2577</v>
+      </c>
+      <c r="M166" s="4" t="s">
         <v>2578</v>
       </c>
-      <c r="J166" s="4" t="s">
+      <c r="N166" s="4" t="s">
         <v>2577</v>
       </c>
-      <c r="K166" s="4" t="s">
-        <v>2570</v>
-      </c>
-      <c r="L166" s="4" t="s">
+      <c r="O166" s="4" t="s">
         <v>2579</v>
       </c>
-      <c r="M166" s="4" t="s">
+      <c r="P166" s="4" t="s">
         <v>2580</v>
-      </c>
-      <c r="N166" s="4" t="s">
-        <v>2579</v>
-      </c>
-      <c r="O166" s="4" t="s">
-        <v>2581</v>
-      </c>
-      <c r="P166" s="4" t="s">
-        <v>2582</v>
       </c>
     </row>
     <row r="167" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
+        <v>2996</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J167" s="4" t="s">
         <v>2998</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>2999</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>3007</v>
-      </c>
-      <c r="D167" s="4" t="s">
+      <c r="K167" s="4" t="s">
         <v>3006</v>
       </c>
-      <c r="E167" s="4" t="s">
-        <v>3005</v>
-      </c>
-      <c r="F167" s="4" t="s">
-        <v>3004</v>
-      </c>
-      <c r="G167" s="4" t="s">
-        <v>3003</v>
-      </c>
-      <c r="H167" s="4" t="s">
-        <v>3002</v>
-      </c>
-      <c r="I167" s="4" t="s">
-        <v>3001</v>
-      </c>
-      <c r="J167" s="4" t="s">
-        <v>3000</v>
-      </c>
-      <c r="K167" s="4" t="s">
+      <c r="L167" s="4" t="s">
         <v>3008</v>
       </c>
-      <c r="L167" s="4" t="s">
+      <c r="M167" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="N167" s="4" t="s">
         <v>3010</v>
       </c>
-      <c r="M167" s="4" t="s">
+      <c r="O167" s="4" t="s">
         <v>3011</v>
       </c>
-      <c r="N167" s="4" t="s">
+      <c r="P167" s="4" t="s">
         <v>3012</v>
-      </c>
-      <c r="O167" s="4" t="s">
-        <v>3013</v>
-      </c>
-      <c r="P167" s="4" t="s">
-        <v>3014</v>
       </c>
     </row>
     <row r="168" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -17928,7 +17949,7 @@
         <v>1969</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="F168" s="4" t="s">
         <v>1365</v>
@@ -17946,7 +17967,7 @@
         <v>2000</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>1447</v>
@@ -17978,7 +17999,7 @@
         <v>1973</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="F169" s="4" t="s">
         <v>1369</v>
@@ -17996,7 +18017,7 @@
         <v>2005</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="L169" s="4" t="s">
         <v>1369</v>
@@ -18028,7 +18049,7 @@
         <v>2012</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>2011</v>
@@ -18037,7 +18058,7 @@
         <v>2013</v>
       </c>
       <c r="K170" s="4" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="L170" s="4" t="s">
         <v>1368</v>
@@ -18069,7 +18090,7 @@
         <v>1974</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>2299</v>
+        <v>2297</v>
       </c>
       <c r="F171" s="4" t="s">
         <v>1372</v>
@@ -18087,7 +18108,7 @@
         <v>2006</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>1450</v>
@@ -18119,7 +18140,7 @@
         <v>1967</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="F172" s="4" t="s">
         <v>1363</v>
@@ -18137,7 +18158,7 @@
         <v>2007</v>
       </c>
       <c r="K172" s="4" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="L172" s="4" t="s">
         <v>1451</v>
@@ -18169,7 +18190,7 @@
         <v>1975</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>2300</v>
+        <v>2298</v>
       </c>
       <c r="F173" s="4" t="s">
         <v>1373</v>
@@ -18187,7 +18208,7 @@
         <v>2008</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="L173" s="4" t="s">
         <v>1452</v>
@@ -18219,7 +18240,7 @@
         <v>1976</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>2301</v>
+        <v>2299</v>
       </c>
       <c r="F174" s="4" t="s">
         <v>1374</v>
@@ -18237,7 +18258,7 @@
         <v>2009</v>
       </c>
       <c r="K174" s="4" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="L174" s="4" t="s">
         <v>1453</v>
@@ -18269,7 +18290,7 @@
         <v>1977</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="F175" s="4" t="s">
         <v>1375</v>
@@ -18287,7 +18308,7 @@
         <v>2010</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="L175" s="4" t="s">
         <v>1454</v>
@@ -18320,7 +18341,7 @@
         <v>1957</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F177" s="4" t="s">
         <v>1370</v>
@@ -18338,7 +18359,7 @@
         <v>2044</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="L177" s="4" t="s">
         <v>1397</v>
@@ -18370,7 +18391,7 @@
         <v>2014</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F178" s="4" t="s">
         <v>1285</v>
@@ -18388,7 +18409,7 @@
         <v>2045</v>
       </c>
       <c r="K178" s="4" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="L178" s="4" t="s">
         <v>1280</v>
@@ -18420,7 +18441,7 @@
         <v>2015</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F179" s="4" t="s">
         <v>1286</v>
@@ -18438,7 +18459,7 @@
         <v>2046</v>
       </c>
       <c r="K179" s="4" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="L179" s="4" t="s">
         <v>1289</v>
@@ -18470,7 +18491,7 @@
         <v>2016</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>2324</v>
+        <v>2322</v>
       </c>
       <c r="F180" s="4" t="s">
         <v>1309</v>
@@ -18488,7 +18509,7 @@
         <v>2047</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="L180" s="4" t="s">
         <v>1433</v>
@@ -18520,7 +18541,7 @@
         <v>2017</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="F181" s="4" t="s">
         <v>1371</v>
@@ -18538,7 +18559,7 @@
         <v>2048</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="L181" s="4" t="s">
         <v>1434</v>
@@ -18570,7 +18591,7 @@
         <v>2018</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="F182" s="4" t="s">
         <v>1311</v>
@@ -18588,7 +18609,7 @@
         <v>2049</v>
       </c>
       <c r="K182" s="4" t="s">
-        <v>2336</v>
+        <v>2334</v>
       </c>
       <c r="L182" s="4" t="s">
         <v>1435</v>
@@ -18620,7 +18641,7 @@
         <v>1986</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="F183" s="4" t="s">
         <v>1178</v>
@@ -18638,7 +18659,7 @@
         <v>2050</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>2337</v>
+        <v>2335</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>1186</v>
@@ -18670,7 +18691,7 @@
         <v>2019</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="F184" s="4" t="s">
         <v>1177</v>
@@ -18688,7 +18709,7 @@
         <v>2051</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>2338</v>
+        <v>2336</v>
       </c>
       <c r="L184" s="4" t="s">
         <v>1189</v>
@@ -18720,7 +18741,7 @@
         <v>2020</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="F185" s="4" t="s">
         <v>1253</v>
@@ -18738,7 +18759,7 @@
         <v>2052</v>
       </c>
       <c r="K185" s="4" t="s">
-        <v>2339</v>
+        <v>2337</v>
       </c>
       <c r="L185" s="4" t="s">
         <v>1260</v>
@@ -18758,52 +18779,52 @@
     </row>
     <row r="186" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>3015</v>
+        <v>3013</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>3016</v>
+        <v>3014</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="D186" s="4" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>3003</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>3002</v>
+      </c>
+      <c r="G186" s="4" t="s">
+        <v>3001</v>
+      </c>
+      <c r="H186" s="4" t="s">
+        <v>3000</v>
+      </c>
+      <c r="I186" s="4" t="s">
+        <v>2999</v>
+      </c>
+      <c r="J186" s="4" t="s">
+        <v>2998</v>
+      </c>
+      <c r="K186" s="4" t="s">
         <v>3006</v>
       </c>
-      <c r="E186" s="4" t="s">
-        <v>3005</v>
-      </c>
-      <c r="F186" s="4" t="s">
-        <v>3004</v>
-      </c>
-      <c r="G186" s="4" t="s">
-        <v>3003</v>
-      </c>
-      <c r="H186" s="4" t="s">
-        <v>3002</v>
-      </c>
-      <c r="I186" s="4" t="s">
-        <v>3001</v>
-      </c>
-      <c r="J186" s="4" t="s">
-        <v>3000</v>
-      </c>
-      <c r="K186" s="4" t="s">
+      <c r="L186" s="4" t="s">
         <v>3008</v>
       </c>
-      <c r="L186" s="4" t="s">
+      <c r="M186" s="4" t="s">
+        <v>3009</v>
+      </c>
+      <c r="N186" s="4" t="s">
         <v>3010</v>
       </c>
-      <c r="M186" s="4" t="s">
+      <c r="O186" s="4" t="s">
         <v>3011</v>
       </c>
-      <c r="N186" s="4" t="s">
+      <c r="P186" s="4" t="s">
         <v>3012</v>
-      </c>
-      <c r="O186" s="4" t="s">
-        <v>3013</v>
-      </c>
-      <c r="P186" s="4" t="s">
-        <v>3014</v>
       </c>
     </row>
     <row r="187" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -18820,7 +18841,7 @@
         <v>2021</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="F187" s="4" t="s">
         <v>1254</v>
@@ -18838,7 +18859,7 @@
         <v>2053</v>
       </c>
       <c r="K187" s="4" t="s">
-        <v>2340</v>
+        <v>2338</v>
       </c>
       <c r="L187" s="4" t="s">
         <v>1255</v>
@@ -18870,7 +18891,7 @@
         <v>1847</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="F188" s="4" t="s">
         <v>636</v>
@@ -18888,7 +18909,7 @@
         <v>2054</v>
       </c>
       <c r="K188" s="5" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="L188" s="4" t="s">
         <v>685</v>
@@ -18920,7 +18941,7 @@
         <v>2017</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>2325</v>
+        <v>2323</v>
       </c>
       <c r="F189" s="4" t="s">
         <v>313</v>
@@ -18938,7 +18959,7 @@
         <v>2048</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="L189" s="4" t="s">
         <v>192</v>
@@ -18970,7 +18991,7 @@
         <v>2022</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="F190" s="4" t="s">
         <v>1199</v>
@@ -18988,7 +19009,7 @@
         <v>2055</v>
       </c>
       <c r="K190" s="4" t="s">
-        <v>2347</v>
+        <v>2345</v>
       </c>
       <c r="L190" s="4" t="s">
         <v>1195</v>
@@ -19020,7 +19041,7 @@
         <v>2023</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>2341</v>
+        <v>2339</v>
       </c>
       <c r="F191" s="4" t="s">
         <v>1198</v>
@@ -19038,7 +19059,7 @@
         <v>2056</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>2348</v>
+        <v>2346</v>
       </c>
       <c r="L191" s="4" t="s">
         <v>1196</v>
@@ -19070,7 +19091,7 @@
         <v>2024</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>2342</v>
+        <v>2340</v>
       </c>
       <c r="F192" s="4" t="s">
         <v>1219</v>
@@ -19088,7 +19109,7 @@
         <v>2057</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>2349</v>
+        <v>2347</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>1214</v>
@@ -19120,7 +19141,7 @@
         <v>1971</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
       <c r="F193" s="4" t="s">
         <v>1218</v>
@@ -19138,7 +19159,7 @@
         <v>2002</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>2311</v>
+        <v>2309</v>
       </c>
       <c r="L193" s="4" t="s">
         <v>1217</v>
@@ -19170,7 +19191,7 @@
         <v>2025</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>2343</v>
+        <v>2341</v>
       </c>
       <c r="F194" s="4" t="s">
         <v>1167</v>
@@ -19188,7 +19209,7 @@
         <v>2058</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>2350</v>
+        <v>2348</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>1170</v>
@@ -19220,7 +19241,7 @@
         <v>2026</v>
       </c>
       <c r="E195" s="4" t="s">
-        <v>2344</v>
+        <v>2342</v>
       </c>
       <c r="F195" s="4" t="s">
         <v>1376</v>
@@ -19238,7 +19259,7 @@
         <v>2059</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>2351</v>
+        <v>2349</v>
       </c>
       <c r="L195" s="4" t="s">
         <v>1438</v>
@@ -19267,7 +19288,7 @@
         <v>1970</v>
       </c>
       <c r="E196" s="4" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="F196" s="4" t="s">
         <v>1377</v>
@@ -19285,7 +19306,7 @@
         <v>2001</v>
       </c>
       <c r="K196" s="4" t="s">
-        <v>2310</v>
+        <v>2308</v>
       </c>
       <c r="L196" s="4" t="s">
         <v>1439</v>
@@ -19314,7 +19335,7 @@
         <v>2027</v>
       </c>
       <c r="E197" s="4" t="s">
-        <v>2345</v>
+        <v>2343</v>
       </c>
       <c r="F197" s="4" t="s">
         <v>1272</v>
@@ -19332,7 +19353,7 @@
         <v>2060</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>2352</v>
+        <v>2350</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>1273</v>
@@ -19364,7 +19385,7 @@
         <v>1957</v>
       </c>
       <c r="E198" s="4" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="F198" s="4" t="s">
         <v>1358</v>
@@ -19382,7 +19403,7 @@
         <v>1961</v>
       </c>
       <c r="K198" s="4" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="L198" s="4" t="s">
         <v>1436</v>
@@ -19411,7 +19432,7 @@
         <v>1958</v>
       </c>
       <c r="E199" s="4" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="F199" s="4" t="s">
         <v>1359</v>
@@ -19429,7 +19450,7 @@
         <v>1962</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="L199" s="4" t="s">
         <v>1437</v>
@@ -19459,7 +19480,7 @@
         <v>2061</v>
       </c>
       <c r="E201" s="4" t="s">
-        <v>2353</v>
+        <v>2351</v>
       </c>
       <c r="F201" s="4" t="s">
         <v>326</v>
@@ -19477,7 +19498,7 @@
         <v>2089</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>2367</v>
+        <v>2365</v>
       </c>
       <c r="L201" s="4" t="s">
         <v>202</v>
@@ -19509,7 +19530,7 @@
         <v>2062</v>
       </c>
       <c r="E202" s="4" t="s">
-        <v>2354</v>
+        <v>2352</v>
       </c>
       <c r="F202" s="4" t="s">
         <v>327</v>
@@ -19527,7 +19548,7 @@
         <v>2090</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="L202" s="4" t="s">
         <v>203</v>
@@ -19559,7 +19580,7 @@
         <v>2063</v>
       </c>
       <c r="E203" s="4" t="s">
-        <v>2355</v>
+        <v>2353</v>
       </c>
       <c r="F203" s="4" t="s">
         <v>617</v>
@@ -19577,7 +19598,7 @@
         <v>2091</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>2369</v>
+        <v>2367</v>
       </c>
       <c r="L203" s="4" t="s">
         <v>621</v>
@@ -19609,7 +19630,7 @@
         <v>2071</v>
       </c>
       <c r="E204" s="4" t="s">
-        <v>2363</v>
+        <v>2361</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>839</v>
@@ -19627,7 +19648,7 @@
         <v>2099</v>
       </c>
       <c r="K204" s="4" t="s">
-        <v>2377</v>
+        <v>2375</v>
       </c>
       <c r="L204" s="4" t="s">
         <v>835</v>
@@ -19659,7 +19680,7 @@
         <v>2064</v>
       </c>
       <c r="E205" s="4" t="s">
-        <v>2356</v>
+        <v>2354</v>
       </c>
       <c r="F205" s="4" t="s">
         <v>616</v>
@@ -19677,7 +19698,7 @@
         <v>2092</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>2370</v>
+        <v>2368</v>
       </c>
       <c r="L205" s="4" t="s">
         <v>613</v>
@@ -19709,7 +19730,7 @@
         <v>2072</v>
       </c>
       <c r="E206" s="4" t="s">
-        <v>2364</v>
+        <v>2362</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>840</v>
@@ -19727,7 +19748,7 @@
         <v>2100</v>
       </c>
       <c r="K206" s="4" t="s">
-        <v>2378</v>
+        <v>2376</v>
       </c>
       <c r="L206" s="4" t="s">
         <v>843</v>
@@ -19747,69 +19768,69 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
       <c r="B207" s="4" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>1653</v>
       </c>
       <c r="D207" s="4" t="s">
+        <v>2507</v>
+      </c>
+      <c r="E207" s="4" t="s">
         <v>2509</v>
       </c>
-      <c r="E207" s="4" t="s">
+      <c r="F207" s="2" t="s">
         <v>2511</v>
       </c>
-      <c r="F207" s="2" t="s">
-        <v>2513</v>
-      </c>
       <c r="G207" s="4" t="s">
+        <v>2512</v>
+      </c>
+      <c r="H207" s="2" t="s">
         <v>2514</v>
       </c>
-      <c r="H207" s="2" t="s">
-        <v>2516</v>
-      </c>
       <c r="I207" s="2" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="J207" s="4" t="s">
         <v>2095</v>
       </c>
       <c r="K207" s="4" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L207" s="2" t="s">
         <v>2519</v>
-      </c>
-      <c r="L207" s="2" t="s">
-        <v>2521</v>
       </c>
       <c r="M207" s="2" t="s">
         <v>931</v>
       </c>
       <c r="N207" s="2" t="s">
+        <v>2522</v>
+      </c>
+      <c r="O207" s="2" t="s">
         <v>2524</v>
       </c>
-      <c r="O207" s="2" t="s">
+      <c r="P207" s="2" t="s">
         <v>2526</v>
-      </c>
-      <c r="P207" s="2" t="s">
-        <v>2528</v>
       </c>
     </row>
     <row r="208" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
       <c r="B208" s="4" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="C208" s="4" t="s">
+        <v>2506</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>2508</v>
       </c>
-      <c r="D208" s="4" t="s">
+      <c r="E208" s="4" t="s">
         <v>2510</v>
-      </c>
-      <c r="E208" s="4" t="s">
-        <v>2512</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>1359</v>
@@ -19818,31 +19839,31 @@
         <v>2080</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="J208" s="4" t="s">
         <v>2094</v>
       </c>
       <c r="K208" s="5" t="s">
+        <v>2518</v>
+      </c>
+      <c r="L208" s="4" t="s">
         <v>2520</v>
       </c>
-      <c r="L208" s="4" t="s">
-        <v>2522</v>
-      </c>
       <c r="M208" s="4" t="s">
+        <v>2521</v>
+      </c>
+      <c r="N208" s="4" t="s">
         <v>2523</v>
       </c>
-      <c r="N208" s="4" t="s">
+      <c r="O208" s="4" t="s">
         <v>2525</v>
       </c>
-      <c r="O208" s="4" t="s">
+      <c r="P208" s="4" t="s">
         <v>2527</v>
-      </c>
-      <c r="P208" s="4" t="s">
-        <v>2529</v>
       </c>
     </row>
     <row r="209" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -19859,7 +19880,7 @@
         <v>2065</v>
       </c>
       <c r="E209" s="4" t="s">
-        <v>2357</v>
+        <v>2355</v>
       </c>
       <c r="F209" s="4" t="s">
         <v>328</v>
@@ -19877,7 +19898,7 @@
         <v>2093</v>
       </c>
       <c r="K209" s="4" t="s">
-        <v>2371</v>
+        <v>2369</v>
       </c>
       <c r="L209" s="4" t="s">
         <v>204</v>
@@ -19909,7 +19930,7 @@
         <v>2067</v>
       </c>
       <c r="E210" s="4" t="s">
-        <v>2359</v>
+        <v>2357</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>634</v>
@@ -19927,7 +19948,7 @@
         <v>2095</v>
       </c>
       <c r="K210" s="4" t="s">
-        <v>2373</v>
+        <v>2371</v>
       </c>
       <c r="L210" s="4" t="s">
         <v>632</v>
@@ -19959,7 +19980,7 @@
         <v>2066</v>
       </c>
       <c r="E211" s="4" t="s">
-        <v>2358</v>
+        <v>2356</v>
       </c>
       <c r="F211" s="4" t="s">
         <v>635</v>
@@ -19977,7 +19998,7 @@
         <v>2094</v>
       </c>
       <c r="K211" s="4" t="s">
-        <v>2372</v>
+        <v>2370</v>
       </c>
       <c r="L211" s="4" t="s">
         <v>627</v>
@@ -20009,7 +20030,7 @@
         <v>2068</v>
       </c>
       <c r="E212" s="4" t="s">
-        <v>2360</v>
+        <v>2358</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>329</v>
@@ -20027,7 +20048,7 @@
         <v>2096</v>
       </c>
       <c r="K212" s="4" t="s">
-        <v>2374</v>
+        <v>2372</v>
       </c>
       <c r="L212" s="4" t="s">
         <v>205</v>
@@ -20059,7 +20080,7 @@
         <v>2069</v>
       </c>
       <c r="E213" s="4" t="s">
-        <v>2361</v>
+        <v>2359</v>
       </c>
       <c r="F213" s="4" t="s">
         <v>330</v>
@@ -20077,7 +20098,7 @@
         <v>2097</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>2375</v>
+        <v>2373</v>
       </c>
       <c r="L213" s="4" t="s">
         <v>206</v>
@@ -20109,7 +20130,7 @@
         <v>2070</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>2362</v>
+        <v>2360</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>331</v>
@@ -20127,7 +20148,7 @@
         <v>2098</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>2376</v>
+        <v>2374</v>
       </c>
       <c r="L214" s="4" t="s">
         <v>207</v>
@@ -20159,7 +20180,7 @@
         <v>1817</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>2272</v>
+        <v>2270</v>
       </c>
       <c r="F215" s="4" t="s">
         <v>348</v>
@@ -20177,7 +20198,7 @@
         <v>1835</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="L215" s="4" t="s">
         <v>351</v>
@@ -20209,7 +20230,7 @@
         <v>2073</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>2365</v>
+        <v>2363</v>
       </c>
       <c r="F216" s="4" t="s">
         <v>851</v>
@@ -20227,7 +20248,7 @@
         <v>2101</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>2379</v>
+        <v>2377</v>
       </c>
       <c r="L216" s="4" t="s">
         <v>848</v>
@@ -20259,7 +20280,7 @@
         <v>2074</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="F217" s="4" t="s">
         <v>1167</v>
@@ -20277,7 +20298,7 @@
         <v>2102</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="L217" s="4" t="s">
         <v>1170</v>
@@ -20309,7 +20330,7 @@
         <v>1847</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="F219" s="4" t="s">
         <v>636</v>
@@ -20327,7 +20348,7 @@
         <v>2054</v>
       </c>
       <c r="K219" s="5" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="L219" s="4" t="s">
         <v>685</v>
@@ -20359,7 +20380,7 @@
         <v>1873</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="F220" s="4" t="s">
         <v>311</v>
@@ -20377,7 +20398,7 @@
         <v>1913</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="L220" s="4" t="s">
         <v>101</v>
@@ -20409,7 +20430,7 @@
         <v>1872</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="F221" s="4" t="s">
         <v>309</v>
@@ -20427,7 +20448,7 @@
         <v>1911</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="L221" s="4" t="s">
         <v>190</v>
@@ -20459,13 +20480,13 @@
         <v>2103</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="F222" s="4" t="s">
         <v>637</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="H222" s="4" t="s">
         <v>640</v>
@@ -20474,10 +20495,10 @@
         <v>659</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="L222" s="4" t="s">
         <v>673</v>
@@ -20509,7 +20530,7 @@
         <v>1907</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="F223" s="4" t="s">
         <v>310</v>
@@ -20527,7 +20548,7 @@
         <v>1912</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="L223" s="4" t="s">
         <v>191</v>
@@ -20559,13 +20580,13 @@
         <v>2104</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>2381</v>
+        <v>2379</v>
       </c>
       <c r="F224" s="4" t="s">
         <v>638</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="H224" s="4" t="s">
         <v>641</v>
@@ -20574,10 +20595,10 @@
         <v>660</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>2384</v>
+        <v>2382</v>
       </c>
       <c r="L224" s="4" t="s">
         <v>674</v>
@@ -20609,7 +20630,7 @@
         <v>1875</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>313</v>
@@ -20627,7 +20648,7 @@
         <v>1915</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="L225" s="4" t="s">
         <v>192</v>
@@ -20659,7 +20680,7 @@
         <v>1876</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>314</v>
@@ -20677,7 +20698,7 @@
         <v>1916</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="L226" s="4" t="s">
         <v>193</v>
@@ -20709,7 +20730,7 @@
         <v>1877</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="F227" s="4" t="s">
         <v>315</v>
@@ -20727,7 +20748,7 @@
         <v>1917</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="L227" s="4" t="s">
         <v>194</v>
@@ -20747,102 +20768,102 @@
     </row>
     <row r="228" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
+        <v>2531</v>
+      </c>
+      <c r="B228" s="4" t="s">
         <v>2533</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="C228" s="4" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D228" s="4" t="s">
+        <v>2534</v>
+      </c>
+      <c r="E228" s="4" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G228" s="4" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H228" s="4" t="s">
         <v>2535</v>
       </c>
-      <c r="C228" s="4" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D228" s="4" t="s">
+      <c r="I228" s="4" t="s">
         <v>2536</v>
       </c>
-      <c r="E228" s="4" t="s">
+      <c r="J228" s="4" t="s">
         <v>2541</v>
       </c>
-      <c r="F228" s="4" t="s">
+      <c r="K228" s="4" t="s">
         <v>2542</v>
       </c>
-      <c r="G228" s="4" t="s">
-        <v>2539</v>
-      </c>
-      <c r="H228" s="4" t="s">
-        <v>2537</v>
-      </c>
-      <c r="I228" s="4" t="s">
-        <v>2538</v>
-      </c>
-      <c r="J228" s="4" t="s">
+      <c r="L228" s="4" t="s">
         <v>2543</v>
       </c>
-      <c r="K228" s="4" t="s">
+      <c r="M228" s="4" t="s">
         <v>2544</v>
       </c>
-      <c r="L228" s="4" t="s">
+      <c r="N228" s="4" t="s">
         <v>2545</v>
       </c>
-      <c r="M228" s="4" t="s">
+      <c r="O228" s="4" t="s">
         <v>2546</v>
       </c>
-      <c r="N228" s="4" t="s">
+      <c r="P228" s="4" t="s">
         <v>2547</v>
-      </c>
-      <c r="O228" s="4" t="s">
-        <v>2548</v>
-      </c>
-      <c r="P228" s="4" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="229" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
+        <v>2551</v>
+      </c>
+      <c r="B229" s="4" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C229" s="4" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D229" s="4" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E229" s="4" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G229" s="4" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H229" s="4" t="s">
+        <v>2559</v>
+      </c>
+      <c r="I229" s="4" t="s">
+        <v>2560</v>
+      </c>
+      <c r="J229" s="4" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K229" s="4" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L229" s="4" t="s">
+        <v>2563</v>
+      </c>
+      <c r="M229" s="4" t="s">
+        <v>2564</v>
+      </c>
+      <c r="N229" s="4" t="s">
+        <v>2565</v>
+      </c>
+      <c r="O229" s="4" t="s">
         <v>2553</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C229" s="4" t="s">
-        <v>2556</v>
-      </c>
-      <c r="D229" s="4" t="s">
-        <v>2557</v>
-      </c>
-      <c r="E229" s="4" t="s">
-        <v>2558</v>
-      </c>
-      <c r="F229" s="4" t="s">
-        <v>2559</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>2560</v>
-      </c>
-      <c r="H229" s="4" t="s">
-        <v>2561</v>
-      </c>
-      <c r="I229" s="4" t="s">
-        <v>2562</v>
-      </c>
-      <c r="J229" s="4" t="s">
-        <v>2563</v>
-      </c>
-      <c r="K229" s="4" t="s">
-        <v>2564</v>
-      </c>
-      <c r="L229" s="4" t="s">
-        <v>2565</v>
-      </c>
-      <c r="M229" s="4" t="s">
-        <v>2566</v>
-      </c>
-      <c r="N229" s="4" t="s">
-        <v>2567</v>
-      </c>
-      <c r="O229" s="4" t="s">
-        <v>2555</v>
-      </c>
       <c r="P229" s="4" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="230" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -20859,7 +20880,7 @@
         <v>2015</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>2382</v>
+        <v>2380</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>1286</v>
@@ -20877,7 +20898,7 @@
         <v>2046</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>2385</v>
+        <v>2383</v>
       </c>
       <c r="L230" s="4" t="s">
         <v>1289</v>
@@ -20909,13 +20930,13 @@
         <v>2105</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>2383</v>
+        <v>2381</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>1378</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="H231" s="4" t="s">
         <v>1403</v>
@@ -20924,10 +20945,10 @@
         <v>1404</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>2386</v>
+        <v>2384</v>
       </c>
       <c r="L231" s="4" t="s">
         <v>1405</v>
@@ -20950,49 +20971,49 @@
         <v>1149</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>1147</v>
+        <v>3416</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>1660</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>2106</v>
+        <v>3422</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>1167</v>
+        <v>3420</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>2088</v>
+        <v>3422</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>1168</v>
+        <v>3414</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>1169</v>
+        <v>3415</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>2113</v>
+        <v>3421</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>2380</v>
+        <v>2378</v>
       </c>
       <c r="L232" s="4" t="s">
-        <v>1170</v>
+        <v>3416</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>1171</v>
+        <v>3419</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>1172</v>
+        <v>3416</v>
       </c>
       <c r="O232" s="4" t="s">
-        <v>1173</v>
+        <v>3418</v>
       </c>
       <c r="P232" s="4" t="s">
-        <v>1174</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="233" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -21010,7 +21031,7 @@
         <v>1847</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>636</v>
@@ -21028,7 +21049,7 @@
         <v>2054</v>
       </c>
       <c r="K234" s="5" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="L234" s="4" t="s">
         <v>685</v>
@@ -21063,7 +21084,7 @@
         <v>1907</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>310</v>
@@ -21081,7 +21102,7 @@
         <v>1912</v>
       </c>
       <c r="K236" s="4" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="L236" s="4" t="s">
         <v>191</v>
@@ -21113,7 +21134,7 @@
         <v>1876</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>314</v>
@@ -21131,7 +21152,7 @@
         <v>1916</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="L237" s="4" t="s">
         <v>193</v>
@@ -21163,7 +21184,7 @@
         <v>1875</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>313</v>
@@ -21181,7 +21202,7 @@
         <v>1915</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="L238" s="4" t="s">
         <v>192</v>
@@ -21213,7 +21234,7 @@
         <v>1877</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>315</v>
@@ -21231,7 +21252,7 @@
         <v>1917</v>
       </c>
       <c r="K239" s="4" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="L239" s="4" t="s">
         <v>194</v>
@@ -21251,102 +21272,102 @@
     </row>
     <row r="240" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
+        <v>2532</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>2533</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D240" s="4" t="s">
         <v>2534</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="E240" s="4" t="s">
+        <v>2539</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>2540</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>2537</v>
+      </c>
+      <c r="H240" s="4" t="s">
         <v>2535</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>2540</v>
-      </c>
-      <c r="D240" s="4" t="s">
+      <c r="I240" s="4" t="s">
         <v>2536</v>
       </c>
-      <c r="E240" s="4" t="s">
+      <c r="J240" s="4" t="s">
         <v>2541</v>
       </c>
-      <c r="F240" s="4" t="s">
+      <c r="K240" s="4" t="s">
         <v>2542</v>
       </c>
-      <c r="G240" s="4" t="s">
-        <v>2539</v>
-      </c>
-      <c r="H240" s="4" t="s">
-        <v>2537</v>
-      </c>
-      <c r="I240" s="4" t="s">
-        <v>2538</v>
-      </c>
-      <c r="J240" s="4" t="s">
+      <c r="L240" s="4" t="s">
         <v>2543</v>
       </c>
-      <c r="K240" s="4" t="s">
+      <c r="M240" s="4" t="s">
         <v>2544</v>
       </c>
-      <c r="L240" s="4" t="s">
+      <c r="N240" s="4" t="s">
         <v>2545</v>
       </c>
-      <c r="M240" s="4" t="s">
+      <c r="O240" s="4" t="s">
         <v>2546</v>
       </c>
-      <c r="N240" s="4" t="s">
+      <c r="P240" s="4" t="s">
         <v>2547</v>
-      </c>
-      <c r="O240" s="4" t="s">
-        <v>2548</v>
-      </c>
-      <c r="P240" s="4" t="s">
-        <v>2549</v>
       </c>
     </row>
     <row r="241" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
+        <v>2550</v>
+      </c>
+      <c r="B241" s="4" t="s">
+        <v>2549</v>
+      </c>
+      <c r="C241" s="4" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D241" s="4" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E241" s="4" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F241" s="4" t="s">
+        <v>2557</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>2558</v>
+      </c>
+      <c r="H241" s="4" t="s">
+        <v>2559</v>
+      </c>
+      <c r="I241" s="4" t="s">
+        <v>2560</v>
+      </c>
+      <c r="J241" s="4" t="s">
+        <v>2561</v>
+      </c>
+      <c r="K241" s="4" t="s">
+        <v>2562</v>
+      </c>
+      <c r="L241" s="4" t="s">
+        <v>2563</v>
+      </c>
+      <c r="M241" s="4" t="s">
+        <v>2564</v>
+      </c>
+      <c r="N241" s="4" t="s">
+        <v>2565</v>
+      </c>
+      <c r="O241" s="4" t="s">
+        <v>2553</v>
+      </c>
+      <c r="P241" s="4" t="s">
         <v>2552</v>
-      </c>
-      <c r="B241" s="4" t="s">
-        <v>2551</v>
-      </c>
-      <c r="C241" s="4" t="s">
-        <v>2556</v>
-      </c>
-      <c r="D241" s="4" t="s">
-        <v>2557</v>
-      </c>
-      <c r="E241" s="4" t="s">
-        <v>2558</v>
-      </c>
-      <c r="F241" s="4" t="s">
-        <v>2559</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>2560</v>
-      </c>
-      <c r="H241" s="4" t="s">
-        <v>2561</v>
-      </c>
-      <c r="I241" s="4" t="s">
-        <v>2562</v>
-      </c>
-      <c r="J241" s="4" t="s">
-        <v>2563</v>
-      </c>
-      <c r="K241" s="4" t="s">
-        <v>2564</v>
-      </c>
-      <c r="L241" s="4" t="s">
-        <v>2565</v>
-      </c>
-      <c r="M241" s="4" t="s">
-        <v>2566</v>
-      </c>
-      <c r="N241" s="4" t="s">
-        <v>2567</v>
-      </c>
-      <c r="O241" s="4" t="s">
-        <v>2555</v>
-      </c>
-      <c r="P241" s="4" t="s">
-        <v>2554</v>
       </c>
     </row>
     <row r="242" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -21363,7 +21384,7 @@
         <v>1850</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>304</v>
@@ -21381,7 +21402,7 @@
         <v>1843</v>
       </c>
       <c r="K242" s="4" t="s">
-        <v>2387</v>
+        <v>2385</v>
       </c>
       <c r="L242" s="4" t="s">
         <v>185</v>
@@ -21413,7 +21434,7 @@
         <v>1872</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>309</v>
@@ -21431,7 +21452,7 @@
         <v>1911</v>
       </c>
       <c r="K243" s="4" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="L243" s="4" t="s">
         <v>190</v>
@@ -21463,13 +21484,13 @@
         <v>2103</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>637</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="H244" s="4" t="s">
         <v>642</v>
@@ -21478,10 +21499,10 @@
         <v>659</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="K244" s="4" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="L244" s="4" t="s">
         <v>673</v>
@@ -21510,16 +21531,16 @@
         <v>1686</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>734</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="H245" s="4" t="s">
         <v>758</v>
@@ -21528,10 +21549,10 @@
         <v>672</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
       <c r="L245" s="4" t="s">
         <v>675</v>
@@ -21560,16 +21581,16 @@
         <v>1687</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>740</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="H246" s="4" t="s">
         <v>759</v>
@@ -21578,10 +21599,10 @@
         <v>671</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="K246" s="4" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
       <c r="L246" s="4" t="s">
         <v>686</v>
@@ -21610,16 +21631,16 @@
         <v>1688</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>741</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="H247" s="4" t="s">
         <v>760</v>
@@ -21628,10 +21649,10 @@
         <v>670</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="K247" s="4" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
       <c r="L247" s="4" t="s">
         <v>687</v>
@@ -21660,16 +21681,16 @@
         <v>1689</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>742</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="H248" s="4" t="s">
         <v>769</v>
@@ -21678,10 +21699,10 @@
         <v>661</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="K248" s="4" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="L248" s="4" t="s">
         <v>676</v>
@@ -21710,16 +21731,16 @@
         <v>1690</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>743</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="H249" s="4" t="s">
         <v>761</v>
@@ -21728,10 +21749,10 @@
         <v>662</v>
       </c>
       <c r="J249" s="4" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="K249" s="4" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
       <c r="L249" s="4" t="s">
         <v>677</v>
@@ -21760,16 +21781,16 @@
         <v>1691</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>735</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="H250" s="4" t="s">
         <v>762</v>
@@ -21778,10 +21799,10 @@
         <v>663</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="K250" s="4" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
       <c r="L250" s="4" t="s">
         <v>678</v>
@@ -21810,16 +21831,16 @@
         <v>1692</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
       <c r="F251" s="4" t="s">
         <v>744</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="H251" s="4" t="s">
         <v>763</v>
@@ -21828,10 +21849,10 @@
         <v>664</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="K251" s="4" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="L251" s="4" t="s">
         <v>679</v>
@@ -21860,16 +21881,16 @@
         <v>1693</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>736</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="H252" s="4" t="s">
         <v>764</v>
@@ -21878,10 +21899,10 @@
         <v>665</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="K252" s="4" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
       <c r="L252" s="4" t="s">
         <v>680</v>
@@ -21910,16 +21931,16 @@
         <v>1694</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
       <c r="F253" s="4" t="s">
         <v>745</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="H253" s="4" t="s">
         <v>765</v>
@@ -21928,10 +21949,10 @@
         <v>666</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="K253" s="4" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="L253" s="4" t="s">
         <v>681</v>
@@ -21960,16 +21981,16 @@
         <v>1695</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>746</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="H254" s="4" t="s">
         <v>766</v>
@@ -21978,10 +21999,10 @@
         <v>667</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="K254" s="4" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
       <c r="L254" s="4" t="s">
         <v>682</v>
@@ -22010,16 +22031,16 @@
         <v>1696</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="F255" s="4" t="s">
         <v>747</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="H255" s="4" t="s">
         <v>767</v>
@@ -22028,10 +22049,10 @@
         <v>668</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
       <c r="L255" s="4" t="s">
         <v>683</v>
@@ -22060,16 +22081,16 @@
         <v>1697</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>748</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="H256" s="4" t="s">
         <v>768</v>
@@ -22078,10 +22099,10 @@
         <v>669</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="K256" s="4" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
       <c r="L256" s="4" t="s">
         <v>684</v>
@@ -22110,16 +22131,16 @@
         <v>1674</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
       <c r="F257" s="4" t="s">
         <v>737</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="H257" s="4" t="s">
         <v>770</v>
@@ -22128,10 +22149,10 @@
         <v>782</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="K257" s="4" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
       <c r="L257" s="4" t="s">
         <v>794</v>
@@ -22160,16 +22181,16 @@
         <v>1675</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>749</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="H258" s="4" t="s">
         <v>771</v>
@@ -22178,10 +22199,10 @@
         <v>783</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="K258" s="4" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
       <c r="L258" s="4" t="s">
         <v>795</v>
@@ -22210,16 +22231,16 @@
         <v>1676</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
       <c r="F259" s="4" t="s">
         <v>750</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="H259" s="4" t="s">
         <v>772</v>
@@ -22228,10 +22249,10 @@
         <v>784</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="K259" s="4" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
       <c r="L259" s="4" t="s">
         <v>796</v>
@@ -22260,16 +22281,16 @@
         <v>1677</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
       <c r="F260" s="4" t="s">
         <v>751</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="H260" s="4" t="s">
         <v>781</v>
@@ -22278,10 +22299,10 @@
         <v>785</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="L260" s="4" t="s">
         <v>797</v>
@@ -22310,16 +22331,16 @@
         <v>1678</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
       <c r="F261" s="4" t="s">
         <v>752</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="H261" s="4" t="s">
         <v>773</v>
@@ -22328,10 +22349,10 @@
         <v>786</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="K261" s="4" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
       <c r="L261" s="4" t="s">
         <v>798</v>
@@ -22360,16 +22381,16 @@
         <v>1679</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
       <c r="F262" s="4" t="s">
         <v>738</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="H262" s="4" t="s">
         <v>774</v>
@@ -22378,10 +22399,10 @@
         <v>787</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
       <c r="L262" s="4" t="s">
         <v>799</v>
@@ -22410,16 +22431,16 @@
         <v>1680</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
       <c r="F263" s="4" t="s">
         <v>753</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="H263" s="4" t="s">
         <v>775</v>
@@ -22428,10 +22449,10 @@
         <v>788</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
       <c r="L263" s="4" t="s">
         <v>800</v>
@@ -22460,16 +22481,16 @@
         <v>1681</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
       <c r="F264" s="4" t="s">
         <v>739</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="H264" s="4" t="s">
         <v>776</v>
@@ -22478,10 +22499,10 @@
         <v>789</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="K264" s="4" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="L264" s="4" t="s">
         <v>801</v>
@@ -22510,16 +22531,16 @@
         <v>1682</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
       <c r="F265" s="4" t="s">
         <v>754</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="H265" s="4" t="s">
         <v>777</v>
@@ -22528,10 +22549,10 @@
         <v>790</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="K265" s="4" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="L265" s="4" t="s">
         <v>802</v>
@@ -22560,16 +22581,16 @@
         <v>1683</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
       <c r="F266" s="4" t="s">
         <v>755</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="H266" s="4" t="s">
         <v>778</v>
@@ -22578,10 +22599,10 @@
         <v>791</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="L266" s="4" t="s">
         <v>803</v>
@@ -22610,16 +22631,16 @@
         <v>1684</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
       <c r="F267" s="4" t="s">
         <v>756</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="H267" s="4" t="s">
         <v>779</v>
@@ -22628,10 +22649,10 @@
         <v>792</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="L267" s="4" t="s">
         <v>804</v>
@@ -22660,16 +22681,16 @@
         <v>1685</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
       <c r="F268" s="4" t="s">
         <v>757</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="H268" s="4" t="s">
         <v>780</v>
@@ -22678,10 +22699,10 @@
         <v>793</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="L268" s="4" t="s">
         <v>805</v>
@@ -22714,7 +22735,7 @@
         <v>1945</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>2388</v>
+        <v>2386</v>
       </c>
       <c r="F270" s="4" t="s">
         <v>1223</v>
@@ -22732,7 +22753,7 @@
         <v>1953</v>
       </c>
       <c r="K270" s="4" t="s">
-        <v>2392</v>
+        <v>2390</v>
       </c>
       <c r="L270" s="4" t="s">
         <v>1240</v>
@@ -22764,7 +22785,7 @@
         <v>1946</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>2389</v>
+        <v>2387</v>
       </c>
       <c r="F271" s="4" t="s">
         <v>1225</v>
@@ -22782,7 +22803,7 @@
         <v>1954</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="L271" s="4" t="s">
         <v>1236</v>
@@ -22814,7 +22835,7 @@
         <v>1947</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>2390</v>
+        <v>2388</v>
       </c>
       <c r="F272" s="4" t="s">
         <v>1228</v>
@@ -22832,7 +22853,7 @@
         <v>1955</v>
       </c>
       <c r="K272" s="4" t="s">
-        <v>2394</v>
+        <v>2392</v>
       </c>
       <c r="L272" s="4" t="s">
         <v>1234</v>
@@ -22864,7 +22885,7 @@
         <v>1948</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>2391</v>
+        <v>2389</v>
       </c>
       <c r="F273" s="4" t="s">
         <v>1232</v>
@@ -22882,7 +22903,7 @@
         <v>1956</v>
       </c>
       <c r="K273" s="4" t="s">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="L273" s="4" t="s">
         <v>1231</v>
@@ -22903,52 +22924,52 @@
     <row r="274" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="275" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
+        <v>2615</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>2623</v>
+      </c>
+      <c r="D275" s="4" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E275" s="4" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F275" s="4" t="s">
+        <v>2620</v>
+      </c>
+      <c r="G275" s="4" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H275" s="4" t="s">
+        <v>2618</v>
+      </c>
+      <c r="I275" s="4" t="s">
         <v>2617</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C275" s="4" t="s">
+      <c r="J275" s="4" t="s">
+        <v>2624</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>2625</v>
       </c>
-      <c r="D275" s="4" t="s">
-        <v>2624</v>
-      </c>
-      <c r="E275" s="4" t="s">
-        <v>2623</v>
-      </c>
-      <c r="F275" s="4" t="s">
-        <v>2622</v>
-      </c>
-      <c r="G275" s="4" t="s">
-        <v>2621</v>
-      </c>
-      <c r="H275" s="4" t="s">
-        <v>2620</v>
-      </c>
-      <c r="I275" s="4" t="s">
-        <v>2619</v>
-      </c>
-      <c r="J275" s="4" t="s">
+      <c r="L275" s="4" t="s">
         <v>2626</v>
       </c>
-      <c r="K275" s="4" t="s">
+      <c r="M275" s="4" t="s">
         <v>2627</v>
       </c>
-      <c r="L275" s="4" t="s">
+      <c r="N275" s="4" t="s">
         <v>2628</v>
       </c>
-      <c r="M275" s="4" t="s">
+      <c r="O275" s="4" t="s">
         <v>2629</v>
       </c>
-      <c r="N275" s="4" t="s">
+      <c r="P275" s="4" t="s">
         <v>2630</v>
-      </c>
-      <c r="O275" s="4" t="s">
-        <v>2631</v>
-      </c>
-      <c r="P275" s="4" t="s">
-        <v>2632</v>
       </c>
     </row>
     <row r="276" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -22966,7 +22987,7 @@
         <v>1821</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="F277" s="4" t="s">
         <v>300</v>
@@ -22984,7 +23005,7 @@
         <v>1937</v>
       </c>
       <c r="K277" s="4" t="s">
-        <v>2398</v>
+        <v>2396</v>
       </c>
       <c r="L277" s="4" t="s">
         <v>179</v>
@@ -23016,7 +23037,7 @@
         <v>1935</v>
       </c>
       <c r="E278" s="4" t="s">
-        <v>2397</v>
+        <v>2395</v>
       </c>
       <c r="F278" s="4" t="s">
         <v>81</v>
@@ -23034,7 +23055,7 @@
         <v>1938</v>
       </c>
       <c r="K278" s="4" t="s">
-        <v>2399</v>
+        <v>2397</v>
       </c>
       <c r="L278" s="4" t="s">
         <v>209</v>
@@ -23066,7 +23087,7 @@
         <v>1940</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>2401</v>
+        <v>2399</v>
       </c>
       <c r="F279" s="4" t="s">
         <v>333</v>
@@ -23084,7 +23105,7 @@
         <v>1939</v>
       </c>
       <c r="K279" s="4" t="s">
-        <v>2400</v>
+        <v>2398</v>
       </c>
       <c r="L279" s="4" t="s">
         <v>210</v>
@@ -23105,57 +23126,57 @@
     <row r="280" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="281" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B281" s="4" t="s">
         <v>2585</v>
       </c>
-      <c r="B281" s="4" t="s">
+      <c r="C281" s="4" t="s">
         <v>2587</v>
       </c>
-      <c r="C281" s="4" t="s">
-        <v>2589</v>
-      </c>
       <c r="D281" s="4" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E281" s="4" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F281" s="4" t="s">
         <v>2611</v>
       </c>
-      <c r="E281" s="4" t="s">
+      <c r="G281" s="4" t="s">
         <v>2612</v>
       </c>
-      <c r="F281" s="4" t="s">
+      <c r="H281" s="4" t="s">
         <v>2613</v>
       </c>
-      <c r="G281" s="4" t="s">
+      <c r="I281" s="4" t="s">
         <v>2614</v>
       </c>
-      <c r="H281" s="4" t="s">
-        <v>2615</v>
-      </c>
-      <c r="I281" s="4" t="s">
-        <v>2616</v>
-      </c>
       <c r="J281" s="4" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="K281" s="4" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="L281" s="4" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="M281" s="4" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="N281" s="4" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="O281" s="4" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="P281" s="4" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
     </row>
     <row r="282" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="B282" s="4" t="s">
         <v>83</v>
@@ -23167,7 +23188,7 @@
         <v>1942</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>2402</v>
+        <v>2400</v>
       </c>
       <c r="F282" s="4" t="s">
         <v>334</v>
@@ -23185,7 +23206,7 @@
         <v>1944</v>
       </c>
       <c r="K282" s="4" t="s">
-        <v>2403</v>
+        <v>2401</v>
       </c>
       <c r="L282" s="4" t="s">
         <v>211</v>
@@ -23205,52 +23226,52 @@
     </row>
     <row r="283" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
+        <v>2584</v>
+      </c>
+      <c r="B283" s="4" t="s">
         <v>2586</v>
       </c>
-      <c r="B283" s="4" t="s">
+      <c r="C283" s="4" t="s">
         <v>2588</v>
       </c>
-      <c r="C283" s="4" t="s">
+      <c r="D283" s="4" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E283" s="4" t="s">
         <v>2590</v>
       </c>
-      <c r="D283" s="4" t="s">
+      <c r="F283" s="4" t="s">
         <v>2591</v>
       </c>
-      <c r="E283" s="4" t="s">
+      <c r="G283" s="4" t="s">
         <v>2592</v>
       </c>
-      <c r="F283" s="4" t="s">
+      <c r="H283" s="5" t="s">
         <v>2593</v>
       </c>
-      <c r="G283" s="4" t="s">
+      <c r="I283" s="4" t="s">
         <v>2594</v>
       </c>
-      <c r="H283" s="5" t="s">
+      <c r="J283" s="4" t="s">
         <v>2595</v>
       </c>
-      <c r="I283" s="4" t="s">
+      <c r="K283" s="4" t="s">
         <v>2596</v>
       </c>
-      <c r="J283" s="4" t="s">
+      <c r="L283" s="4" t="s">
         <v>2597</v>
       </c>
-      <c r="K283" s="4" t="s">
+      <c r="M283" s="4" t="s">
         <v>2598</v>
       </c>
-      <c r="L283" s="4" t="s">
+      <c r="N283" s="4" t="s">
         <v>2599</v>
       </c>
-      <c r="M283" s="4" t="s">
+      <c r="O283" s="4" t="s">
         <v>2600</v>
       </c>
-      <c r="N283" s="4" t="s">
+      <c r="P283" s="4" t="s">
         <v>2601</v>
-      </c>
-      <c r="O283" s="4" t="s">
-        <v>2602</v>
-      </c>
-      <c r="P283" s="4" t="s">
-        <v>2603</v>
       </c>
     </row>
   </sheetData>

--- a/II Core/Localization Strings.xlsx
+++ b/II Core/Localization Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02D1A758-1E3A-429A-B726-EF198859DCE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C737C2D-1D78-40D1-8B4C-2F37F0371AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9304" uniqueCount="3471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9400" uniqueCount="3519">
   <si>
     <t>Temperature</t>
   </si>
@@ -10438,6 +10438,150 @@
   </si>
   <si>
     <t>تغییر اندازه خودکار</t>
+  </si>
+  <si>
+    <t>MENU:MenuColorSchemeDark</t>
+  </si>
+  <si>
+    <t>MENU:MenuColorSchemeLight</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Colori scuri</t>
+  </si>
+  <si>
+    <t>Dunkle Farben</t>
+  </si>
+  <si>
+    <t>Colores oscuros</t>
+  </si>
+  <si>
+    <t>Couleurs sombres</t>
+  </si>
+  <si>
+    <t>צבעים כהים</t>
+  </si>
+  <si>
+    <t>गहरे रंग</t>
+  </si>
+  <si>
+    <t>어두운 색</t>
+  </si>
+  <si>
+    <t>Cores escuras</t>
+  </si>
+  <si>
+    <t>Темные цвета</t>
+  </si>
+  <si>
+    <t>Rangi nyeusi</t>
+  </si>
+  <si>
+    <t>ደማቅ ቀለሞች</t>
+  </si>
+  <si>
+    <t>ألوان داكنة</t>
+  </si>
+  <si>
+    <t>暗色</t>
+  </si>
+  <si>
+    <t>رنگهای تیره</t>
+  </si>
+  <si>
+    <t>رنگ های روشن</t>
+  </si>
+  <si>
+    <t>الوان فاتحة</t>
+  </si>
+  <si>
+    <t>ቀላል ቀለሞች</t>
+  </si>
+  <si>
+    <t>浅色</t>
+  </si>
+  <si>
+    <t>Helle Farben</t>
+  </si>
+  <si>
+    <t>Colores claros</t>
+  </si>
+  <si>
+    <t>Couleurs claires</t>
+  </si>
+  <si>
+    <t>צבעים בהירים</t>
+  </si>
+  <si>
+    <t>हल्के रंग</t>
+  </si>
+  <si>
+    <t>Colori chiari</t>
+  </si>
+  <si>
+    <t>밝은 색상</t>
+  </si>
+  <si>
+    <t>Cores claras</t>
+  </si>
+  <si>
+    <t>Светлые цвета</t>
+  </si>
+  <si>
+    <t>Rangi nyepesi</t>
+  </si>
+  <si>
+    <t>MENU:MenuShowGrid</t>
+  </si>
+  <si>
+    <t>Show Grid</t>
+  </si>
+  <si>
+    <t>Onyesha gridi ya taifa</t>
+  </si>
+  <si>
+    <t>ፍርግርግ አሳይ</t>
+  </si>
+  <si>
+    <t>إظهار الشبكة</t>
+  </si>
+  <si>
+    <t>显示网格</t>
+  </si>
+  <si>
+    <t>Zeigen Sie das Raster</t>
+  </si>
+  <si>
+    <t>شبکه را نشان دهید</t>
+  </si>
+  <si>
+    <t>Mostrar la cuadrícula</t>
+  </si>
+  <si>
+    <t>Afficher la grille</t>
+  </si>
+  <si>
+    <t>הצג את הרשת</t>
+  </si>
+  <si>
+    <t>ग्रिड दिखाओ</t>
+  </si>
+  <si>
+    <t>Mostra la griglia</t>
+  </si>
+  <si>
+    <t>그리드 표시</t>
+  </si>
+  <si>
+    <t>Mostrar a grade</t>
+  </si>
+  <si>
+    <t>Показать сетку</t>
   </si>
 </sst>
 </file>
@@ -10815,11 +10959,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P287"/>
+  <dimension ref="A1:P290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A219" sqref="A219:XFD219"/>
+      <pane ySplit="1" topLeftCell="A207" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A216" sqref="A216:XFD216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20262,3359 +20406,3509 @@
     </row>
     <row r="214" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>1124</v>
+        <v>3472</v>
       </c>
       <c r="B214" s="4" t="s">
-        <v>76</v>
+        <v>3474</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>1655</v>
+        <v>3491</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>2069</v>
+        <v>3490</v>
       </c>
       <c r="E214" s="4" t="s">
-        <v>2359</v>
+        <v>3492</v>
       </c>
       <c r="F214" s="4" t="s">
-        <v>330</v>
+        <v>3493</v>
       </c>
       <c r="G214" s="4" t="s">
-        <v>2083</v>
+        <v>3489</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>170</v>
+        <v>3494</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>159</v>
+        <v>3495</v>
       </c>
       <c r="J214" s="4" t="s">
-        <v>2097</v>
+        <v>3496</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>2373</v>
+        <v>3497</v>
       </c>
       <c r="L214" s="4" t="s">
-        <v>206</v>
+        <v>3498</v>
       </c>
       <c r="M214" s="4" t="s">
-        <v>933</v>
+        <v>3499</v>
       </c>
       <c r="N214" s="4" t="s">
-        <v>244</v>
+        <v>3500</v>
       </c>
       <c r="O214" s="4" t="s">
-        <v>287</v>
+        <v>3501</v>
       </c>
       <c r="P214" s="4" t="s">
-        <v>1018</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="215" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>1125</v>
+        <v>3471</v>
       </c>
       <c r="B215" s="4" t="s">
-        <v>77</v>
+        <v>3473</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>1656</v>
+        <v>3485</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>2070</v>
+        <v>3486</v>
       </c>
       <c r="E215" s="4" t="s">
-        <v>2360</v>
+        <v>3487</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>331</v>
+        <v>3476</v>
       </c>
       <c r="G215" s="4" t="s">
-        <v>2084</v>
+        <v>3488</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>171</v>
+        <v>3477</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>160</v>
+        <v>3478</v>
       </c>
       <c r="J215" s="4" t="s">
-        <v>2098</v>
+        <v>3479</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>2374</v>
+        <v>3480</v>
       </c>
       <c r="L215" s="4" t="s">
-        <v>207</v>
+        <v>3475</v>
       </c>
       <c r="M215" s="4" t="s">
-        <v>934</v>
+        <v>3481</v>
       </c>
       <c r="N215" s="4" t="s">
-        <v>245</v>
+        <v>3482</v>
       </c>
       <c r="O215" s="4" t="s">
-        <v>288</v>
+        <v>3483</v>
       </c>
       <c r="P215" s="4" t="s">
-        <v>1019</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="216" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>1126</v>
+        <v>3503</v>
       </c>
       <c r="B216" s="4" t="s">
-        <v>45</v>
+        <v>3504</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>1591</v>
+        <v>3506</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>1817</v>
+        <v>3507</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>2270</v>
+        <v>3508</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>348</v>
+        <v>3509</v>
       </c>
       <c r="G216" s="4" t="s">
-        <v>1826</v>
+        <v>3510</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>349</v>
+        <v>3511</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>350</v>
+        <v>3512</v>
       </c>
       <c r="J216" s="4" t="s">
-        <v>1835</v>
+        <v>3513</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>2277</v>
+        <v>3514</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>351</v>
+        <v>3515</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>893</v>
+        <v>3516</v>
       </c>
       <c r="N216" s="4" t="s">
-        <v>837</v>
+        <v>3517</v>
       </c>
       <c r="O216" s="4" t="s">
-        <v>255</v>
+        <v>3518</v>
       </c>
       <c r="P216" s="4" t="s">
-        <v>984</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B217" s="4" t="s">
-        <v>702</v>
+        <v>76</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="E217" s="4" t="s">
-        <v>2363</v>
+        <v>2359</v>
       </c>
       <c r="F217" s="4" t="s">
-        <v>851</v>
+        <v>330</v>
       </c>
       <c r="G217" s="4" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>846</v>
+        <v>170</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>847</v>
+        <v>159</v>
       </c>
       <c r="J217" s="4" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="K217" s="4" t="s">
-        <v>2377</v>
+        <v>2373</v>
       </c>
       <c r="L217" s="4" t="s">
-        <v>848</v>
+        <v>206</v>
       </c>
       <c r="M217" s="4" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="N217" s="4" t="s">
-        <v>849</v>
+        <v>244</v>
       </c>
       <c r="O217" s="4" t="s">
-        <v>850</v>
+        <v>287</v>
       </c>
       <c r="P217" s="4" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="218" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>1148</v>
+        <v>1125</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>1147</v>
+        <v>77</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="E218" s="4" t="s">
-        <v>2364</v>
+        <v>2360</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>1167</v>
+        <v>331</v>
       </c>
       <c r="G218" s="4" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>1168</v>
+        <v>171</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>1169</v>
+        <v>160</v>
       </c>
       <c r="J218" s="4" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
       <c r="K218" s="4" t="s">
-        <v>2378</v>
+        <v>2374</v>
       </c>
       <c r="L218" s="4" t="s">
-        <v>1170</v>
+        <v>207</v>
       </c>
       <c r="M218" s="4" t="s">
-        <v>1171</v>
+        <v>934</v>
       </c>
       <c r="N218" s="4" t="s">
-        <v>1172</v>
+        <v>245</v>
       </c>
       <c r="O218" s="4" t="s">
-        <v>1173</v>
+        <v>288</v>
       </c>
       <c r="P218" s="4" t="s">
-        <v>1174</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="219" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>3441</v>
+        <v>1126</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>3442</v>
+        <v>45</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>3466</v>
+        <v>1591</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>3467</v>
+        <v>1817</v>
       </c>
       <c r="E219" s="4" t="s">
-        <v>3468</v>
+        <v>2270</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>3469</v>
+        <v>348</v>
       </c>
       <c r="G219" s="4" t="s">
-        <v>3470</v>
+        <v>1826</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>3458</v>
+        <v>349</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>3457</v>
+        <v>350</v>
       </c>
       <c r="J219" s="4" t="s">
-        <v>3459</v>
+        <v>1835</v>
       </c>
       <c r="K219" s="4" t="s">
-        <v>3460</v>
+        <v>2277</v>
       </c>
       <c r="L219" s="4" t="s">
-        <v>3461</v>
+        <v>351</v>
       </c>
       <c r="M219" s="4" t="s">
-        <v>3462</v>
+        <v>893</v>
       </c>
       <c r="N219" s="4" t="s">
-        <v>3463</v>
+        <v>837</v>
       </c>
       <c r="O219" s="4" t="s">
-        <v>3464</v>
+        <v>255</v>
       </c>
       <c r="P219" s="4" t="s">
-        <v>3465</v>
+        <v>984</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D220" s="4" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>2363</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>851</v>
+      </c>
+      <c r="G220" s="4" t="s">
+        <v>2087</v>
+      </c>
+      <c r="H220" s="4" t="s">
+        <v>846</v>
+      </c>
+      <c r="I220" s="4" t="s">
+        <v>847</v>
+      </c>
+      <c r="J220" s="4" t="s">
+        <v>2101</v>
+      </c>
+      <c r="K220" s="4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="L220" s="4" t="s">
+        <v>848</v>
+      </c>
+      <c r="M220" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="N220" s="4" t="s">
+        <v>849</v>
+      </c>
+      <c r="O220" s="4" t="s">
+        <v>850</v>
+      </c>
+      <c r="P220" s="4" t="s">
+        <v>1022</v>
       </c>
     </row>
     <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>445</v>
+        <v>1148</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>442</v>
+        <v>1147</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1661</v>
+        <v>1660</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1847</v>
+        <v>2074</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>2189</v>
+        <v>2364</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>636</v>
+        <v>1167</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>1856</v>
+        <v>2088</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>639</v>
+        <v>1168</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>658</v>
+        <v>1169</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>2054</v>
-      </c>
-      <c r="K221" s="5" t="s">
-        <v>2198</v>
+        <v>2102</v>
+      </c>
+      <c r="K221" s="4" t="s">
+        <v>2378</v>
       </c>
       <c r="L221" s="4" t="s">
-        <v>685</v>
+        <v>1170</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>939</v>
+        <v>1171</v>
       </c>
       <c r="N221" s="4" t="s">
-        <v>643</v>
+        <v>1172</v>
       </c>
       <c r="O221" s="4" t="s">
-        <v>688</v>
+        <v>1173</v>
       </c>
       <c r="P221" s="4" t="s">
-        <v>442</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>446</v>
+        <v>3441</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>0</v>
+        <v>3442</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1609</v>
+        <v>3466</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1873</v>
+        <v>3467</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>2208</v>
+        <v>3468</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>311</v>
+        <v>3469</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>1889</v>
+        <v>3470</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>101</v>
+        <v>3458</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>141</v>
+        <v>3457</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>1913</v>
+        <v>3459</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>2225</v>
+        <v>3460</v>
       </c>
       <c r="L222" s="4" t="s">
-        <v>101</v>
+        <v>3461</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>910</v>
+        <v>3462</v>
       </c>
       <c r="N222" s="4" t="s">
-        <v>101</v>
+        <v>3463</v>
       </c>
       <c r="O222" s="4" t="s">
-        <v>270</v>
+        <v>3464</v>
       </c>
       <c r="P222" s="4" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="B223" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C223" s="4" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D223" s="4" t="s">
-        <v>1872</v>
-      </c>
-      <c r="E223" s="4" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>309</v>
-      </c>
-      <c r="G223" s="4" t="s">
-        <v>1888</v>
-      </c>
-      <c r="H223" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I223" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="J223" s="4" t="s">
-        <v>1911</v>
-      </c>
-      <c r="K223" s="4" t="s">
-        <v>2223</v>
-      </c>
-      <c r="L223" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="M223" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="N223" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="O223" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="P223" s="4" t="s">
-        <v>997</v>
+        <v>3465</v>
       </c>
     </row>
     <row r="224" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>2103</v>
+        <v>1847</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>2209</v>
+        <v>2189</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>2106</v>
+        <v>1856</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>2109</v>
-      </c>
-      <c r="K224" s="4" t="s">
-        <v>2226</v>
+        <v>2054</v>
+      </c>
+      <c r="K224" s="5" t="s">
+        <v>2198</v>
       </c>
       <c r="L224" s="4" t="s">
-        <v>673</v>
+        <v>685</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="N224" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="O224" s="4" t="s">
-        <v>610</v>
+        <v>688</v>
       </c>
       <c r="P224" s="4" t="s">
-        <v>1023</v>
+        <v>442</v>
       </c>
     </row>
     <row r="225" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>1907</v>
+        <v>1873</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G225" s="4" t="s">
-        <v>1908</v>
+        <v>1889</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J225" s="4" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="K225" s="4" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="L225" s="4" t="s">
-        <v>191</v>
+        <v>101</v>
       </c>
       <c r="M225" s="4" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="N225" s="4" t="s">
-        <v>226</v>
+        <v>101</v>
       </c>
       <c r="O225" s="4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P225" s="4" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="226" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>444</v>
+        <v>50</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1663</v>
+        <v>1607</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>2104</v>
+        <v>1872</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>2379</v>
+        <v>2206</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>638</v>
+        <v>309</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>2107</v>
+        <v>1888</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>641</v>
+        <v>99</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>660</v>
+        <v>139</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>2110</v>
+        <v>1911</v>
       </c>
       <c r="K226" s="4" t="s">
-        <v>2382</v>
+        <v>2223</v>
       </c>
       <c r="L226" s="4" t="s">
-        <v>674</v>
+        <v>190</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>941</v>
+        <v>908</v>
       </c>
       <c r="N226" s="4" t="s">
-        <v>645</v>
+        <v>225</v>
       </c>
       <c r="O226" s="4" t="s">
-        <v>689</v>
+        <v>268</v>
       </c>
       <c r="P226" s="4" t="s">
-        <v>1024</v>
+        <v>997</v>
       </c>
     </row>
     <row r="227" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>53</v>
+        <v>443</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>1611</v>
+        <v>1662</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>1875</v>
+        <v>2103</v>
       </c>
       <c r="E227" s="4" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="F227" s="4" t="s">
-        <v>313</v>
+        <v>637</v>
       </c>
       <c r="G227" s="4" t="s">
-        <v>1887</v>
+        <v>2106</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>102</v>
+        <v>640</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>143</v>
+        <v>659</v>
       </c>
       <c r="J227" s="4" t="s">
-        <v>1915</v>
+        <v>2109</v>
       </c>
       <c r="K227" s="4" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="L227" s="4" t="s">
-        <v>192</v>
+        <v>673</v>
       </c>
       <c r="M227" s="4" t="s">
-        <v>911</v>
+        <v>940</v>
       </c>
       <c r="N227" s="4" t="s">
-        <v>227</v>
+        <v>644</v>
       </c>
       <c r="O227" s="4" t="s">
-        <v>271</v>
+        <v>610</v>
       </c>
       <c r="P227" s="4" t="s">
-        <v>1000</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="228" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1876</v>
+        <v>1907</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>1891</v>
+        <v>1908</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="K228" s="4" t="s">
-        <v>2228</v>
+        <v>2224</v>
       </c>
       <c r="L228" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="M228" s="4" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="N228" s="4" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="O228" s="4" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P228" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
     </row>
     <row r="229" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>703</v>
+        <v>450</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>55</v>
+        <v>444</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1613</v>
+        <v>1663</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1877</v>
+        <v>2104</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>2212</v>
+        <v>2379</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>315</v>
+        <v>638</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>1892</v>
+        <v>2107</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>104</v>
+        <v>641</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>145</v>
+        <v>660</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>1917</v>
+        <v>2110</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>2229</v>
+        <v>2382</v>
       </c>
       <c r="L229" s="4" t="s">
-        <v>194</v>
+        <v>674</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>913</v>
+        <v>941</v>
       </c>
       <c r="N229" s="4" t="s">
-        <v>229</v>
+        <v>645</v>
       </c>
       <c r="O229" s="4" t="s">
-        <v>273</v>
+        <v>689</v>
       </c>
       <c r="P229" s="4" t="s">
-        <v>1002</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="230" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>2531</v>
+        <v>451</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>2533</v>
+        <v>53</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>2538</v>
+        <v>1611</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>2534</v>
+        <v>1875</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>2539</v>
+        <v>2210</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>2540</v>
+        <v>313</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>2537</v>
+        <v>1887</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>2535</v>
+        <v>102</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>2536</v>
+        <v>143</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>2541</v>
+        <v>1915</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>2542</v>
+        <v>2227</v>
       </c>
       <c r="L230" s="4" t="s">
-        <v>2543</v>
+        <v>192</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>2544</v>
+        <v>911</v>
       </c>
       <c r="N230" s="4" t="s">
-        <v>2545</v>
+        <v>227</v>
       </c>
       <c r="O230" s="4" t="s">
-        <v>2546</v>
+        <v>271</v>
       </c>
       <c r="P230" s="4" t="s">
-        <v>2547</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="231" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>2551</v>
+        <v>452</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>2549</v>
+        <v>54</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>2554</v>
+        <v>1612</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>2555</v>
+        <v>1876</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>2556</v>
+        <v>2211</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>2557</v>
+        <v>314</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>2558</v>
+        <v>1891</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>2559</v>
+        <v>103</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>2560</v>
+        <v>144</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>2561</v>
+        <v>1916</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>2562</v>
+        <v>2228</v>
       </c>
       <c r="L231" s="4" t="s">
-        <v>2563</v>
+        <v>193</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>2564</v>
+        <v>912</v>
       </c>
       <c r="N231" s="4" t="s">
-        <v>2565</v>
+        <v>228</v>
       </c>
       <c r="O231" s="4" t="s">
-        <v>2553</v>
+        <v>272</v>
       </c>
       <c r="P231" s="4" t="s">
-        <v>2552</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="232" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>1310</v>
+        <v>703</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>1157</v>
+        <v>55</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1664</v>
+        <v>1613</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>2015</v>
+        <v>1877</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>2380</v>
+        <v>2212</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>1286</v>
+        <v>315</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>2030</v>
+        <v>1892</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>1287</v>
+        <v>104</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>1288</v>
+        <v>145</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>2046</v>
+        <v>1917</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>2383</v>
+        <v>2229</v>
       </c>
       <c r="L232" s="4" t="s">
-        <v>1289</v>
+        <v>194</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>1290</v>
+        <v>913</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>1291</v>
+        <v>229</v>
       </c>
       <c r="O232" s="4" t="s">
-        <v>1292</v>
+        <v>273</v>
       </c>
       <c r="P232" s="4" t="s">
-        <v>1293</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="233" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>1336</v>
+        <v>2531</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>1335</v>
+        <v>2533</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1665</v>
+        <v>2538</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>2105</v>
+        <v>2534</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>2381</v>
+        <v>2539</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>1378</v>
+        <v>2540</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>2108</v>
+        <v>2537</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>1403</v>
+        <v>2535</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>1404</v>
+        <v>2536</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>2111</v>
+        <v>2541</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>2384</v>
+        <v>2542</v>
       </c>
       <c r="L233" s="4" t="s">
-        <v>1405</v>
+        <v>2543</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>1406</v>
+        <v>2544</v>
       </c>
       <c r="N233" s="4" t="s">
-        <v>1407</v>
+        <v>2545</v>
       </c>
       <c r="O233" s="4" t="s">
-        <v>1408</v>
+        <v>2546</v>
       </c>
       <c r="P233" s="4" t="s">
-        <v>1409</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="234" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>1149</v>
+        <v>2551</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>3416</v>
+        <v>2549</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1660</v>
+        <v>2554</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>3422</v>
+        <v>2555</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>2364</v>
+        <v>2556</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>3420</v>
+        <v>2557</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>3422</v>
+        <v>2558</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>3414</v>
+        <v>2559</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>3415</v>
+        <v>2560</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>3421</v>
+        <v>2561</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>2378</v>
+        <v>2562</v>
       </c>
       <c r="L234" s="4" t="s">
-        <v>3416</v>
+        <v>2563</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>3419</v>
+        <v>2564</v>
       </c>
       <c r="N234" s="4" t="s">
-        <v>3416</v>
+        <v>2565</v>
       </c>
       <c r="O234" s="4" t="s">
-        <v>3418</v>
+        <v>2553</v>
       </c>
       <c r="P234" s="4" t="s">
-        <v>3417</v>
-      </c>
-    </row>
-    <row r="235" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B235" s="4" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C235" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D235" s="4" t="s">
+        <v>2015</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F235" s="4" t="s">
+        <v>1286</v>
+      </c>
+      <c r="G235" s="4" t="s">
+        <v>2030</v>
+      </c>
+      <c r="H235" s="4" t="s">
+        <v>1287</v>
+      </c>
+      <c r="I235" s="4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J235" s="4" t="s">
+        <v>2046</v>
+      </c>
+      <c r="K235" s="4" t="s">
+        <v>2383</v>
+      </c>
+      <c r="L235" s="4" t="s">
+        <v>1289</v>
+      </c>
+      <c r="M235" s="4" t="s">
+        <v>1290</v>
+      </c>
+      <c r="N235" s="4" t="s">
+        <v>1291</v>
+      </c>
+      <c r="O235" s="4" t="s">
+        <v>1292</v>
+      </c>
+      <c r="P235" s="4" t="s">
+        <v>1293</v>
+      </c>
+    </row>
     <row r="236" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>699</v>
+        <v>1336</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>442</v>
+        <v>1335</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>1847</v>
+        <v>2105</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>2189</v>
+        <v>2381</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>636</v>
+        <v>1378</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>1856</v>
+        <v>2108</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>639</v>
+        <v>1403</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>658</v>
+        <v>1404</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>2054</v>
-      </c>
-      <c r="K236" s="5" t="s">
-        <v>2198</v>
+        <v>2111</v>
+      </c>
+      <c r="K236" s="4" t="s">
+        <v>2384</v>
       </c>
       <c r="L236" s="4" t="s">
-        <v>685</v>
+        <v>1405</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>939</v>
+        <v>1406</v>
       </c>
       <c r="N236" s="4" t="s">
-        <v>643</v>
+        <v>1407</v>
       </c>
       <c r="O236" s="4" t="s">
-        <v>688</v>
+        <v>1408</v>
       </c>
       <c r="P236" s="4" t="s">
-        <v>442</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="237" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>3439</v>
+        <v>1149</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1138</v>
+        <v>3416</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>1708</v>
+        <v>1660</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>2022</v>
+        <v>3422</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>2344</v>
+        <v>2364</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>1199</v>
+        <v>3420</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>2038</v>
+        <v>3422</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>1200</v>
+        <v>3414</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>1191</v>
+        <v>3415</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>2055</v>
+        <v>3421</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>2345</v>
+        <v>2378</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>1195</v>
+        <v>3416</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>1192</v>
+        <v>3419</v>
       </c>
       <c r="N237" s="4" t="s">
-        <v>1200</v>
+        <v>3416</v>
       </c>
       <c r="O237" s="4" t="s">
-        <v>1203</v>
+        <v>3418</v>
       </c>
       <c r="P237" s="4" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="238" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="4" t="s">
-        <v>3440</v>
-      </c>
-      <c r="B238" s="4" t="s">
-        <v>3444</v>
-      </c>
-      <c r="C238" s="4" t="s">
-        <v>3451</v>
-      </c>
-      <c r="D238" s="4" t="s">
-        <v>3452</v>
-      </c>
-      <c r="E238" s="4" t="s">
-        <v>3453</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>3450</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>3452</v>
-      </c>
-      <c r="H238" s="4" t="s">
-        <v>3449</v>
-      </c>
-      <c r="I238" s="4" t="s">
-        <v>3448</v>
-      </c>
-      <c r="J238" s="4" t="s">
-        <v>3454</v>
-      </c>
-      <c r="K238" s="4" t="s">
-        <v>3455</v>
-      </c>
-      <c r="L238" s="4" t="s">
-        <v>3446</v>
-      </c>
-      <c r="M238" s="4" t="s">
-        <v>3456</v>
-      </c>
-      <c r="N238" s="4" t="s">
-        <v>3447</v>
-      </c>
-      <c r="O238" s="4" t="s">
-        <v>3445</v>
-      </c>
-      <c r="P238" s="4" t="s">
-        <v>3443</v>
-      </c>
-    </row>
+        <v>3417</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="239" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K239" s="5"/>
+      <c r="A239" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="B239" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="C239" s="4" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D239" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E239" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F239" s="4" t="s">
+        <v>636</v>
+      </c>
+      <c r="G239" s="4" t="s">
+        <v>1856</v>
+      </c>
+      <c r="H239" s="4" t="s">
+        <v>639</v>
+      </c>
+      <c r="I239" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="J239" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="K239" s="5" t="s">
+        <v>2198</v>
+      </c>
+      <c r="L239" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="M239" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="N239" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="O239" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="P239" s="4" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="240" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>465</v>
+        <v>3439</v>
       </c>
       <c r="B240" s="4" t="s">
-        <v>51</v>
+        <v>1138</v>
       </c>
       <c r="C240" s="4" t="s">
-        <v>1608</v>
+        <v>1708</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>1907</v>
+        <v>2022</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>2207</v>
+        <v>2344</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>310</v>
+        <v>1199</v>
       </c>
       <c r="G240" s="4" t="s">
-        <v>1908</v>
+        <v>2038</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>140</v>
+        <v>1191</v>
       </c>
       <c r="J240" s="4" t="s">
-        <v>1912</v>
+        <v>2055</v>
       </c>
       <c r="K240" s="4" t="s">
-        <v>2224</v>
+        <v>2345</v>
       </c>
       <c r="L240" s="4" t="s">
-        <v>191</v>
+        <v>1195</v>
       </c>
       <c r="M240" s="4" t="s">
-        <v>909</v>
+        <v>1192</v>
       </c>
       <c r="N240" s="4" t="s">
-        <v>226</v>
+        <v>1200</v>
       </c>
       <c r="O240" s="4" t="s">
-        <v>269</v>
+        <v>1203</v>
       </c>
       <c r="P240" s="4" t="s">
-        <v>1035</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="241" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>466</v>
+        <v>3440</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>54</v>
+        <v>3444</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1612</v>
+        <v>3451</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1876</v>
+        <v>3452</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>2211</v>
+        <v>3453</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>314</v>
+        <v>3450</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>1891</v>
+        <v>3452</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>103</v>
+        <v>3449</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>144</v>
+        <v>3448</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>1916</v>
+        <v>3454</v>
       </c>
       <c r="K241" s="4" t="s">
-        <v>2228</v>
+        <v>3455</v>
       </c>
       <c r="L241" s="4" t="s">
-        <v>193</v>
+        <v>3446</v>
       </c>
       <c r="M241" s="4" t="s">
-        <v>912</v>
+        <v>3456</v>
       </c>
       <c r="N241" s="4" t="s">
-        <v>228</v>
+        <v>3447</v>
       </c>
       <c r="O241" s="4" t="s">
-        <v>272</v>
+        <v>3445</v>
       </c>
       <c r="P241" s="4" t="s">
-        <v>1001</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="242" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>467</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>1875</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>2210</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>1887</v>
-      </c>
-      <c r="H242" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I242" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>1915</v>
-      </c>
-      <c r="K242" s="4" t="s">
-        <v>2227</v>
-      </c>
-      <c r="L242" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="M242" s="4" t="s">
-        <v>911</v>
-      </c>
-      <c r="N242" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="O242" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="P242" s="4" t="s">
-        <v>1000</v>
-      </c>
+      <c r="K242" s="5"/>
     </row>
     <row r="243" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>1613</v>
+        <v>1608</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>1877</v>
+        <v>1907</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>2212</v>
+        <v>2207</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>1892</v>
+        <v>1908</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="K243" s="4" t="s">
-        <v>2229</v>
+        <v>2224</v>
       </c>
       <c r="L243" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="M243" s="4" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="N243" s="4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O243" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="P243" s="4" t="s">
-        <v>1002</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="244" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>2532</v>
+        <v>466</v>
       </c>
       <c r="B244" s="4" t="s">
-        <v>2533</v>
+        <v>54</v>
       </c>
       <c r="C244" s="4" t="s">
-        <v>2538</v>
+        <v>1612</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>2534</v>
+        <v>1876</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>2539</v>
+        <v>2211</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>2540</v>
+        <v>314</v>
       </c>
       <c r="G244" s="4" t="s">
-        <v>2537</v>
+        <v>1891</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>2535</v>
+        <v>103</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>2536</v>
+        <v>144</v>
       </c>
       <c r="J244" s="4" t="s">
-        <v>2541</v>
+        <v>1916</v>
       </c>
       <c r="K244" s="4" t="s">
-        <v>2542</v>
+        <v>2228</v>
       </c>
       <c r="L244" s="4" t="s">
-        <v>2543</v>
+        <v>193</v>
       </c>
       <c r="M244" s="4" t="s">
-        <v>2544</v>
+        <v>912</v>
       </c>
       <c r="N244" s="4" t="s">
-        <v>2545</v>
+        <v>228</v>
       </c>
       <c r="O244" s="4" t="s">
-        <v>2546</v>
+        <v>272</v>
       </c>
       <c r="P244" s="4" t="s">
-        <v>2547</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="245" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>2550</v>
+        <v>467</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>2549</v>
+        <v>53</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>2554</v>
+        <v>1611</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>2555</v>
+        <v>1875</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>2556</v>
+        <v>2210</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>2557</v>
+        <v>313</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>2558</v>
+        <v>1887</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>2559</v>
+        <v>102</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>2560</v>
+        <v>143</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>2561</v>
+        <v>1915</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>2562</v>
+        <v>2227</v>
       </c>
       <c r="L245" s="4" t="s">
-        <v>2563</v>
+        <v>192</v>
       </c>
       <c r="M245" s="4" t="s">
-        <v>2564</v>
+        <v>911</v>
       </c>
       <c r="N245" s="4" t="s">
-        <v>2565</v>
+        <v>227</v>
       </c>
       <c r="O245" s="4" t="s">
-        <v>2553</v>
+        <v>271</v>
       </c>
       <c r="P245" s="4" t="s">
-        <v>2552</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="246" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>1139</v>
+        <v>482</v>
       </c>
       <c r="B246" s="4" t="s">
-        <v>1140</v>
+        <v>55</v>
       </c>
       <c r="C246" s="4" t="s">
-        <v>1666</v>
+        <v>1613</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>1850</v>
+        <v>1877</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>2192</v>
+        <v>2212</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>304</v>
+        <v>315</v>
       </c>
       <c r="G246" s="4" t="s">
-        <v>1859</v>
+        <v>1892</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J246" s="4" t="s">
-        <v>1843</v>
+        <v>1917</v>
       </c>
       <c r="K246" s="4" t="s">
-        <v>2385</v>
+        <v>2229</v>
       </c>
       <c r="L246" s="4" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="M246" s="4" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="O246" s="4" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="P246" s="4" t="s">
-        <v>992</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="247" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>468</v>
+        <v>2532</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>50</v>
+        <v>2533</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1607</v>
+        <v>2538</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1872</v>
+        <v>2534</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>2206</v>
+        <v>2539</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>309</v>
+        <v>2540</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>1888</v>
+        <v>2537</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>99</v>
+        <v>2535</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>139</v>
+        <v>2536</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>1911</v>
+        <v>2541</v>
       </c>
       <c r="K247" s="4" t="s">
-        <v>2223</v>
+        <v>2542</v>
       </c>
       <c r="L247" s="4" t="s">
-        <v>190</v>
+        <v>2543</v>
       </c>
       <c r="M247" s="4" t="s">
-        <v>908</v>
+        <v>2544</v>
       </c>
       <c r="N247" s="4" t="s">
-        <v>225</v>
+        <v>2545</v>
       </c>
       <c r="O247" s="4" t="s">
-        <v>268</v>
+        <v>2546</v>
       </c>
       <c r="P247" s="4" t="s">
-        <v>997</v>
+        <v>2547</v>
       </c>
     </row>
     <row r="248" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>469</v>
+        <v>2550</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>443</v>
+        <v>2549</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1662</v>
+        <v>2554</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>2103</v>
+        <v>2555</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>2209</v>
+        <v>2556</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>637</v>
+        <v>2557</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>2106</v>
+        <v>2558</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>642</v>
+        <v>2559</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>659</v>
+        <v>2560</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>2109</v>
+        <v>2561</v>
       </c>
       <c r="K248" s="4" t="s">
-        <v>2226</v>
+        <v>2562</v>
       </c>
       <c r="L248" s="4" t="s">
-        <v>673</v>
+        <v>2563</v>
       </c>
       <c r="M248" s="4" t="s">
-        <v>942</v>
+        <v>2564</v>
       </c>
       <c r="N248" s="4" t="s">
-        <v>644</v>
+        <v>2565</v>
       </c>
       <c r="O248" s="4" t="s">
-        <v>610</v>
+        <v>2553</v>
       </c>
       <c r="P248" s="4" t="s">
-        <v>1034</v>
+        <v>2552</v>
       </c>
     </row>
     <row r="249" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>470</v>
+        <v>1139</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>453</v>
+        <v>1140</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>1686</v>
+        <v>1666</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>2148</v>
+        <v>1850</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>2468</v>
+        <v>2192</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>734</v>
+        <v>304</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>2160</v>
+        <v>1859</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>758</v>
+        <v>94</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>672</v>
+        <v>134</v>
       </c>
       <c r="J249" s="4" t="s">
-        <v>2172</v>
+        <v>1843</v>
       </c>
       <c r="K249" s="4" t="s">
-        <v>2480</v>
+        <v>2385</v>
       </c>
       <c r="L249" s="4" t="s">
-        <v>675</v>
+        <v>185</v>
       </c>
       <c r="M249" s="4" t="s">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="N249" s="4" t="s">
-        <v>646</v>
+        <v>221</v>
       </c>
       <c r="O249" s="4" t="s">
-        <v>830</v>
+        <v>263</v>
       </c>
       <c r="P249" s="4" t="s">
-        <v>1060</v>
+        <v>992</v>
       </c>
     </row>
     <row r="250" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>454</v>
+        <v>50</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>1687</v>
+        <v>1607</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>2149</v>
+        <v>1872</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>2469</v>
+        <v>2206</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>740</v>
+        <v>309</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>2161</v>
+        <v>1888</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>759</v>
+        <v>99</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>671</v>
+        <v>139</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>2173</v>
+        <v>1911</v>
       </c>
       <c r="K250" s="4" t="s">
-        <v>2481</v>
+        <v>2223</v>
       </c>
       <c r="L250" s="4" t="s">
-        <v>686</v>
+        <v>190</v>
       </c>
       <c r="M250" s="4" t="s">
-        <v>944</v>
+        <v>908</v>
       </c>
       <c r="N250" s="4" t="s">
-        <v>650</v>
+        <v>225</v>
       </c>
       <c r="O250" s="4" t="s">
-        <v>831</v>
+        <v>268</v>
       </c>
       <c r="P250" s="4" t="s">
-        <v>1061</v>
+        <v>997</v>
       </c>
     </row>
     <row r="251" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1688</v>
+        <v>1662</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>2150</v>
+        <v>2103</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>2470</v>
+        <v>2209</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>741</v>
+        <v>637</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>2162</v>
+        <v>2106</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>760</v>
+        <v>642</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>2174</v>
+        <v>2109</v>
       </c>
       <c r="K251" s="4" t="s">
-        <v>2482</v>
+        <v>2226</v>
       </c>
       <c r="L251" s="4" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="M251" s="4" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="N251" s="4" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="O251" s="4" t="s">
-        <v>832</v>
+        <v>610</v>
       </c>
       <c r="P251" s="4" t="s">
-        <v>1062</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="252" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>2471</v>
+        <v>2468</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>769</v>
+        <v>758</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>661</v>
+        <v>672</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="K252" s="4" t="s">
-        <v>2483</v>
+        <v>2480</v>
       </c>
       <c r="L252" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="M252" s="4" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="N252" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O252" s="4" t="s">
-        <v>690</v>
+        <v>830</v>
       </c>
       <c r="P252" s="4" t="s">
-        <v>1051</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="253" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>2472</v>
+        <v>2469</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>662</v>
+        <v>671</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="K253" s="4" t="s">
-        <v>2484</v>
+        <v>2481</v>
       </c>
       <c r="L253" s="4" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="M253" s="4" t="s">
-        <v>1071</v>
+        <v>944</v>
       </c>
       <c r="N253" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O253" s="4" t="s">
-        <v>691</v>
+        <v>831</v>
       </c>
       <c r="P253" s="4" t="s">
-        <v>1052</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="254" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>2473</v>
+        <v>2470</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>2177</v>
+        <v>2174</v>
       </c>
       <c r="K254" s="4" t="s">
-        <v>2485</v>
+        <v>2482</v>
       </c>
       <c r="L254" s="4" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="M254" s="4" t="s">
-        <v>1072</v>
+        <v>945</v>
       </c>
       <c r="N254" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="O254" s="4" t="s">
-        <v>692</v>
+        <v>832</v>
       </c>
       <c r="P254" s="4" t="s">
-        <v>1053</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="255" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>2474</v>
+        <v>2471</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>763</v>
+        <v>769</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>2178</v>
+        <v>2175</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>2486</v>
+        <v>2483</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="M255" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="N255" s="4" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="O255" s="4" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="P255" s="4" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="256" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>2475</v>
+        <v>2472</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>736</v>
+        <v>743</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>2179</v>
+        <v>2176</v>
       </c>
       <c r="K256" s="4" t="s">
-        <v>2487</v>
+        <v>2484</v>
       </c>
       <c r="L256" s="4" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="M256" s="4" t="s">
-        <v>948</v>
+        <v>1071</v>
       </c>
       <c r="N256" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O256" s="4" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="P256" s="4" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="257" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>2476</v>
+        <v>2473</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>2180</v>
+        <v>2177</v>
       </c>
       <c r="K257" s="4" t="s">
-        <v>2488</v>
+        <v>2485</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="M257" s="4" t="s">
-        <v>949</v>
+        <v>1072</v>
       </c>
       <c r="N257" s="4" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="O257" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="P257" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="258" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>2477</v>
+        <v>2474</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>2181</v>
+        <v>2178</v>
       </c>
       <c r="K258" s="4" t="s">
-        <v>2489</v>
+        <v>2486</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="N258" s="4" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="O258" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="P258" s="4" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="259" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>2478</v>
+        <v>2475</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>2182</v>
+        <v>2179</v>
       </c>
       <c r="K259" s="4" t="s">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="L259" s="4" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="M259" s="4" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="N259" s="4" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="O259" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="P259" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="260" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>2479</v>
+        <v>2476</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>2183</v>
+        <v>2180</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>2491</v>
+        <v>2488</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="N260" s="4" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="O260" s="4" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="P260" s="4" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="261" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>710</v>
+        <v>479</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>722</v>
+        <v>462</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1674</v>
+        <v>1695</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>2112</v>
+        <v>2157</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>2456</v>
+        <v>2477</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>2113</v>
+        <v>2169</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>782</v>
+        <v>667</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>2114</v>
+        <v>2181</v>
       </c>
       <c r="K261" s="4" t="s">
-        <v>2492</v>
+        <v>2489</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>794</v>
+        <v>682</v>
       </c>
       <c r="M261" s="4" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="N261" s="4" t="s">
-        <v>806</v>
+        <v>655</v>
       </c>
       <c r="O261" s="4" t="s">
-        <v>818</v>
+        <v>696</v>
       </c>
       <c r="P261" s="4" t="s">
-        <v>1039</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="262" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>711</v>
+        <v>480</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>723</v>
+        <v>463</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1675</v>
+        <v>1696</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>2115</v>
+        <v>2158</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>2457</v>
+        <v>2478</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>2126</v>
+        <v>2170</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="I262" s="4" t="s">
-        <v>783</v>
+        <v>668</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>2137</v>
+        <v>2182</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>2493</v>
+        <v>2490</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>795</v>
+        <v>683</v>
       </c>
       <c r="M262" s="4" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="N262" s="4" t="s">
-        <v>807</v>
+        <v>656</v>
       </c>
       <c r="O262" s="4" t="s">
-        <v>819</v>
+        <v>697</v>
       </c>
       <c r="P262" s="4" t="s">
-        <v>1040</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="263" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>712</v>
+        <v>481</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>724</v>
+        <v>464</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1676</v>
+        <v>1697</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>2116</v>
+        <v>2159</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>2458</v>
+        <v>2479</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>2127</v>
+        <v>2171</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="I263" s="4" t="s">
-        <v>784</v>
+        <v>669</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>2138</v>
+        <v>2183</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>2494</v>
+        <v>2491</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>796</v>
+        <v>684</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="N263" s="4" t="s">
-        <v>808</v>
+        <v>657</v>
       </c>
       <c r="O263" s="4" t="s">
-        <v>820</v>
+        <v>698</v>
       </c>
       <c r="P263" s="4" t="s">
-        <v>1041</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="264" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>2459</v>
+        <v>2456</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>2128</v>
+        <v>2113</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>781</v>
+        <v>770</v>
       </c>
       <c r="I264" s="4" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>2139</v>
+        <v>2114</v>
       </c>
       <c r="K264" s="4" t="s">
-        <v>2495</v>
+        <v>2492</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>1074</v>
+        <v>953</v>
       </c>
       <c r="N264" s="4" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="O264" s="4" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="P264" s="4" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="265" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>2460</v>
+        <v>2457</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="K265" s="4" t="s">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="M265" s="4" t="s">
-        <v>1073</v>
+        <v>954</v>
       </c>
       <c r="N265" s="4" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="O265" s="4" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="P265" s="4" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="266" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>1679</v>
+        <v>1676</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>2461</v>
+        <v>2458</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>2497</v>
+        <v>2494</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>1075</v>
+        <v>955</v>
       </c>
       <c r="N266" s="4" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="O266" s="4" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="P266" s="4" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="267" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>1680</v>
+        <v>1677</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>2462</v>
+        <v>2459</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>2498</v>
+        <v>2495</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>956</v>
+        <v>1074</v>
       </c>
       <c r="N267" s="4" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="O267" s="4" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="P267" s="4" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="268" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>1681</v>
+        <v>1678</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>2463</v>
+        <v>2460</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>739</v>
+        <v>752</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I268" s="4" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>2499</v>
+        <v>2496</v>
       </c>
       <c r="L268" s="4" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>957</v>
+        <v>1073</v>
       </c>
       <c r="N268" s="4" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="O268" s="4" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="P268" s="4" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="269" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>1682</v>
+        <v>1679</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>754</v>
+        <v>738</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="K269" s="4" t="s">
-        <v>2500</v>
+        <v>2497</v>
       </c>
       <c r="L269" s="4" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="M269" s="4" t="s">
-        <v>958</v>
+        <v>1075</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="O269" s="4" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="P269" s="4" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="270" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>1683</v>
+        <v>1680</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>2465</v>
+        <v>2462</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="K270" s="4" t="s">
-        <v>2501</v>
+        <v>2498</v>
       </c>
       <c r="L270" s="4" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="N270" s="4" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="O270" s="4" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="P270" s="4" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="271" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>1684</v>
+        <v>1681</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>2466</v>
+        <v>2463</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>756</v>
+        <v>739</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>2502</v>
+        <v>2499</v>
       </c>
       <c r="L271" s="4" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="M271" s="4" t="s">
-        <v>960</v>
+        <v>957</v>
       </c>
       <c r="N271" s="4" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="O271" s="4" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="P271" s="4" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="272" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>1685</v>
+        <v>1682</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>2467</v>
+        <v>2464</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="J272" s="4" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="K272" s="4" t="s">
-        <v>2503</v>
+        <v>2500</v>
       </c>
       <c r="L272" s="4" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="M272" s="4" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="N272" s="4" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="O272" s="4" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="P272" s="4" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="273" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>1683</v>
+      </c>
+      <c r="D273" s="4" t="s">
+        <v>2123</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F273" s="4" t="s">
+        <v>755</v>
+      </c>
+      <c r="G273" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="H273" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="I273" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="J273" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="K273" s="4" t="s">
+        <v>2501</v>
+      </c>
+      <c r="L273" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="M273" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="N273" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="O273" s="4" t="s">
+        <v>827</v>
+      </c>
+      <c r="P273" s="4" t="s">
+        <v>1048</v>
+      </c>
+    </row>
     <row r="274" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>1098</v>
+        <v>720</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>1102</v>
+        <v>732</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>1667</v>
+        <v>1684</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>1945</v>
+        <v>2124</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>2386</v>
+        <v>2466</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>1223</v>
+        <v>756</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>1949</v>
+        <v>2135</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>1222</v>
+        <v>779</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>1102</v>
+        <v>792</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>1953</v>
+        <v>2146</v>
       </c>
       <c r="K274" s="4" t="s">
-        <v>2390</v>
+        <v>2502</v>
       </c>
       <c r="L274" s="4" t="s">
-        <v>1240</v>
+        <v>804</v>
       </c>
       <c r="M274" s="4" t="s">
-        <v>1239</v>
+        <v>960</v>
       </c>
       <c r="N274" s="4" t="s">
-        <v>1222</v>
+        <v>816</v>
       </c>
       <c r="O274" s="4" t="s">
-        <v>1241</v>
+        <v>828</v>
       </c>
       <c r="P274" s="4" t="s">
-        <v>1242</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="275" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>1099</v>
+        <v>721</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>1103</v>
+        <v>733</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>1668</v>
+        <v>1685</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>1946</v>
+        <v>2125</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>2387</v>
+        <v>2467</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>1225</v>
+        <v>757</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>1950</v>
+        <v>2136</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>1226</v>
+        <v>780</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>1224</v>
+        <v>793</v>
       </c>
       <c r="J275" s="4" t="s">
-        <v>1954</v>
+        <v>2147</v>
       </c>
       <c r="K275" s="4" t="s">
-        <v>2391</v>
+        <v>2503</v>
       </c>
       <c r="L275" s="4" t="s">
-        <v>1236</v>
+        <v>805</v>
       </c>
       <c r="M275" s="4" t="s">
-        <v>1237</v>
+        <v>961</v>
       </c>
       <c r="N275" s="4" t="s">
-        <v>1238</v>
+        <v>817</v>
       </c>
       <c r="O275" s="4" t="s">
-        <v>1248</v>
+        <v>829</v>
       </c>
       <c r="P275" s="4" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="276" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="4" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B276" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="C276" s="4" t="s">
-        <v>1669</v>
-      </c>
-      <c r="D276" s="4" t="s">
-        <v>1947</v>
-      </c>
-      <c r="E276" s="4" t="s">
-        <v>2388</v>
-      </c>
-      <c r="F276" s="4" t="s">
-        <v>1228</v>
-      </c>
-      <c r="G276" s="4" t="s">
-        <v>1951</v>
-      </c>
-      <c r="H276" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="I276" s="4" t="s">
-        <v>1229</v>
-      </c>
-      <c r="J276" s="4" t="s">
-        <v>1955</v>
-      </c>
-      <c r="K276" s="4" t="s">
-        <v>2392</v>
-      </c>
-      <c r="L276" s="4" t="s">
-        <v>1234</v>
-      </c>
-      <c r="M276" s="4" t="s">
-        <v>1235</v>
-      </c>
-      <c r="N276" s="4" t="s">
-        <v>1227</v>
-      </c>
-      <c r="O276" s="4" t="s">
-        <v>1245</v>
-      </c>
-      <c r="P276" s="4" t="s">
-        <v>1246</v>
-      </c>
-    </row>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="277" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>1670</v>
+        <v>1667</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>1948</v>
+        <v>1945</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>2389</v>
+        <v>2386</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>1232</v>
+        <v>1223</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>1952</v>
+        <v>1949</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="I277" s="4" t="s">
-        <v>1230</v>
+        <v>1102</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>1956</v>
+        <v>1953</v>
       </c>
       <c r="K277" s="4" t="s">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="L277" s="4" t="s">
-        <v>1231</v>
+        <v>1240</v>
       </c>
       <c r="M277" s="4" t="s">
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="N277" s="4" t="s">
-        <v>1231</v>
+        <v>1222</v>
       </c>
       <c r="O277" s="4" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="P277" s="4" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>2387</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H278" s="4" t="s">
+        <v>1226</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>1224</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>1954</v>
+      </c>
+      <c r="K278" s="4" t="s">
+        <v>2391</v>
+      </c>
+      <c r="L278" s="4" t="s">
+        <v>1236</v>
+      </c>
+      <c r="M278" s="4" t="s">
+        <v>1237</v>
+      </c>
+      <c r="N278" s="4" t="s">
+        <v>1238</v>
+      </c>
+      <c r="O278" s="4" t="s">
+        <v>1248</v>
+      </c>
+      <c r="P278" s="4" t="s">
+        <v>1247</v>
+      </c>
+    </row>
     <row r="279" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>2615</v>
+        <v>1100</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>2616</v>
+        <v>1104</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>2623</v>
+        <v>1669</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>2622</v>
+        <v>1947</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>2621</v>
+        <v>2388</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>2620</v>
+        <v>1228</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>2619</v>
+        <v>1951</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>2618</v>
+        <v>1227</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>2617</v>
+        <v>1229</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>2624</v>
+        <v>1955</v>
       </c>
       <c r="K279" s="4" t="s">
-        <v>2625</v>
+        <v>2392</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>2626</v>
+        <v>1234</v>
       </c>
       <c r="M279" s="4" t="s">
-        <v>2627</v>
+        <v>1235</v>
       </c>
       <c r="N279" s="4" t="s">
-        <v>2628</v>
+        <v>1227</v>
       </c>
       <c r="O279" s="4" t="s">
-        <v>2629</v>
+        <v>1245</v>
       </c>
       <c r="P279" s="4" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C281" s="4" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D281" s="4" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E281" s="4" t="s">
-        <v>2394</v>
-      </c>
-      <c r="F281" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="G281" s="4" t="s">
-        <v>1830</v>
-      </c>
-      <c r="H281" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="I281" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="J281" s="4" t="s">
-        <v>1937</v>
-      </c>
-      <c r="K281" s="4" t="s">
-        <v>2396</v>
-      </c>
-      <c r="L281" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="M281" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="N281" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="O281" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="P281" s="4" t="s">
-        <v>988</v>
-      </c>
-    </row>
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>1948</v>
+      </c>
+      <c r="E280" s="4" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F280" s="4" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G280" s="4" t="s">
+        <v>1952</v>
+      </c>
+      <c r="H280" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="I280" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="J280" s="4" t="s">
+        <v>1956</v>
+      </c>
+      <c r="K280" s="4" t="s">
+        <v>2393</v>
+      </c>
+      <c r="L280" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="M280" s="4" t="s">
+        <v>1233</v>
+      </c>
+      <c r="N280" s="4" t="s">
+        <v>1231</v>
+      </c>
+      <c r="O280" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="P280" s="4" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="282" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>38</v>
+        <v>2615</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>81</v>
+        <v>2616</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1672</v>
+        <v>2623</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1935</v>
+        <v>2622</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>2395</v>
+        <v>2621</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>81</v>
+        <v>2620</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>1936</v>
+        <v>2619</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>118</v>
+        <v>2618</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>81</v>
+        <v>2617</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>1938</v>
+        <v>2624</v>
       </c>
       <c r="K282" s="4" t="s">
-        <v>2397</v>
+        <v>2625</v>
       </c>
       <c r="L282" s="4" t="s">
-        <v>209</v>
+        <v>2626</v>
       </c>
       <c r="M282" s="4" t="s">
-        <v>962</v>
+        <v>2627</v>
       </c>
       <c r="N282" s="4" t="s">
-        <v>246</v>
+        <v>2628</v>
       </c>
       <c r="O282" s="4" t="s">
-        <v>290</v>
+        <v>2629</v>
       </c>
       <c r="P282" s="4" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B283" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C283" s="4" t="s">
-        <v>1673</v>
-      </c>
-      <c r="D283" s="4" t="s">
-        <v>1940</v>
-      </c>
-      <c r="E283" s="4" t="s">
-        <v>2399</v>
-      </c>
-      <c r="F283" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="G283" s="4" t="s">
-        <v>1941</v>
-      </c>
-      <c r="H283" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="I283" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="J283" s="4" t="s">
-        <v>1939</v>
-      </c>
-      <c r="K283" s="4" t="s">
-        <v>2398</v>
-      </c>
-      <c r="L283" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="M283" s="4" t="s">
-        <v>963</v>
-      </c>
-      <c r="N283" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O283" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="P283" s="4" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="284" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>2630</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C284" s="4" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D284" s="4" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E284" s="4" t="s">
+        <v>2394</v>
+      </c>
+      <c r="F284" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G284" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="H284" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I284" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J284" s="4" t="s">
+        <v>1937</v>
+      </c>
+      <c r="K284" s="4" t="s">
+        <v>2396</v>
+      </c>
+      <c r="L284" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="M284" s="4" t="s">
+        <v>897</v>
+      </c>
+      <c r="N284" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="O284" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="P284" s="4" t="s">
+        <v>988</v>
+      </c>
+    </row>
     <row r="285" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>2583</v>
+        <v>38</v>
       </c>
       <c r="B285" s="4" t="s">
-        <v>2585</v>
+        <v>81</v>
       </c>
       <c r="C285" s="4" t="s">
-        <v>2587</v>
+        <v>1672</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>2609</v>
+        <v>1935</v>
       </c>
       <c r="E285" s="4" t="s">
-        <v>2610</v>
+        <v>2395</v>
       </c>
       <c r="F285" s="4" t="s">
-        <v>2611</v>
+        <v>81</v>
       </c>
       <c r="G285" s="4" t="s">
-        <v>2612</v>
+        <v>1936</v>
       </c>
       <c r="H285" s="4" t="s">
-        <v>2613</v>
+        <v>118</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>2614</v>
+        <v>81</v>
       </c>
       <c r="J285" s="4" t="s">
-        <v>2608</v>
+        <v>1938</v>
       </c>
       <c r="K285" s="4" t="s">
-        <v>2607</v>
+        <v>2397</v>
       </c>
       <c r="L285" s="4" t="s">
-        <v>2606</v>
+        <v>209</v>
       </c>
       <c r="M285" s="4" t="s">
-        <v>2605</v>
+        <v>962</v>
       </c>
       <c r="N285" s="4" t="s">
-        <v>2604</v>
+        <v>246</v>
       </c>
       <c r="O285" s="4" t="s">
-        <v>2603</v>
+        <v>290</v>
       </c>
       <c r="P285" s="4" t="s">
-        <v>2602</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="286" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D286" s="4" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E286" s="4" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F286" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G286" s="4" t="s">
+        <v>1941</v>
+      </c>
+      <c r="H286" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I286" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="J286" s="4" t="s">
+        <v>1939</v>
+      </c>
+      <c r="K286" s="4" t="s">
+        <v>2398</v>
+      </c>
+      <c r="L286" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="M286" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="N286" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="O286" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="P286" s="4" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="4" t="s">
+        <v>2583</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>2585</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>2587</v>
+      </c>
+      <c r="D288" s="4" t="s">
+        <v>2609</v>
+      </c>
+      <c r="E288" s="4" t="s">
+        <v>2610</v>
+      </c>
+      <c r="F288" s="4" t="s">
+        <v>2611</v>
+      </c>
+      <c r="G288" s="4" t="s">
+        <v>2612</v>
+      </c>
+      <c r="H288" s="4" t="s">
+        <v>2613</v>
+      </c>
+      <c r="I288" s="4" t="s">
+        <v>2614</v>
+      </c>
+      <c r="J288" s="4" t="s">
+        <v>2608</v>
+      </c>
+      <c r="K288" s="4" t="s">
+        <v>2607</v>
+      </c>
+      <c r="L288" s="4" t="s">
+        <v>2606</v>
+      </c>
+      <c r="M288" s="4" t="s">
+        <v>2605</v>
+      </c>
+      <c r="N288" s="4" t="s">
+        <v>2604</v>
+      </c>
+      <c r="O288" s="4" t="s">
+        <v>2603</v>
+      </c>
+      <c r="P288" s="4" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
         <v>2582</v>
       </c>
-      <c r="B286" s="4" t="s">
+      <c r="B289" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C286" s="4" t="s">
+      <c r="C289" s="4" t="s">
         <v>1671</v>
       </c>
-      <c r="D286" s="4" t="s">
+      <c r="D289" s="4" t="s">
         <v>1942</v>
       </c>
-      <c r="E286" s="4" t="s">
+      <c r="E289" s="4" t="s">
         <v>2400</v>
       </c>
-      <c r="F286" s="4" t="s">
+      <c r="F289" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G286" s="4" t="s">
+      <c r="G289" s="4" t="s">
         <v>1943</v>
       </c>
-      <c r="H286" s="4" t="s">
+      <c r="H289" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="I286" s="4" t="s">
+      <c r="I289" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="J286" s="4" t="s">
+      <c r="J289" s="4" t="s">
         <v>1944</v>
       </c>
-      <c r="K286" s="4" t="s">
+      <c r="K289" s="4" t="s">
         <v>2401</v>
       </c>
-      <c r="L286" s="4" t="s">
+      <c r="L289" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="M286" s="4" t="s">
+      <c r="M289" s="4" t="s">
         <v>964</v>
       </c>
-      <c r="N286" s="4" t="s">
+      <c r="N289" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="O286" s="4" t="s">
+      <c r="O289" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="P286" s="4" t="s">
+      <c r="P289" s="4" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="287" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
+    <row r="290" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="4" t="s">
         <v>2584</v>
       </c>
-      <c r="B287" s="4" t="s">
+      <c r="B290" s="4" t="s">
         <v>2586</v>
       </c>
-      <c r="C287" s="4" t="s">
+      <c r="C290" s="4" t="s">
         <v>2588</v>
       </c>
-      <c r="D287" s="4" t="s">
+      <c r="D290" s="4" t="s">
         <v>2589</v>
       </c>
-      <c r="E287" s="4" t="s">
+      <c r="E290" s="4" t="s">
         <v>2590</v>
       </c>
-      <c r="F287" s="4" t="s">
+      <c r="F290" s="4" t="s">
         <v>2591</v>
       </c>
-      <c r="G287" s="4" t="s">
+      <c r="G290" s="4" t="s">
         <v>2592</v>
       </c>
-      <c r="H287" s="5" t="s">
+      <c r="H290" s="5" t="s">
         <v>2593</v>
       </c>
-      <c r="I287" s="4" t="s">
+      <c r="I290" s="4" t="s">
         <v>2594</v>
       </c>
-      <c r="J287" s="4" t="s">
+      <c r="J290" s="4" t="s">
         <v>2595</v>
       </c>
-      <c r="K287" s="4" t="s">
+      <c r="K290" s="4" t="s">
         <v>2596</v>
       </c>
-      <c r="L287" s="4" t="s">
+      <c r="L290" s="4" t="s">
         <v>2597</v>
       </c>
-      <c r="M287" s="4" t="s">
+      <c r="M290" s="4" t="s">
         <v>2598</v>
       </c>
-      <c r="N287" s="4" t="s">
+      <c r="N290" s="4" t="s">
         <v>2599</v>
       </c>
-      <c r="O287" s="4" t="s">
+      <c r="O290" s="4" t="s">
         <v>2600</v>
       </c>
-      <c r="P287" s="4" t="s">
+      <c r="P290" s="4" t="s">
         <v>2601</v>
       </c>
     </row>

--- a/II Core/Localization Strings.xlsx
+++ b/II Core/Localization Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778CF6CE-3599-4AF1-80D1-F5797065E6DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A61F96-78B1-4830-9712-F08754E69885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8316" uniqueCount="3383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8380" uniqueCount="3415">
   <si>
     <t>Temperature</t>
   </si>
@@ -10174,6 +10174,102 @@
   </si>
   <si>
     <t>החל שינויים באופן אוטומטי</t>
+  </si>
+  <si>
+    <t>MENU:MenuSaveScreen</t>
+  </si>
+  <si>
+    <t>MENU:MenuPrintScreen</t>
+  </si>
+  <si>
+    <t>Save Screen</t>
+  </si>
+  <si>
+    <t>Print Screen</t>
+  </si>
+  <si>
+    <t>Сохранить изображение экрана</t>
+  </si>
+  <si>
+    <t>Salvar imagem da tela</t>
+  </si>
+  <si>
+    <t>Guardar imagen de pantalla</t>
+  </si>
+  <si>
+    <t>Enregistrer l'image de l'écran</t>
+  </si>
+  <si>
+    <t>Salva immagine sullo schermo</t>
+  </si>
+  <si>
+    <t>화면 이미지 저장</t>
+  </si>
+  <si>
+    <t>Hifadhi picha ya skrini</t>
+  </si>
+  <si>
+    <t>שמור את תמונת המסך</t>
+  </si>
+  <si>
+    <t>स्क्रीन की छवि सहेजें</t>
+  </si>
+  <si>
+    <t>የማያ ገጹን ምስል ያስቀምጡ</t>
+  </si>
+  <si>
+    <t>حفظ صورة من الشاشة</t>
+  </si>
+  <si>
+    <t>保存屏幕图像</t>
+  </si>
+  <si>
+    <t>Bild des Bildschirms speichern</t>
+  </si>
+  <si>
+    <t>تصویر صفحه را ذخیره کنید</t>
+  </si>
+  <si>
+    <t>تصویری از صفحه را چاپ کنید</t>
+  </si>
+  <si>
+    <t>የማያ ገጹን ምስል ያትሙ</t>
+  </si>
+  <si>
+    <t>طباعة صورة من الشاشة</t>
+  </si>
+  <si>
+    <t>打印屏幕图像</t>
+  </si>
+  <si>
+    <t>Drucken Sie ein Bild des Bildschirms</t>
+  </si>
+  <si>
+    <t>Imprime una imagen de la pantalla</t>
+  </si>
+  <si>
+    <t>Imprimer une image de l'écran</t>
+  </si>
+  <si>
+    <t>הדפס תמונה של המסך</t>
+  </si>
+  <si>
+    <t>स्क्रीन की एक छवि प्रिंट करें</t>
+  </si>
+  <si>
+    <t>Stampa un'immagine dello schermo</t>
+  </si>
+  <si>
+    <t>화면 이미지 인쇄</t>
+  </si>
+  <si>
+    <t>Imprimir uma imagem da tela</t>
+  </si>
+  <si>
+    <t>Распечатать изображение экрана</t>
+  </si>
+  <si>
+    <t>Chapisha picha ya skrini</t>
   </si>
 </sst>
 </file>
@@ -10551,11 +10647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P292"/>
+  <dimension ref="A1:P294"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A220" sqref="A220:XFD221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20298,3309 +20394,3409 @@
     </row>
     <row r="220" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>1029</v>
+        <v>3383</v>
       </c>
       <c r="B220" s="4" t="s">
-        <v>77</v>
+        <v>3385</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>1560</v>
+        <v>3396</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>1962</v>
+        <v>3397</v>
       </c>
       <c r="E220" s="4" t="s">
-        <v>2216</v>
+        <v>3398</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>331</v>
+        <v>3399</v>
       </c>
       <c r="G220" s="4" t="s">
-        <v>1976</v>
+        <v>3400</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>171</v>
+        <v>3389</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>160</v>
+        <v>3390</v>
       </c>
       <c r="J220" s="4" t="s">
-        <v>1990</v>
+        <v>3394</v>
       </c>
       <c r="K220" s="4" t="s">
-        <v>2230</v>
+        <v>3395</v>
       </c>
       <c r="L220" s="4" t="s">
-        <v>207</v>
+        <v>3391</v>
       </c>
       <c r="M220" s="4" t="s">
-        <v>862</v>
+        <v>3392</v>
       </c>
       <c r="N220" s="4" t="s">
-        <v>245</v>
+        <v>3388</v>
       </c>
       <c r="O220" s="4" t="s">
-        <v>288</v>
+        <v>3387</v>
       </c>
       <c r="P220" s="4" t="s">
-        <v>938</v>
+        <v>3393</v>
       </c>
     </row>
     <row r="221" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>1030</v>
+        <v>3384</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>45</v>
+        <v>3386</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>1495</v>
+        <v>3402</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>1709</v>
+        <v>3403</v>
       </c>
       <c r="E221" s="4" t="s">
-        <v>2126</v>
+        <v>3404</v>
       </c>
       <c r="F221" s="4" t="s">
-        <v>348</v>
+        <v>3405</v>
       </c>
       <c r="G221" s="4" t="s">
-        <v>1718</v>
+        <v>3401</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>349</v>
+        <v>3406</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>350</v>
+        <v>3407</v>
       </c>
       <c r="J221" s="4" t="s">
-        <v>1727</v>
+        <v>3408</v>
       </c>
       <c r="K221" s="4" t="s">
-        <v>2133</v>
+        <v>3409</v>
       </c>
       <c r="L221" s="4" t="s">
-        <v>351</v>
+        <v>3410</v>
       </c>
       <c r="M221" s="4" t="s">
-        <v>821</v>
+        <v>3411</v>
       </c>
       <c r="N221" s="4" t="s">
-        <v>765</v>
+        <v>3412</v>
       </c>
       <c r="O221" s="4" t="s">
-        <v>255</v>
+        <v>3413</v>
       </c>
       <c r="P221" s="4" t="s">
-        <v>903</v>
+        <v>3414</v>
       </c>
     </row>
     <row r="222" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>702</v>
+        <v>77</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>1563</v>
+        <v>1560</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>1965</v>
+        <v>1962</v>
       </c>
       <c r="E222" s="4" t="s">
-        <v>2219</v>
+        <v>2216</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>779</v>
+        <v>331</v>
       </c>
       <c r="G222" s="4" t="s">
-        <v>1979</v>
+        <v>1976</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>774</v>
+        <v>171</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>775</v>
+        <v>160</v>
       </c>
       <c r="J222" s="4" t="s">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="K222" s="4" t="s">
-        <v>2233</v>
+        <v>2230</v>
       </c>
       <c r="L222" s="4" t="s">
-        <v>776</v>
+        <v>207</v>
       </c>
       <c r="M222" s="4" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="N222" s="4" t="s">
-        <v>777</v>
+        <v>245</v>
       </c>
       <c r="O222" s="4" t="s">
-        <v>778</v>
+        <v>288</v>
       </c>
       <c r="P222" s="4" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="223" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>1052</v>
+        <v>1030</v>
       </c>
       <c r="B223" s="4" t="s">
-        <v>1051</v>
+        <v>45</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>1564</v>
+        <v>1495</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>1966</v>
+        <v>1709</v>
       </c>
       <c r="E223" s="4" t="s">
-        <v>2220</v>
+        <v>2126</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>1071</v>
+        <v>348</v>
       </c>
       <c r="G223" s="4" t="s">
-        <v>1980</v>
+        <v>1718</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>1072</v>
+        <v>349</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>1073</v>
+        <v>350</v>
       </c>
       <c r="J223" s="4" t="s">
-        <v>1994</v>
+        <v>1727</v>
       </c>
       <c r="K223" s="4" t="s">
-        <v>2234</v>
+        <v>2133</v>
       </c>
       <c r="L223" s="4" t="s">
-        <v>1074</v>
+        <v>351</v>
       </c>
       <c r="M223" s="4" t="s">
-        <v>1075</v>
+        <v>821</v>
       </c>
       <c r="N223" s="4" t="s">
-        <v>1076</v>
+        <v>765</v>
       </c>
       <c r="O223" s="4" t="s">
-        <v>1077</v>
+        <v>255</v>
       </c>
       <c r="P223" s="4" t="s">
-        <v>1078</v>
+        <v>903</v>
       </c>
     </row>
     <row r="224" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>3273</v>
+        <v>1033</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>3274</v>
+        <v>702</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>3298</v>
+        <v>1563</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>3299</v>
+        <v>1965</v>
       </c>
       <c r="E224" s="4" t="s">
-        <v>3300</v>
+        <v>2219</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>3301</v>
+        <v>779</v>
       </c>
       <c r="G224" s="4" t="s">
-        <v>3302</v>
+        <v>1979</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>3290</v>
+        <v>774</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>3289</v>
+        <v>775</v>
       </c>
       <c r="J224" s="4" t="s">
-        <v>3291</v>
+        <v>1993</v>
       </c>
       <c r="K224" s="4" t="s">
-        <v>3292</v>
+        <v>2233</v>
       </c>
       <c r="L224" s="4" t="s">
-        <v>3293</v>
+        <v>776</v>
       </c>
       <c r="M224" s="4" t="s">
-        <v>3294</v>
+        <v>865</v>
       </c>
       <c r="N224" s="4" t="s">
-        <v>3295</v>
+        <v>777</v>
       </c>
       <c r="O224" s="4" t="s">
-        <v>3296</v>
+        <v>778</v>
       </c>
       <c r="P224" s="4" t="s">
-        <v>3297</v>
+        <v>941</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B225" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C225" s="4" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D225" s="4" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>2220</v>
+      </c>
+      <c r="F225" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G225" s="4" t="s">
+        <v>1980</v>
+      </c>
+      <c r="H225" s="4" t="s">
+        <v>1072</v>
+      </c>
+      <c r="I225" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="J225" s="4" t="s">
+        <v>1994</v>
+      </c>
+      <c r="K225" s="4" t="s">
+        <v>2234</v>
+      </c>
+      <c r="L225" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="M225" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="N225" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="O225" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="P225" s="4" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="226" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>445</v>
+        <v>3273</v>
       </c>
       <c r="B226" s="4" t="s">
-        <v>442</v>
+        <v>3274</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>1565</v>
+        <v>3298</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>1739</v>
+        <v>3299</v>
       </c>
       <c r="E226" s="4" t="s">
-        <v>2045</v>
+        <v>3300</v>
       </c>
       <c r="F226" s="4" t="s">
-        <v>636</v>
+        <v>3301</v>
       </c>
       <c r="G226" s="4" t="s">
-        <v>1748</v>
+        <v>3302</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>639</v>
+        <v>3290</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>658</v>
+        <v>3289</v>
       </c>
       <c r="J226" s="4" t="s">
-        <v>1946</v>
-      </c>
-      <c r="K226" s="5" t="s">
-        <v>2054</v>
+        <v>3291</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>3292</v>
       </c>
       <c r="L226" s="4" t="s">
-        <v>685</v>
+        <v>3293</v>
       </c>
       <c r="M226" s="4" t="s">
-        <v>867</v>
+        <v>3294</v>
       </c>
       <c r="N226" s="4" t="s">
-        <v>643</v>
+        <v>3295</v>
       </c>
       <c r="O226" s="4" t="s">
-        <v>688</v>
+        <v>3296</v>
       </c>
       <c r="P226" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="227" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="4" t="s">
-        <v>446</v>
-      </c>
-      <c r="B227" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C227" s="4" t="s">
-        <v>1513</v>
-      </c>
-      <c r="D227" s="4" t="s">
-        <v>1765</v>
-      </c>
-      <c r="E227" s="4" t="s">
-        <v>2064</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="G227" s="4" t="s">
-        <v>1781</v>
-      </c>
-      <c r="H227" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I227" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="J227" s="4" t="s">
-        <v>1805</v>
-      </c>
-      <c r="K227" s="4" t="s">
-        <v>2081</v>
-      </c>
-      <c r="L227" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="M227" s="4" t="s">
-        <v>838</v>
-      </c>
-      <c r="N227" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O227" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="P227" s="4" t="s">
-        <v>918</v>
+        <v>3297</v>
       </c>
     </row>
     <row r="228" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>50</v>
+        <v>442</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>1511</v>
+        <v>1565</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>1764</v>
+        <v>1739</v>
       </c>
       <c r="E228" s="4" t="s">
-        <v>2062</v>
+        <v>2045</v>
       </c>
       <c r="F228" s="4" t="s">
-        <v>309</v>
+        <v>636</v>
       </c>
       <c r="G228" s="4" t="s">
-        <v>1780</v>
+        <v>1748</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>99</v>
+        <v>639</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>139</v>
+        <v>658</v>
       </c>
       <c r="J228" s="4" t="s">
-        <v>1803</v>
-      </c>
-      <c r="K228" s="4" t="s">
-        <v>2079</v>
+        <v>1946</v>
+      </c>
+      <c r="K228" s="5" t="s">
+        <v>2054</v>
       </c>
       <c r="L228" s="4" t="s">
-        <v>190</v>
+        <v>685</v>
       </c>
       <c r="M228" s="4" t="s">
-        <v>836</v>
+        <v>867</v>
       </c>
       <c r="N228" s="4" t="s">
-        <v>225</v>
+        <v>643</v>
       </c>
       <c r="O228" s="4" t="s">
-        <v>268</v>
+        <v>688</v>
       </c>
       <c r="P228" s="4" t="s">
-        <v>916</v>
+        <v>442</v>
       </c>
     </row>
     <row r="229" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B229" s="4" t="s">
-        <v>443</v>
+        <v>0</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>1566</v>
+        <v>1513</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>1995</v>
+        <v>1765</v>
       </c>
       <c r="E229" s="4" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F229" s="4" t="s">
-        <v>637</v>
+        <v>311</v>
       </c>
       <c r="G229" s="4" t="s">
-        <v>1998</v>
+        <v>1781</v>
       </c>
       <c r="H229" s="4" t="s">
-        <v>640</v>
+        <v>101</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>659</v>
+        <v>141</v>
       </c>
       <c r="J229" s="4" t="s">
-        <v>2001</v>
+        <v>1805</v>
       </c>
       <c r="K229" s="4" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="L229" s="4" t="s">
-        <v>673</v>
+        <v>101</v>
       </c>
       <c r="M229" s="4" t="s">
-        <v>868</v>
+        <v>838</v>
       </c>
       <c r="N229" s="4" t="s">
-        <v>644</v>
+        <v>101</v>
       </c>
       <c r="O229" s="4" t="s">
-        <v>610</v>
+        <v>270</v>
       </c>
       <c r="P229" s="4" t="s">
-        <v>942</v>
+        <v>918</v>
       </c>
     </row>
     <row r="230" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>1799</v>
+        <v>1764</v>
       </c>
       <c r="E230" s="4" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F230" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G230" s="4" t="s">
-        <v>1800</v>
+        <v>1780</v>
       </c>
       <c r="H230" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J230" s="4" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="K230" s="4" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="L230" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M230" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="N230" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="O230" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P230" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="231" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="E231" s="4" t="s">
-        <v>2235</v>
+        <v>2065</v>
       </c>
       <c r="F231" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="H231" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J231" s="4" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="K231" s="4" t="s">
-        <v>2238</v>
+        <v>2082</v>
       </c>
       <c r="L231" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M231" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="N231" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O231" s="4" t="s">
-        <v>689</v>
+        <v>610</v>
       </c>
       <c r="P231" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="232" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B232" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>1767</v>
+        <v>1799</v>
       </c>
       <c r="E232" s="4" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G232" s="4" t="s">
-        <v>1779</v>
+        <v>1800</v>
       </c>
       <c r="H232" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J232" s="4" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="K232" s="4" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="L232" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M232" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O232" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P232" s="4" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="233" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>54</v>
+        <v>444</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>1516</v>
+        <v>1567</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>1768</v>
+        <v>1996</v>
       </c>
       <c r="E233" s="4" t="s">
-        <v>2067</v>
+        <v>2235</v>
       </c>
       <c r="F233" s="4" t="s">
-        <v>314</v>
+        <v>638</v>
       </c>
       <c r="G233" s="4" t="s">
-        <v>1783</v>
+        <v>1999</v>
       </c>
       <c r="H233" s="4" t="s">
-        <v>103</v>
+        <v>641</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>144</v>
+        <v>660</v>
       </c>
       <c r="J233" s="4" t="s">
-        <v>1808</v>
+        <v>2002</v>
       </c>
       <c r="K233" s="4" t="s">
-        <v>2084</v>
+        <v>2238</v>
       </c>
       <c r="L233" s="4" t="s">
-        <v>193</v>
+        <v>674</v>
       </c>
       <c r="M233" s="4" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="N233" s="4" t="s">
-        <v>228</v>
+        <v>645</v>
       </c>
       <c r="O233" s="4" t="s">
-        <v>272</v>
+        <v>689</v>
       </c>
       <c r="P233" s="4" t="s">
-        <v>920</v>
+        <v>943</v>
       </c>
     </row>
     <row r="234" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>703</v>
+        <v>451</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G234" s="4" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="J234" s="4" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="K234" s="4" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="L234" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M234" s="4" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="N234" s="4" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="O234" s="4" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="P234" s="4" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
     </row>
     <row r="235" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>2363</v>
+        <v>452</v>
       </c>
       <c r="B235" s="4" t="s">
-        <v>2365</v>
+        <v>54</v>
       </c>
       <c r="C235" s="4" t="s">
-        <v>2370</v>
+        <v>1516</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>2366</v>
+        <v>1768</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>2371</v>
+        <v>2067</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>2372</v>
+        <v>314</v>
       </c>
       <c r="G235" s="4" t="s">
-        <v>2369</v>
+        <v>1783</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>2367</v>
+        <v>103</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>2368</v>
+        <v>144</v>
       </c>
       <c r="J235" s="4" t="s">
-        <v>2373</v>
+        <v>1808</v>
       </c>
       <c r="K235" s="4" t="s">
-        <v>2374</v>
+        <v>2084</v>
       </c>
       <c r="L235" s="4" t="s">
-        <v>2375</v>
+        <v>193</v>
       </c>
       <c r="M235" s="4" t="s">
-        <v>2376</v>
+        <v>840</v>
       </c>
       <c r="N235" s="4" t="s">
-        <v>2377</v>
+        <v>228</v>
       </c>
       <c r="O235" s="4" t="s">
-        <v>2378</v>
+        <v>272</v>
       </c>
       <c r="P235" s="4" t="s">
-        <v>2379</v>
+        <v>920</v>
       </c>
     </row>
     <row r="236" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>2383</v>
+        <v>703</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>2381</v>
+        <v>55</v>
       </c>
       <c r="C236" s="4" t="s">
-        <v>2386</v>
+        <v>1517</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>2387</v>
+        <v>1769</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>2388</v>
+        <v>2068</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>2389</v>
+        <v>315</v>
       </c>
       <c r="G236" s="4" t="s">
-        <v>2390</v>
+        <v>1784</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>2391</v>
+        <v>104</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>2392</v>
+        <v>145</v>
       </c>
       <c r="J236" s="4" t="s">
-        <v>2393</v>
+        <v>1809</v>
       </c>
       <c r="K236" s="4" t="s">
-        <v>2394</v>
+        <v>2085</v>
       </c>
       <c r="L236" s="4" t="s">
-        <v>2395</v>
+        <v>194</v>
       </c>
       <c r="M236" s="4" t="s">
-        <v>2396</v>
+        <v>841</v>
       </c>
       <c r="N236" s="4" t="s">
-        <v>2397</v>
+        <v>229</v>
       </c>
       <c r="O236" s="4" t="s">
-        <v>2385</v>
+        <v>273</v>
       </c>
       <c r="P236" s="4" t="s">
-        <v>2384</v>
+        <v>921</v>
       </c>
     </row>
     <row r="237" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>1214</v>
+        <v>2363</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>1061</v>
+        <v>2365</v>
       </c>
       <c r="C237" s="4" t="s">
-        <v>1568</v>
+        <v>2370</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>1907</v>
+        <v>2366</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>2236</v>
+        <v>2371</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>1190</v>
+        <v>2372</v>
       </c>
       <c r="G237" s="4" t="s">
-        <v>1922</v>
+        <v>2369</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>1191</v>
+        <v>2367</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>1192</v>
+        <v>2368</v>
       </c>
       <c r="J237" s="4" t="s">
-        <v>1938</v>
+        <v>2373</v>
       </c>
       <c r="K237" s="4" t="s">
-        <v>2239</v>
+        <v>2374</v>
       </c>
       <c r="L237" s="4" t="s">
-        <v>1193</v>
+        <v>2375</v>
       </c>
       <c r="M237" s="4" t="s">
-        <v>1194</v>
+        <v>2376</v>
       </c>
       <c r="N237" s="4" t="s">
-        <v>1195</v>
+        <v>2377</v>
       </c>
       <c r="O237" s="4" t="s">
-        <v>1196</v>
+        <v>2378</v>
       </c>
       <c r="P237" s="4" t="s">
-        <v>1197</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="238" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>1240</v>
+        <v>2383</v>
       </c>
       <c r="B238" s="4" t="s">
-        <v>1239</v>
+        <v>2381</v>
       </c>
       <c r="C238" s="4" t="s">
-        <v>1569</v>
+        <v>2386</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>1997</v>
+        <v>2387</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>2237</v>
+        <v>2388</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>1282</v>
+        <v>2389</v>
       </c>
       <c r="G238" s="4" t="s">
-        <v>2000</v>
+        <v>2390</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>1307</v>
+        <v>2391</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>1308</v>
+        <v>2392</v>
       </c>
       <c r="J238" s="4" t="s">
-        <v>2003</v>
+        <v>2393</v>
       </c>
       <c r="K238" s="4" t="s">
-        <v>2240</v>
+        <v>2394</v>
       </c>
       <c r="L238" s="4" t="s">
-        <v>1309</v>
+        <v>2395</v>
       </c>
       <c r="M238" s="4" t="s">
-        <v>1310</v>
+        <v>2396</v>
       </c>
       <c r="N238" s="4" t="s">
-        <v>1311</v>
+        <v>2397</v>
       </c>
       <c r="O238" s="4" t="s">
-        <v>1312</v>
+        <v>2385</v>
       </c>
       <c r="P238" s="4" t="s">
-        <v>1313</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="239" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>1053</v>
+        <v>1214</v>
       </c>
       <c r="B239" s="4" t="s">
-        <v>3248</v>
+        <v>1061</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>3254</v>
+        <v>1907</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>2220</v>
+        <v>2236</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>3252</v>
+        <v>1190</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>3254</v>
+        <v>1922</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>3246</v>
+        <v>1191</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>3247</v>
+        <v>1192</v>
       </c>
       <c r="J239" s="4" t="s">
-        <v>3253</v>
+        <v>1938</v>
       </c>
       <c r="K239" s="4" t="s">
-        <v>2234</v>
+        <v>2239</v>
       </c>
       <c r="L239" s="4" t="s">
-        <v>3248</v>
+        <v>1193</v>
       </c>
       <c r="M239" s="4" t="s">
-        <v>3251</v>
+        <v>1194</v>
       </c>
       <c r="N239" s="4" t="s">
-        <v>3248</v>
+        <v>1195</v>
       </c>
       <c r="O239" s="4" t="s">
-        <v>3250</v>
+        <v>1196</v>
       </c>
       <c r="P239" s="4" t="s">
-        <v>3249</v>
-      </c>
-    </row>
-    <row r="240" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="4" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B240" s="4" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C240" s="4" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D240" s="4" t="s">
+        <v>1997</v>
+      </c>
+      <c r="E240" s="4" t="s">
+        <v>2237</v>
+      </c>
+      <c r="F240" s="4" t="s">
+        <v>1282</v>
+      </c>
+      <c r="G240" s="4" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H240" s="4" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I240" s="4" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J240" s="4" t="s">
+        <v>2003</v>
+      </c>
+      <c r="K240" s="4" t="s">
+        <v>2240</v>
+      </c>
+      <c r="L240" s="4" t="s">
+        <v>1309</v>
+      </c>
+      <c r="M240" s="4" t="s">
+        <v>1310</v>
+      </c>
+      <c r="N240" s="4" t="s">
+        <v>1311</v>
+      </c>
+      <c r="O240" s="4" t="s">
+        <v>1312</v>
+      </c>
+      <c r="P240" s="4" t="s">
+        <v>1313</v>
+      </c>
+    </row>
     <row r="241" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>699</v>
+        <v>1053</v>
       </c>
       <c r="B241" s="4" t="s">
-        <v>442</v>
+        <v>3248</v>
       </c>
       <c r="C241" s="4" t="s">
-        <v>1565</v>
+        <v>1564</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>1739</v>
+        <v>3254</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>2045</v>
+        <v>2220</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>636</v>
+        <v>3252</v>
       </c>
       <c r="G241" s="4" t="s">
-        <v>1748</v>
+        <v>3254</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>639</v>
+        <v>3246</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>658</v>
+        <v>3247</v>
       </c>
       <c r="J241" s="4" t="s">
-        <v>1946</v>
-      </c>
-      <c r="K241" s="5" t="s">
-        <v>2054</v>
+        <v>3253</v>
+      </c>
+      <c r="K241" s="4" t="s">
+        <v>2234</v>
       </c>
       <c r="L241" s="4" t="s">
-        <v>685</v>
+        <v>3248</v>
       </c>
       <c r="M241" s="4" t="s">
-        <v>867</v>
+        <v>3251</v>
       </c>
       <c r="N241" s="4" t="s">
-        <v>643</v>
+        <v>3248</v>
       </c>
       <c r="O241" s="4" t="s">
-        <v>688</v>
+        <v>3250</v>
       </c>
       <c r="P241" s="4" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="242" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="4" t="s">
-        <v>3271</v>
-      </c>
-      <c r="B242" s="4" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C242" s="4" t="s">
-        <v>1600</v>
-      </c>
-      <c r="D242" s="4" t="s">
-        <v>1914</v>
-      </c>
-      <c r="E242" s="4" t="s">
-        <v>2200</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>1103</v>
-      </c>
-      <c r="G242" s="4" t="s">
-        <v>1930</v>
-      </c>
-      <c r="H242" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="I242" s="4" t="s">
-        <v>1095</v>
-      </c>
-      <c r="J242" s="4" t="s">
-        <v>1947</v>
-      </c>
-      <c r="K242" s="4" t="s">
-        <v>2201</v>
-      </c>
-      <c r="L242" s="4" t="s">
-        <v>1099</v>
-      </c>
-      <c r="M242" s="4" t="s">
-        <v>1096</v>
-      </c>
-      <c r="N242" s="4" t="s">
-        <v>1104</v>
-      </c>
-      <c r="O242" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="P242" s="4" t="s">
-        <v>1108</v>
-      </c>
-    </row>
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="243" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>3272</v>
+        <v>699</v>
       </c>
       <c r="B243" s="4" t="s">
-        <v>3276</v>
+        <v>442</v>
       </c>
       <c r="C243" s="4" t="s">
-        <v>3283</v>
+        <v>1565</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>3284</v>
+        <v>1739</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>3285</v>
+        <v>2045</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>3282</v>
+        <v>636</v>
       </c>
       <c r="G243" s="4" t="s">
-        <v>3284</v>
+        <v>1748</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>3281</v>
+        <v>639</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>3280</v>
+        <v>658</v>
       </c>
       <c r="J243" s="4" t="s">
-        <v>3286</v>
-      </c>
-      <c r="K243" s="4" t="s">
-        <v>3287</v>
+        <v>1946</v>
+      </c>
+      <c r="K243" s="5" t="s">
+        <v>2054</v>
       </c>
       <c r="L243" s="4" t="s">
-        <v>3278</v>
+        <v>685</v>
       </c>
       <c r="M243" s="4" t="s">
-        <v>3288</v>
+        <v>867</v>
       </c>
       <c r="N243" s="4" t="s">
-        <v>3279</v>
+        <v>643</v>
       </c>
       <c r="O243" s="4" t="s">
-        <v>3277</v>
+        <v>688</v>
       </c>
       <c r="P243" s="4" t="s">
-        <v>3275</v>
+        <v>442</v>
       </c>
     </row>
     <row r="244" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="K244" s="5"/>
+      <c r="A244" s="4" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B244" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D244" s="4" t="s">
+        <v>1914</v>
+      </c>
+      <c r="E244" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F244" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G244" s="4" t="s">
+        <v>1930</v>
+      </c>
+      <c r="H244" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="I244" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="J244" s="4" t="s">
+        <v>1947</v>
+      </c>
+      <c r="K244" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="L244" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="M244" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="N244" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="O244" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="P244" s="4" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="245" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>465</v>
+        <v>3272</v>
       </c>
       <c r="B245" s="4" t="s">
-        <v>51</v>
+        <v>3276</v>
       </c>
       <c r="C245" s="4" t="s">
-        <v>1512</v>
+        <v>3283</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>1799</v>
+        <v>3284</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>2063</v>
+        <v>3285</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>310</v>
+        <v>3282</v>
       </c>
       <c r="G245" s="4" t="s">
-        <v>1800</v>
+        <v>3284</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>100</v>
+        <v>3281</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>140</v>
+        <v>3280</v>
       </c>
       <c r="J245" s="4" t="s">
-        <v>1804</v>
+        <v>3286</v>
       </c>
       <c r="K245" s="4" t="s">
-        <v>2080</v>
+        <v>3287</v>
       </c>
       <c r="L245" s="4" t="s">
-        <v>191</v>
+        <v>3278</v>
       </c>
       <c r="M245" s="4" t="s">
-        <v>837</v>
+        <v>3288</v>
       </c>
       <c r="N245" s="4" t="s">
-        <v>226</v>
+        <v>3279</v>
       </c>
       <c r="O245" s="4" t="s">
-        <v>269</v>
+        <v>3277</v>
       </c>
       <c r="P245" s="4" t="s">
-        <v>954</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="246" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="B246" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C246" s="4" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D246" s="4" t="s">
-        <v>1768</v>
-      </c>
-      <c r="E246" s="4" t="s">
-        <v>2067</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="G246" s="4" t="s">
-        <v>1783</v>
-      </c>
-      <c r="H246" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I246" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="J246" s="4" t="s">
-        <v>1808</v>
-      </c>
-      <c r="K246" s="4" t="s">
-        <v>2084</v>
-      </c>
-      <c r="L246" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="M246" s="4" t="s">
-        <v>840</v>
-      </c>
-      <c r="N246" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="O246" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="P246" s="4" t="s">
-        <v>920</v>
-      </c>
+      <c r="K246" s="5"/>
     </row>
     <row r="247" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B247" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C247" s="4" t="s">
-        <v>1515</v>
+        <v>1512</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>1767</v>
+        <v>1799</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G247" s="4" t="s">
-        <v>1779</v>
+        <v>1800</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J247" s="4" t="s">
-        <v>1807</v>
+        <v>1804</v>
       </c>
       <c r="K247" s="4" t="s">
-        <v>2083</v>
+        <v>2080</v>
       </c>
       <c r="L247" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M247" s="4" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="N247" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O247" s="4" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P247" s="4" t="s">
-        <v>919</v>
+        <v>954</v>
       </c>
     </row>
     <row r="248" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B248" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C248" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>2068</v>
+        <v>2067</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G248" s="4" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J248" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="K248" s="4" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="L248" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M248" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="N248" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O248" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P248" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="249" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>2364</v>
+        <v>467</v>
       </c>
       <c r="B249" s="4" t="s">
-        <v>2365</v>
+        <v>53</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>2370</v>
+        <v>1515</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>2366</v>
+        <v>1767</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>2371</v>
+        <v>2066</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>2372</v>
+        <v>313</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>2369</v>
+        <v>1779</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>2367</v>
+        <v>102</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>2368</v>
+        <v>143</v>
       </c>
       <c r="J249" s="4" t="s">
-        <v>2373</v>
+        <v>1807</v>
       </c>
       <c r="K249" s="4" t="s">
-        <v>2374</v>
+        <v>2083</v>
       </c>
       <c r="L249" s="4" t="s">
-        <v>2375</v>
+        <v>192</v>
       </c>
       <c r="M249" s="4" t="s">
-        <v>2376</v>
+        <v>839</v>
       </c>
       <c r="N249" s="4" t="s">
-        <v>2377</v>
+        <v>227</v>
       </c>
       <c r="O249" s="4" t="s">
-        <v>2378</v>
+        <v>271</v>
       </c>
       <c r="P249" s="4" t="s">
-        <v>2379</v>
+        <v>919</v>
       </c>
     </row>
     <row r="250" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>2382</v>
+        <v>482</v>
       </c>
       <c r="B250" s="4" t="s">
-        <v>2381</v>
+        <v>55</v>
       </c>
       <c r="C250" s="4" t="s">
-        <v>2386</v>
+        <v>1517</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>2387</v>
+        <v>1769</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>2388</v>
+        <v>2068</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>2389</v>
+        <v>315</v>
       </c>
       <c r="G250" s="4" t="s">
-        <v>2390</v>
+        <v>1784</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>2391</v>
+        <v>104</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>2392</v>
+        <v>145</v>
       </c>
       <c r="J250" s="4" t="s">
-        <v>2393</v>
+        <v>1809</v>
       </c>
       <c r="K250" s="4" t="s">
-        <v>2394</v>
+        <v>2085</v>
       </c>
       <c r="L250" s="4" t="s">
-        <v>2395</v>
+        <v>194</v>
       </c>
       <c r="M250" s="4" t="s">
-        <v>2396</v>
+        <v>841</v>
       </c>
       <c r="N250" s="4" t="s">
-        <v>2397</v>
+        <v>229</v>
       </c>
       <c r="O250" s="4" t="s">
-        <v>2385</v>
+        <v>273</v>
       </c>
       <c r="P250" s="4" t="s">
-        <v>2384</v>
+        <v>921</v>
       </c>
     </row>
     <row r="251" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>1043</v>
+        <v>2364</v>
       </c>
       <c r="B251" s="4" t="s">
-        <v>1044</v>
+        <v>2365</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>1570</v>
+        <v>2370</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>1742</v>
+        <v>2366</v>
       </c>
       <c r="E251" s="4" t="s">
-        <v>2048</v>
+        <v>2371</v>
       </c>
       <c r="F251" s="4" t="s">
-        <v>304</v>
+        <v>2372</v>
       </c>
       <c r="G251" s="4" t="s">
-        <v>1751</v>
+        <v>2369</v>
       </c>
       <c r="H251" s="4" t="s">
-        <v>94</v>
+        <v>2367</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>134</v>
+        <v>2368</v>
       </c>
       <c r="J251" s="4" t="s">
-        <v>1735</v>
+        <v>2373</v>
       </c>
       <c r="K251" s="4" t="s">
-        <v>2241</v>
+        <v>2374</v>
       </c>
       <c r="L251" s="4" t="s">
-        <v>185</v>
+        <v>2375</v>
       </c>
       <c r="M251" s="4" t="s">
-        <v>831</v>
+        <v>2376</v>
       </c>
       <c r="N251" s="4" t="s">
-        <v>221</v>
+        <v>2377</v>
       </c>
       <c r="O251" s="4" t="s">
-        <v>263</v>
+        <v>2378</v>
       </c>
       <c r="P251" s="4" t="s">
-        <v>911</v>
+        <v>2379</v>
       </c>
     </row>
     <row r="252" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>468</v>
+        <v>2382</v>
       </c>
       <c r="B252" s="4" t="s">
-        <v>50</v>
+        <v>2381</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>1511</v>
+        <v>2386</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>1764</v>
+        <v>2387</v>
       </c>
       <c r="E252" s="4" t="s">
-        <v>2062</v>
+        <v>2388</v>
       </c>
       <c r="F252" s="4" t="s">
-        <v>309</v>
+        <v>2389</v>
       </c>
       <c r="G252" s="4" t="s">
-        <v>1780</v>
+        <v>2390</v>
       </c>
       <c r="H252" s="4" t="s">
-        <v>99</v>
+        <v>2391</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>139</v>
+        <v>2392</v>
       </c>
       <c r="J252" s="4" t="s">
-        <v>1803</v>
+        <v>2393</v>
       </c>
       <c r="K252" s="4" t="s">
-        <v>2079</v>
+        <v>2394</v>
       </c>
       <c r="L252" s="4" t="s">
-        <v>190</v>
+        <v>2395</v>
       </c>
       <c r="M252" s="4" t="s">
-        <v>836</v>
+        <v>2396</v>
       </c>
       <c r="N252" s="4" t="s">
-        <v>225</v>
+        <v>2397</v>
       </c>
       <c r="O252" s="4" t="s">
-        <v>268</v>
+        <v>2385</v>
       </c>
       <c r="P252" s="4" t="s">
-        <v>916</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="253" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>469</v>
+        <v>1043</v>
       </c>
       <c r="B253" s="4" t="s">
-        <v>443</v>
+        <v>1044</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>1995</v>
+        <v>1742</v>
       </c>
       <c r="E253" s="4" t="s">
-        <v>2065</v>
+        <v>2048</v>
       </c>
       <c r="F253" s="4" t="s">
-        <v>637</v>
+        <v>304</v>
       </c>
       <c r="G253" s="4" t="s">
-        <v>1998</v>
+        <v>1751</v>
       </c>
       <c r="H253" s="4" t="s">
-        <v>642</v>
+        <v>94</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>659</v>
+        <v>134</v>
       </c>
       <c r="J253" s="4" t="s">
-        <v>2001</v>
+        <v>1735</v>
       </c>
       <c r="K253" s="4" t="s">
-        <v>2082</v>
+        <v>2241</v>
       </c>
       <c r="L253" s="4" t="s">
-        <v>673</v>
+        <v>185</v>
       </c>
       <c r="M253" s="4" t="s">
-        <v>870</v>
+        <v>831</v>
       </c>
       <c r="N253" s="4" t="s">
-        <v>644</v>
+        <v>221</v>
       </c>
       <c r="O253" s="4" t="s">
-        <v>610</v>
+        <v>263</v>
       </c>
       <c r="P253" s="4" t="s">
-        <v>953</v>
+        <v>911</v>
       </c>
     </row>
     <row r="254" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B254" s="4" t="s">
-        <v>453</v>
+        <v>50</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>1578</v>
+        <v>1511</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>2004</v>
+        <v>1764</v>
       </c>
       <c r="E254" s="4" t="s">
-        <v>2312</v>
+        <v>2062</v>
       </c>
       <c r="F254" s="4" t="s">
-        <v>722</v>
+        <v>309</v>
       </c>
       <c r="G254" s="4" t="s">
-        <v>2016</v>
+        <v>1780</v>
       </c>
       <c r="H254" s="4" t="s">
-        <v>734</v>
+        <v>99</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>672</v>
+        <v>139</v>
       </c>
       <c r="J254" s="4" t="s">
-        <v>2028</v>
+        <v>1803</v>
       </c>
       <c r="K254" s="4" t="s">
-        <v>2324</v>
+        <v>2079</v>
       </c>
       <c r="L254" s="4" t="s">
-        <v>675</v>
+        <v>190</v>
       </c>
       <c r="M254" s="4" t="s">
-        <v>871</v>
+        <v>836</v>
       </c>
       <c r="N254" s="4" t="s">
-        <v>646</v>
+        <v>225</v>
       </c>
       <c r="O254" s="4" t="s">
-        <v>758</v>
+        <v>268</v>
       </c>
       <c r="P254" s="4" t="s">
-        <v>967</v>
+        <v>916</v>
       </c>
     </row>
     <row r="255" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B255" s="4" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>1579</v>
+        <v>1566</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E255" s="4" t="s">
-        <v>2313</v>
+        <v>2065</v>
       </c>
       <c r="F255" s="4" t="s">
-        <v>725</v>
+        <v>637</v>
       </c>
       <c r="G255" s="4" t="s">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="H255" s="4" t="s">
-        <v>735</v>
+        <v>642</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="J255" s="4" t="s">
-        <v>2029</v>
+        <v>2001</v>
       </c>
       <c r="K255" s="4" t="s">
-        <v>2325</v>
+        <v>2082</v>
       </c>
       <c r="L255" s="4" t="s">
-        <v>686</v>
+        <v>673</v>
       </c>
       <c r="M255" s="4" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N255" s="4" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="O255" s="4" t="s">
-        <v>759</v>
+        <v>610</v>
       </c>
       <c r="P255" s="4" t="s">
-        <v>968</v>
+        <v>953</v>
       </c>
     </row>
     <row r="256" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>1580</v>
+        <v>1578</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E256" s="4" t="s">
-        <v>2314</v>
+        <v>2312</v>
       </c>
       <c r="F256" s="4" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G256" s="4" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="H256" s="4" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="J256" s="4" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="K256" s="4" t="s">
-        <v>2326</v>
+        <v>2324</v>
       </c>
       <c r="L256" s="4" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="M256" s="4" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="N256" s="4" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="O256" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="P256" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="257" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>1581</v>
+        <v>1579</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E257" s="4" t="s">
-        <v>2315</v>
+        <v>2313</v>
       </c>
       <c r="F257" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="H257" s="4" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="J257" s="4" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="K257" s="4" t="s">
-        <v>2327</v>
+        <v>2325</v>
       </c>
       <c r="L257" s="4" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="M257" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="N257" s="4" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="O257" s="4" t="s">
-        <v>690</v>
+        <v>759</v>
       </c>
       <c r="P257" s="4" t="s">
-        <v>958</v>
+        <v>968</v>
       </c>
     </row>
     <row r="258" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B258" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>1582</v>
+        <v>1580</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E258" s="4" t="s">
-        <v>2316</v>
+        <v>2314</v>
       </c>
       <c r="F258" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="G258" s="4" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="H258" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="J258" s="4" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="K258" s="4" t="s">
-        <v>2328</v>
+        <v>2326</v>
       </c>
       <c r="L258" s="4" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="M258" s="4" t="s">
-        <v>978</v>
+        <v>873</v>
       </c>
       <c r="N258" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O258" s="4" t="s">
-        <v>691</v>
+        <v>760</v>
       </c>
       <c r="P258" s="4" t="s">
-        <v>959</v>
+        <v>969</v>
       </c>
     </row>
     <row r="259" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>1583</v>
+        <v>1581</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E259" s="4" t="s">
-        <v>2317</v>
+        <v>2315</v>
       </c>
       <c r="F259" s="4" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="G259" s="4" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="H259" s="4" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="J259" s="4" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="K259" s="4" t="s">
-        <v>2329</v>
+        <v>2327</v>
       </c>
       <c r="L259" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="M259" s="4" t="s">
-        <v>979</v>
+        <v>874</v>
       </c>
       <c r="N259" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O259" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="P259" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="260" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C260" s="4" t="s">
-        <v>1584</v>
+        <v>1582</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E260" s="4" t="s">
-        <v>2318</v>
+        <v>2316</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G260" s="4" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="H260" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="J260" s="4" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="K260" s="4" t="s">
-        <v>2330</v>
+        <v>2328</v>
       </c>
       <c r="L260" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="M260" s="4" t="s">
-        <v>875</v>
+        <v>978</v>
       </c>
       <c r="N260" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O260" s="4" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="P260" s="4" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
     </row>
     <row r="261" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B261" s="4" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>1585</v>
+        <v>1583</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E261" s="4" t="s">
-        <v>2319</v>
+        <v>2317</v>
       </c>
       <c r="F261" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G261" s="4" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H261" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="J261" s="4" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="K261" s="4" t="s">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="L261" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="M261" s="4" t="s">
-        <v>876</v>
+        <v>979</v>
       </c>
       <c r="N261" s="4" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="O261" s="4" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="P261" s="4" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
     </row>
     <row r="262" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>1586</v>
+        <v>1584</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E262" s="4" t="s">
-        <v>2320</v>
+        <v>2318</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G262" s="4" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="H262" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I262" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="J262" s="4" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="K262" s="4" t="s">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="L262" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="M262" s="4" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N262" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O262" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="P262" s="4" t="s">
-        <v>961</v>
+        <v>964</v>
       </c>
     </row>
     <row r="263" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>1587</v>
+        <v>1585</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E263" s="4" t="s">
-        <v>2321</v>
+        <v>2319</v>
       </c>
       <c r="F263" s="4" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G263" s="4" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="H263" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I263" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="J263" s="4" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="K263" s="4" t="s">
-        <v>2333</v>
+        <v>2331</v>
       </c>
       <c r="L263" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M263" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="N263" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O263" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="P263" s="4" t="s">
-        <v>962</v>
+        <v>965</v>
       </c>
     </row>
     <row r="264" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B264" s="4" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>1588</v>
+        <v>1586</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E264" s="4" t="s">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="G264" s="4" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="H264" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I264" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="J264" s="4" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="K264" s="4" t="s">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="L264" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="M264" s="4" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="N264" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="O264" s="4" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="P264" s="4" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
     </row>
     <row r="265" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E265" s="4" t="s">
-        <v>2323</v>
+        <v>2321</v>
       </c>
       <c r="F265" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G265" s="4" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="H265" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="J265" s="4" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="K265" s="4" t="s">
-        <v>2335</v>
+        <v>2333</v>
       </c>
       <c r="L265" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="M265" s="4" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="N265" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="O265" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="P265" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="266" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>710</v>
+        <v>480</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>746</v>
+        <v>463</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>746</v>
+        <v>1588</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>746</v>
+        <v>2014</v>
       </c>
       <c r="E266" s="4" t="s">
-        <v>746</v>
+        <v>2322</v>
       </c>
       <c r="F266" s="4" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="G266" s="4" t="s">
-        <v>746</v>
+        <v>2026</v>
       </c>
       <c r="H266" s="4" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>746</v>
+        <v>668</v>
       </c>
       <c r="J266" s="4" t="s">
-        <v>746</v>
+        <v>2038</v>
       </c>
       <c r="K266" s="4" t="s">
-        <v>746</v>
+        <v>2334</v>
       </c>
       <c r="L266" s="4" t="s">
-        <v>746</v>
+        <v>683</v>
       </c>
       <c r="M266" s="4" t="s">
-        <v>746</v>
+        <v>879</v>
       </c>
       <c r="N266" s="4" t="s">
-        <v>746</v>
+        <v>656</v>
       </c>
       <c r="O266" s="4" t="s">
-        <v>746</v>
+        <v>697</v>
       </c>
       <c r="P266" s="4" t="s">
-        <v>746</v>
+        <v>966</v>
       </c>
     </row>
     <row r="267" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>711</v>
+        <v>481</v>
       </c>
       <c r="B267" s="4" t="s">
-        <v>747</v>
+        <v>464</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>747</v>
+        <v>1589</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>747</v>
+        <v>2015</v>
       </c>
       <c r="E267" s="4" t="s">
-        <v>747</v>
+        <v>2323</v>
       </c>
       <c r="F267" s="4" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="G267" s="4" t="s">
-        <v>747</v>
+        <v>2027</v>
       </c>
       <c r="H267" s="4" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>747</v>
+        <v>669</v>
       </c>
       <c r="J267" s="4" t="s">
-        <v>747</v>
+        <v>2039</v>
       </c>
       <c r="K267" s="4" t="s">
-        <v>747</v>
+        <v>2335</v>
       </c>
       <c r="L267" s="4" t="s">
-        <v>747</v>
+        <v>684</v>
       </c>
       <c r="M267" s="4" t="s">
-        <v>747</v>
+        <v>880</v>
       </c>
       <c r="N267" s="4" t="s">
-        <v>747</v>
+        <v>657</v>
       </c>
       <c r="O267" s="4" t="s">
-        <v>747</v>
+        <v>698</v>
       </c>
       <c r="P267" s="4" t="s">
-        <v>747</v>
+        <v>963</v>
       </c>
     </row>
     <row r="268" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="G268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="J268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="K268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="L268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="M268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="N268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="O268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="P268" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="269" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="E269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="G269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="J269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="K269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="L269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="M269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="O269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="P269" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="270" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="E270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="H270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="J270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="K270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="L270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="N270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="O270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="P270" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="271" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="E271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="K271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="O271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="P271" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="272" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="E272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="H272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="K272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="L272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="O272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="P272" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="273" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="E273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="H273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="K273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="L273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="O273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="P273" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="274" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="G274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="H274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="J274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="K274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="L274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="N274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="O274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P274" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="275" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="E275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="G275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="H275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="J275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="K275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="L275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="N275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="O275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="P275" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="276" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="E276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="H276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="J276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="K276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="L276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="M276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="N276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="O276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="P276" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="277" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="E277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="H277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="J277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="K277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="L277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="N277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="O277" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="P277" s="4" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="278" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>755</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="D278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="E278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="F278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="G278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="H278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="I278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="J278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="K278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="L278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="M278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="N278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="O278" s="4" t="s">
+        <v>756</v>
+      </c>
+      <c r="P278" s="4" t="s">
+        <v>756</v>
+      </c>
+    </row>
     <row r="279" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>1002</v>
+        <v>721</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>1006</v>
+        <v>757</v>
       </c>
       <c r="C279" s="4" t="s">
-        <v>1571</v>
+        <v>757</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>1837</v>
+        <v>757</v>
       </c>
       <c r="E279" s="4" t="s">
-        <v>2242</v>
+        <v>757</v>
       </c>
       <c r="F279" s="4" t="s">
-        <v>1127</v>
+        <v>757</v>
       </c>
       <c r="G279" s="4" t="s">
-        <v>1841</v>
+        <v>757</v>
       </c>
       <c r="H279" s="4" t="s">
-        <v>1126</v>
+        <v>757</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>1006</v>
+        <v>757</v>
       </c>
       <c r="J279" s="4" t="s">
-        <v>1845</v>
+        <v>757</v>
       </c>
       <c r="K279" s="4" t="s">
-        <v>2246</v>
+        <v>757</v>
       </c>
       <c r="L279" s="4" t="s">
-        <v>1144</v>
+        <v>757</v>
       </c>
       <c r="M279" s="4" t="s">
-        <v>1143</v>
+        <v>757</v>
       </c>
       <c r="N279" s="4" t="s">
-        <v>1126</v>
+        <v>757</v>
       </c>
       <c r="O279" s="4" t="s">
-        <v>1145</v>
+        <v>757</v>
       </c>
       <c r="P279" s="4" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="280" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C280" s="4" t="s">
-        <v>1572</v>
-      </c>
-      <c r="D280" s="4" t="s">
-        <v>1838</v>
-      </c>
-      <c r="E280" s="4" t="s">
-        <v>2243</v>
-      </c>
-      <c r="F280" s="4" t="s">
-        <v>1129</v>
-      </c>
-      <c r="G280" s="4" t="s">
-        <v>1842</v>
-      </c>
-      <c r="H280" s="4" t="s">
-        <v>1130</v>
-      </c>
-      <c r="I280" s="4" t="s">
-        <v>1128</v>
-      </c>
-      <c r="J280" s="4" t="s">
-        <v>1846</v>
-      </c>
-      <c r="K280" s="4" t="s">
-        <v>2247</v>
-      </c>
-      <c r="L280" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="M280" s="4" t="s">
-        <v>1141</v>
-      </c>
-      <c r="N280" s="4" t="s">
-        <v>1142</v>
-      </c>
-      <c r="O280" s="4" t="s">
-        <v>1152</v>
-      </c>
-      <c r="P280" s="4" t="s">
-        <v>1151</v>
-      </c>
-    </row>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="281" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="C281" s="4" t="s">
-        <v>1573</v>
+        <v>1571</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="E281" s="4" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="F281" s="4" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="G281" s="4" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="H281" s="4" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>1133</v>
+        <v>1006</v>
       </c>
       <c r="J281" s="4" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="K281" s="4" t="s">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="L281" s="4" t="s">
-        <v>1138</v>
+        <v>1144</v>
       </c>
       <c r="M281" s="4" t="s">
-        <v>1139</v>
+        <v>1143</v>
       </c>
       <c r="N281" s="4" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="O281" s="4" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="P281" s="4" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="282" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B282" s="4" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="C282" s="4" t="s">
-        <v>1574</v>
+        <v>1572</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="E282" s="4" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="F282" s="4" t="s">
-        <v>1136</v>
+        <v>1129</v>
       </c>
       <c r="G282" s="4" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="H282" s="4" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
       <c r="J282" s="4" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="K282" s="4" t="s">
-        <v>2249</v>
+        <v>2247</v>
       </c>
       <c r="L282" s="4" t="s">
-        <v>1135</v>
+        <v>1140</v>
       </c>
       <c r="M282" s="4" t="s">
-        <v>1137</v>
+        <v>1141</v>
       </c>
       <c r="N282" s="4" t="s">
-        <v>1135</v>
+        <v>1142</v>
       </c>
       <c r="O282" s="4" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="P282" s="4" t="s">
-        <v>1147</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D283" s="4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="E283" s="4" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F283" s="4" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G283" s="4" t="s">
+        <v>1843</v>
+      </c>
+      <c r="H283" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="I283" s="4" t="s">
+        <v>1133</v>
+      </c>
+      <c r="J283" s="4" t="s">
+        <v>1847</v>
+      </c>
+      <c r="K283" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="L283" s="4" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M283" s="4" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N283" s="4" t="s">
+        <v>1131</v>
+      </c>
+      <c r="O283" s="4" t="s">
+        <v>1149</v>
+      </c>
+      <c r="P283" s="4" t="s">
+        <v>1150</v>
+      </c>
+    </row>
     <row r="284" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>2447</v>
+        <v>1005</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>2448</v>
+        <v>1009</v>
       </c>
       <c r="C284" s="4" t="s">
-        <v>2455</v>
+        <v>1574</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>2454</v>
+        <v>1840</v>
       </c>
       <c r="E284" s="4" t="s">
-        <v>2453</v>
+        <v>2245</v>
       </c>
       <c r="F284" s="4" t="s">
-        <v>2452</v>
+        <v>1136</v>
       </c>
       <c r="G284" s="4" t="s">
-        <v>2451</v>
+        <v>1844</v>
       </c>
       <c r="H284" s="4" t="s">
-        <v>2450</v>
+        <v>1135</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>2449</v>
+        <v>1134</v>
       </c>
       <c r="J284" s="4" t="s">
-        <v>2456</v>
+        <v>1848</v>
       </c>
       <c r="K284" s="4" t="s">
-        <v>2457</v>
+        <v>2249</v>
       </c>
       <c r="L284" s="4" t="s">
-        <v>2458</v>
+        <v>1135</v>
       </c>
       <c r="M284" s="4" t="s">
-        <v>2459</v>
+        <v>1137</v>
       </c>
       <c r="N284" s="4" t="s">
-        <v>2460</v>
+        <v>1135</v>
       </c>
       <c r="O284" s="4" t="s">
-        <v>2461</v>
+        <v>1148</v>
       </c>
       <c r="P284" s="4" t="s">
-        <v>2462</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="285" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="286" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>40</v>
+        <v>2447</v>
       </c>
       <c r="B286" s="4" t="s">
-        <v>79</v>
+        <v>2448</v>
       </c>
       <c r="C286" s="4" t="s">
-        <v>1499</v>
+        <v>2455</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>1713</v>
+        <v>2454</v>
       </c>
       <c r="E286" s="4" t="s">
-        <v>2250</v>
+        <v>2453</v>
       </c>
       <c r="F286" s="4" t="s">
-        <v>300</v>
+        <v>2452</v>
       </c>
       <c r="G286" s="4" t="s">
-        <v>1722</v>
+        <v>2451</v>
       </c>
       <c r="H286" s="4" t="s">
-        <v>116</v>
+        <v>2450</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>128</v>
+        <v>2449</v>
       </c>
       <c r="J286" s="4" t="s">
-        <v>1829</v>
+        <v>2456</v>
       </c>
       <c r="K286" s="4" t="s">
-        <v>2252</v>
+        <v>2457</v>
       </c>
       <c r="L286" s="4" t="s">
-        <v>179</v>
+        <v>2458</v>
       </c>
       <c r="M286" s="4" t="s">
-        <v>825</v>
+        <v>2459</v>
       </c>
       <c r="N286" s="4" t="s">
-        <v>219</v>
+        <v>2460</v>
       </c>
       <c r="O286" s="4" t="s">
-        <v>257</v>
+        <v>2461</v>
       </c>
       <c r="P286" s="4" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="287" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B287" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C287" s="4" t="s">
-        <v>1576</v>
-      </c>
-      <c r="D287" s="4" t="s">
-        <v>1827</v>
-      </c>
-      <c r="E287" s="4" t="s">
-        <v>2251</v>
-      </c>
-      <c r="F287" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G287" s="4" t="s">
-        <v>1828</v>
-      </c>
-      <c r="H287" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="I287" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="J287" s="4" t="s">
-        <v>1830</v>
-      </c>
-      <c r="K287" s="4" t="s">
-        <v>2253</v>
-      </c>
-      <c r="L287" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="M287" s="4" t="s">
-        <v>881</v>
-      </c>
-      <c r="N287" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="O287" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="P287" s="4" t="s">
-        <v>944</v>
-      </c>
-    </row>
+        <v>2462</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="288" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B288" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C288" s="4" t="s">
-        <v>1577</v>
+        <v>1499</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>1832</v>
+        <v>1713</v>
       </c>
       <c r="E288" s="4" t="s">
-        <v>2255</v>
+        <v>2250</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
       <c r="G288" s="4" t="s">
-        <v>1833</v>
+        <v>1722</v>
       </c>
       <c r="H288" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="I288" s="4" t="s">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="J288" s="4" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="K288" s="4" t="s">
-        <v>2254</v>
+        <v>2252</v>
       </c>
       <c r="L288" s="4" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="M288" s="4" t="s">
-        <v>882</v>
+        <v>825</v>
       </c>
       <c r="N288" s="4" t="s">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="O288" s="4" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="P288" s="4" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="289" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>907</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C289" s="4" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D289" s="4" t="s">
+        <v>1827</v>
+      </c>
+      <c r="E289" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F289" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G289" s="4" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H289" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I289" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J289" s="4" t="s">
+        <v>1830</v>
+      </c>
+      <c r="K289" s="4" t="s">
+        <v>2253</v>
+      </c>
+      <c r="L289" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="M289" s="4" t="s">
+        <v>881</v>
+      </c>
+      <c r="N289" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="O289" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="P289" s="4" t="s">
+        <v>944</v>
+      </c>
+    </row>
     <row r="290" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>2415</v>
+        <v>39</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>2417</v>
+        <v>82</v>
       </c>
       <c r="C290" s="4" t="s">
-        <v>2419</v>
+        <v>1577</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>2441</v>
+        <v>1832</v>
       </c>
       <c r="E290" s="4" t="s">
-        <v>2442</v>
+        <v>2255</v>
       </c>
       <c r="F290" s="4" t="s">
-        <v>2443</v>
+        <v>333</v>
       </c>
       <c r="G290" s="4" t="s">
-        <v>2444</v>
+        <v>1833</v>
       </c>
       <c r="H290" s="4" t="s">
-        <v>2445</v>
+        <v>119</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>2446</v>
+        <v>162</v>
       </c>
       <c r="J290" s="4" t="s">
-        <v>2440</v>
+        <v>1831</v>
       </c>
       <c r="K290" s="4" t="s">
-        <v>2439</v>
+        <v>2254</v>
       </c>
       <c r="L290" s="4" t="s">
-        <v>2438</v>
+        <v>210</v>
       </c>
       <c r="M290" s="4" t="s">
-        <v>2437</v>
+        <v>882</v>
       </c>
       <c r="N290" s="4" t="s">
-        <v>2436</v>
+        <v>247</v>
       </c>
       <c r="O290" s="4" t="s">
-        <v>2435</v>
+        <v>291</v>
       </c>
       <c r="P290" s="4" t="s">
-        <v>2434</v>
-      </c>
-    </row>
-    <row r="291" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="4" t="s">
-        <v>2414</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C291" s="4" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D291" s="4" t="s">
-        <v>1834</v>
-      </c>
-      <c r="E291" s="4" t="s">
-        <v>2256</v>
-      </c>
-      <c r="F291" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="G291" s="4" t="s">
-        <v>1835</v>
-      </c>
-      <c r="H291" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="I291" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J291" s="4" t="s">
-        <v>1836</v>
-      </c>
-      <c r="K291" s="4" t="s">
-        <v>2257</v>
-      </c>
-      <c r="L291" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="M291" s="4" t="s">
-        <v>883</v>
-      </c>
-      <c r="N291" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="O291" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="P291" s="4" t="s">
-        <v>946</v>
-      </c>
-    </row>
+        <v>945</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="292" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
+        <v>2415</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>2417</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>2419</v>
+      </c>
+      <c r="D292" s="4" t="s">
+        <v>2441</v>
+      </c>
+      <c r="E292" s="4" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F292" s="4" t="s">
+        <v>2443</v>
+      </c>
+      <c r="G292" s="4" t="s">
+        <v>2444</v>
+      </c>
+      <c r="H292" s="4" t="s">
+        <v>2445</v>
+      </c>
+      <c r="I292" s="4" t="s">
+        <v>2446</v>
+      </c>
+      <c r="J292" s="4" t="s">
+        <v>2440</v>
+      </c>
+      <c r="K292" s="4" t="s">
+        <v>2439</v>
+      </c>
+      <c r="L292" s="4" t="s">
+        <v>2438</v>
+      </c>
+      <c r="M292" s="4" t="s">
+        <v>2437</v>
+      </c>
+      <c r="N292" s="4" t="s">
+        <v>2436</v>
+      </c>
+      <c r="O292" s="4" t="s">
+        <v>2435</v>
+      </c>
+      <c r="P292" s="4" t="s">
+        <v>2434</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B293" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D293" s="4" t="s">
+        <v>1834</v>
+      </c>
+      <c r="E293" s="4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F293" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G293" s="4" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H293" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="I293" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J293" s="4" t="s">
+        <v>1836</v>
+      </c>
+      <c r="K293" s="4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="L293" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="M293" s="4" t="s">
+        <v>883</v>
+      </c>
+      <c r="N293" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="O293" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="P293" s="4" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="4" t="s">
         <v>2416</v>
       </c>
-      <c r="B292" s="4" t="s">
+      <c r="B294" s="4" t="s">
         <v>2418</v>
       </c>
-      <c r="C292" s="4" t="s">
+      <c r="C294" s="4" t="s">
         <v>2420</v>
       </c>
-      <c r="D292" s="4" t="s">
+      <c r="D294" s="4" t="s">
         <v>2421</v>
       </c>
-      <c r="E292" s="4" t="s">
+      <c r="E294" s="4" t="s">
         <v>2422</v>
       </c>
-      <c r="F292" s="4" t="s">
+      <c r="F294" s="4" t="s">
         <v>2423</v>
       </c>
-      <c r="G292" s="4" t="s">
+      <c r="G294" s="4" t="s">
         <v>2424</v>
       </c>
-      <c r="H292" s="5" t="s">
+      <c r="H294" s="5" t="s">
         <v>2425</v>
       </c>
-      <c r="I292" s="4" t="s">
+      <c r="I294" s="4" t="s">
         <v>2426</v>
       </c>
-      <c r="J292" s="4" t="s">
+      <c r="J294" s="4" t="s">
         <v>2427</v>
       </c>
-      <c r="K292" s="4" t="s">
+      <c r="K294" s="4" t="s">
         <v>2428</v>
       </c>
-      <c r="L292" s="4" t="s">
+      <c r="L294" s="4" t="s">
         <v>2429</v>
       </c>
-      <c r="M292" s="4" t="s">
+      <c r="M294" s="4" t="s">
         <v>2430</v>
       </c>
-      <c r="N292" s="4" t="s">
+      <c r="N294" s="4" t="s">
         <v>2431</v>
       </c>
-      <c r="O292" s="4" t="s">
+      <c r="O294" s="4" t="s">
         <v>2432</v>
       </c>
-      <c r="P292" s="4" t="s">
+      <c r="P294" s="4" t="s">
         <v>2433</v>
       </c>
     </row>

--- a/II Core/Localization Strings.xlsx
+++ b/II Core/Localization Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A61F96-78B1-4830-9712-F08754E69885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{588F1AC0-3FDF-4E46-9010-FAC476DA22BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8380" uniqueCount="3415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="3527">
   <si>
     <t>Temperature</t>
   </si>
@@ -10270,6 +10270,342 @@
   </si>
   <si>
     <t>Chapisha picha ya skrini</t>
+  </si>
+  <si>
+    <t>UPGRADE:UpdateAvailable</t>
+  </si>
+  <si>
+    <t>A new version of Infirmary Integrated is available. Would you like to upgrade now?</t>
+  </si>
+  <si>
+    <t>UPGRADE:DownloadInstall</t>
+  </si>
+  <si>
+    <t>UPGRADE:OpenDownloadPage</t>
+  </si>
+  <si>
+    <t>UPGRADE:Later</t>
+  </si>
+  <si>
+    <t>UPGRADE:Mute</t>
+  </si>
+  <si>
+    <t>Download and Install Now</t>
+  </si>
+  <si>
+    <t>Open Download Website</t>
+  </si>
+  <si>
+    <t>Remind Me Later</t>
+  </si>
+  <si>
+    <t>Don't Remind Me</t>
+  </si>
+  <si>
+    <t>UPGRADE:Upgrade</t>
+  </si>
+  <si>
+    <t>Upgrade Infirmary Integrated</t>
+  </si>
+  <si>
+    <t>UPGRADE:Downloading</t>
+  </si>
+  <si>
+    <t>Download in process. The installer will run when it is finished downloading.</t>
+  </si>
+  <si>
+    <t>שדרג</t>
+  </si>
+  <si>
+    <t>अपग्रेड</t>
+  </si>
+  <si>
+    <t>አሻሽል</t>
+  </si>
+  <si>
+    <t>تطوير</t>
+  </si>
+  <si>
+    <t>升级</t>
+  </si>
+  <si>
+    <t>Aktualisierung</t>
+  </si>
+  <si>
+    <t>ارتقا</t>
+  </si>
+  <si>
+    <t>Mejorar</t>
+  </si>
+  <si>
+    <t>Améliorer</t>
+  </si>
+  <si>
+    <t>Aggiornamento</t>
+  </si>
+  <si>
+    <t>업그레이드</t>
+  </si>
+  <si>
+    <t>Melhorar</t>
+  </si>
+  <si>
+    <t>Обновить</t>
+  </si>
+  <si>
+    <t>Boresha</t>
+  </si>
+  <si>
+    <t>Toleo jipya la programu hiyo linapatikana. Je! Ungependa kusasisha sasa?</t>
+  </si>
+  <si>
+    <t>Доступна новая версия программы. Хотите обновить сейчас?</t>
+  </si>
+  <si>
+    <t>Una nueva versión del programa está disponible. ¿Desea actualizar ahora?</t>
+  </si>
+  <si>
+    <t>Une nouvelle version du programme est disponible. Voulez-vous mettre à jour maintenant?</t>
+  </si>
+  <si>
+    <t>È disponibile una nuova versione del programma. Vuoi aggiornare ora?</t>
+  </si>
+  <si>
+    <t>Uma nova versão do programa está disponível. Deseja atualizar agora?</t>
+  </si>
+  <si>
+    <t>새로운 버전의 프로그램을 사용할 수 있습니다. 지금 업그레이드 하시겠습니까?</t>
+  </si>
+  <si>
+    <t>कार्यक्रम का एक नया संस्करण उपलब्ध है। क्या आप अभी अपग्रेड करना चाहते हैं?</t>
+  </si>
+  <si>
+    <t>Eine neue Version des Programms ist verfügbar. Möchten Sie jetzt ein Upgrade durchführen?</t>
+  </si>
+  <si>
+    <t>نسخه جدیدی از برنامه موجود است. آیا اکنون می خواهید بروزرسانی کنید؟</t>
+  </si>
+  <si>
+    <t>גרסה חדשה של האפליקציה זמינה. האם ברצונך לעדכן עכשיו?</t>
+  </si>
+  <si>
+    <t>የመተግበሪያው አዲስ ስሪት ይገኛል። አሁን ማዘመን ይፈልጋሉ?</t>
+  </si>
+  <si>
+    <t>يتوفر إصدار جديد من البرنامج. هل ترغب في تحديث الآن؟</t>
+  </si>
+  <si>
+    <t>该程序有新版本。 您要现在更新吗？</t>
+  </si>
+  <si>
+    <t>立即下载并安装</t>
+  </si>
+  <si>
+    <t>تحميل وتثبيت الآن</t>
+  </si>
+  <si>
+    <t>አሁን ያውርዱ እና ይጫኑ</t>
+  </si>
+  <si>
+    <t>Jetzt herunterladen und installieren</t>
+  </si>
+  <si>
+    <t>اکنون بارگیری و نصب کنید</t>
+  </si>
+  <si>
+    <t>Descargue e instale ahora</t>
+  </si>
+  <si>
+    <t>Téléchargez et installez maintenant</t>
+  </si>
+  <si>
+    <t>הורד והתקן כעת</t>
+  </si>
+  <si>
+    <t>अभी डाउनलोड करें और इंस्टॉल करें</t>
+  </si>
+  <si>
+    <t>Scarica e installa ora</t>
+  </si>
+  <si>
+    <t>지금 다운로드하여 설치</t>
+  </si>
+  <si>
+    <t>Baixe e instale agora</t>
+  </si>
+  <si>
+    <t>Скачать и установить сейчас</t>
+  </si>
+  <si>
+    <t>Pakua na usanikishe sasa</t>
+  </si>
+  <si>
+    <t>Fungua tovuti</t>
+  </si>
+  <si>
+    <t>Открытый сайт</t>
+  </si>
+  <si>
+    <t>ድር ጣቢያ ይክፈቱ</t>
+  </si>
+  <si>
+    <t>افتح الموقع</t>
+  </si>
+  <si>
+    <t>开启网站</t>
+  </si>
+  <si>
+    <t>Webseite öffnen</t>
+  </si>
+  <si>
+    <t>باز کردن وب سایت</t>
+  </si>
+  <si>
+    <t>Abrir sitio web</t>
+  </si>
+  <si>
+    <t>Site ouvert</t>
+  </si>
+  <si>
+    <t>אתר פתוח</t>
+  </si>
+  <si>
+    <t>वेबसाइट खोलें</t>
+  </si>
+  <si>
+    <t>Apri il sito web</t>
+  </si>
+  <si>
+    <t>웹 사이트 열기</t>
+  </si>
+  <si>
+    <t>Abrir site</t>
+  </si>
+  <si>
+    <t>Lembre-me mais tarde</t>
+  </si>
+  <si>
+    <t>Ricordamelo più tardi</t>
+  </si>
+  <si>
+    <t>나중에 상기시켜 줘</t>
+  </si>
+  <si>
+    <t>Напомни мне позже</t>
+  </si>
+  <si>
+    <t>Nikumbushe baadaye</t>
+  </si>
+  <si>
+    <t>መጨረሻ ላይ አስታውሰኝ</t>
+  </si>
+  <si>
+    <t>ذكرني لاحقا</t>
+  </si>
+  <si>
+    <t>稍后提醒我</t>
+  </si>
+  <si>
+    <t>Erinnere mich später</t>
+  </si>
+  <si>
+    <t>بعدا به من یادآوری کن</t>
+  </si>
+  <si>
+    <t>Recuérdame más tarde</t>
+  </si>
+  <si>
+    <t>Rappelle-moi plus tard</t>
+  </si>
+  <si>
+    <t>תזכרו לי אחר כך</t>
+  </si>
+  <si>
+    <t>मुझे बाद में याद दिलाना</t>
+  </si>
+  <si>
+    <t>मुझे फिर से मत बताना</t>
+  </si>
+  <si>
+    <t>אל תגיד לי שוב</t>
+  </si>
+  <si>
+    <t>Non dirmelo più</t>
+  </si>
+  <si>
+    <t>다시 말 하지마</t>
+  </si>
+  <si>
+    <t>Não me diga de novo</t>
+  </si>
+  <si>
+    <t>Не говори мне снова</t>
+  </si>
+  <si>
+    <t>Usiniambie tena</t>
+  </si>
+  <si>
+    <t>لا تقل لي مرة أخرى</t>
+  </si>
+  <si>
+    <t>ድጋሜ አትነግረኝ</t>
+  </si>
+  <si>
+    <t>不要再告诉我</t>
+  </si>
+  <si>
+    <t>Sag es mir nicht noch einmal</t>
+  </si>
+  <si>
+    <t>دیگر به من نگو</t>
+  </si>
+  <si>
+    <t>No me digas mas</t>
+  </si>
+  <si>
+    <t>Ne me dis plus</t>
+  </si>
+  <si>
+    <t>Le téléchargement est en cours. Le programme d'installation s'exécutera une fois le téléchargement terminé.</t>
+  </si>
+  <si>
+    <t>La descarga está en progreso. El instalador se ejecutará una vez que se complete la descarga.</t>
+  </si>
+  <si>
+    <t>ההורדה מתבצעת. המתקין יפעל לאחר סיום ההורדה.</t>
+  </si>
+  <si>
+    <t>डाउनलोड प्रगति पर है। डाउनलोड पूरा होने के बाद इंस्टॉलर चलेगा।</t>
+  </si>
+  <si>
+    <t>A transferência está em processo. O instalador será executado quando terminar a transferência.</t>
+  </si>
+  <si>
+    <t>Il trasferimento è in corso. Il programma di installazione verrà eseguito al termine del trasferimento.</t>
+  </si>
+  <si>
+    <t>다운로드가 진행 중입니다. 다운로드가 완료되면 설치 관리자가 실행됩니다.</t>
+  </si>
+  <si>
+    <t>Загрузка продолжается. Когда загрузка будет завершена, установщик запустится.</t>
+  </si>
+  <si>
+    <t>Upakuaji unaendelea. Kisakinishi kitaendesha wakati imekamilika kupakua.</t>
+  </si>
+  <si>
+    <t>ማውረዱ በሂደት ላይ ነው። ጫኝው መጫኑን ሲያጠናቅቅ ይሠራል።</t>
+  </si>
+  <si>
+    <t>التنزيل قيد التنفيذ. سيتم تشغيل المثبت عند الانتهاء من التنزيل.</t>
+  </si>
+  <si>
+    <t>正在下载。 下载完成后，安装程序将运行。</t>
+  </si>
+  <si>
+    <t>Der herunterladen wird ausgeführt. Das Installationsprogramm wird ausgeführt, wenn der herunterladen abgeschlossen ist.</t>
+  </si>
+  <si>
+    <t>بارگیری در حال انجام است. پس از اتمام بارگیری ، نصب خواهد شد.</t>
   </si>
 </sst>
 </file>
@@ -10647,11 +10983,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P294"/>
+  <dimension ref="A1:P302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A212" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A220" sqref="A220:XFD221"/>
+      <pane ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D294" sqref="D294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23800,6 +24136,356 @@
         <v>2433</v>
       </c>
     </row>
+    <row r="296" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>3425</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>3426</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D296" s="4" t="s">
+        <v>3432</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>3433</v>
+      </c>
+      <c r="F296" s="4" t="s">
+        <v>3434</v>
+      </c>
+      <c r="G296" s="4" t="s">
+        <v>3435</v>
+      </c>
+      <c r="H296" s="4" t="s">
+        <v>3436</v>
+      </c>
+      <c r="I296" s="4" t="s">
+        <v>3437</v>
+      </c>
+      <c r="J296" s="4" t="s">
+        <v>3429</v>
+      </c>
+      <c r="K296" s="4" t="s">
+        <v>3430</v>
+      </c>
+      <c r="L296" s="4" t="s">
+        <v>3438</v>
+      </c>
+      <c r="M296" s="4" t="s">
+        <v>3439</v>
+      </c>
+      <c r="N296" s="4" t="s">
+        <v>3440</v>
+      </c>
+      <c r="O296" s="4" t="s">
+        <v>3441</v>
+      </c>
+      <c r="P296" s="4" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="4" t="s">
+        <v>3415</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>3416</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>3454</v>
+      </c>
+      <c r="D297" s="4" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>3456</v>
+      </c>
+      <c r="F297" s="4" t="s">
+        <v>3451</v>
+      </c>
+      <c r="G297" s="4" t="s">
+        <v>3452</v>
+      </c>
+      <c r="H297" s="4" t="s">
+        <v>3445</v>
+      </c>
+      <c r="I297" s="4" t="s">
+        <v>3446</v>
+      </c>
+      <c r="J297" s="4" t="s">
+        <v>3453</v>
+      </c>
+      <c r="K297" s="4" t="s">
+        <v>3450</v>
+      </c>
+      <c r="L297" s="4" t="s">
+        <v>3447</v>
+      </c>
+      <c r="M297" s="4" t="s">
+        <v>3449</v>
+      </c>
+      <c r="N297" s="4" t="s">
+        <v>3448</v>
+      </c>
+      <c r="O297" s="4" t="s">
+        <v>3444</v>
+      </c>
+      <c r="P297" s="4" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>3417</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>3421</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>3459</v>
+      </c>
+      <c r="D298" s="4" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>3457</v>
+      </c>
+      <c r="F298" s="4" t="s">
+        <v>3460</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>3461</v>
+      </c>
+      <c r="H298" s="4" t="s">
+        <v>3462</v>
+      </c>
+      <c r="I298" s="4" t="s">
+        <v>3463</v>
+      </c>
+      <c r="J298" s="4" t="s">
+        <v>3464</v>
+      </c>
+      <c r="K298" s="4" t="s">
+        <v>3465</v>
+      </c>
+      <c r="L298" s="4" t="s">
+        <v>3466</v>
+      </c>
+      <c r="M298" s="4" t="s">
+        <v>3467</v>
+      </c>
+      <c r="N298" s="4" t="s">
+        <v>3468</v>
+      </c>
+      <c r="O298" s="4" t="s">
+        <v>3469</v>
+      </c>
+      <c r="P298" s="4" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="4" t="s">
+        <v>3418</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>3422</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>3473</v>
+      </c>
+      <c r="D299" s="4" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>3475</v>
+      </c>
+      <c r="F299" s="4" t="s">
+        <v>3476</v>
+      </c>
+      <c r="G299" s="4" t="s">
+        <v>3477</v>
+      </c>
+      <c r="H299" s="4" t="s">
+        <v>3478</v>
+      </c>
+      <c r="I299" s="4" t="s">
+        <v>3479</v>
+      </c>
+      <c r="J299" s="4" t="s">
+        <v>3480</v>
+      </c>
+      <c r="K299" s="4" t="s">
+        <v>3481</v>
+      </c>
+      <c r="L299" s="4" t="s">
+        <v>3482</v>
+      </c>
+      <c r="M299" s="4" t="s">
+        <v>3483</v>
+      </c>
+      <c r="N299" s="4" t="s">
+        <v>3484</v>
+      </c>
+      <c r="O299" s="4" t="s">
+        <v>3472</v>
+      </c>
+      <c r="P299" s="4" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="4" t="s">
+        <v>3419</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>3423</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D300" s="4" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>3492</v>
+      </c>
+      <c r="F300" s="4" t="s">
+        <v>3493</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>3494</v>
+      </c>
+      <c r="H300" s="4" t="s">
+        <v>3495</v>
+      </c>
+      <c r="I300" s="4" t="s">
+        <v>3496</v>
+      </c>
+      <c r="J300" s="4" t="s">
+        <v>3497</v>
+      </c>
+      <c r="K300" s="4" t="s">
+        <v>3498</v>
+      </c>
+      <c r="L300" s="4" t="s">
+        <v>3486</v>
+      </c>
+      <c r="M300" s="4" t="s">
+        <v>3487</v>
+      </c>
+      <c r="N300" s="4" t="s">
+        <v>3485</v>
+      </c>
+      <c r="O300" s="4" t="s">
+        <v>3488</v>
+      </c>
+      <c r="P300" s="4" t="s">
+        <v>3489</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="4" t="s">
+        <v>3420</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>3424</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>3507</v>
+      </c>
+      <c r="D301" s="4" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>3508</v>
+      </c>
+      <c r="F301" s="4" t="s">
+        <v>3509</v>
+      </c>
+      <c r="G301" s="4" t="s">
+        <v>3510</v>
+      </c>
+      <c r="H301" s="4" t="s">
+        <v>3511</v>
+      </c>
+      <c r="I301" s="4" t="s">
+        <v>3512</v>
+      </c>
+      <c r="J301" s="4" t="s">
+        <v>3500</v>
+      </c>
+      <c r="K301" s="4" t="s">
+        <v>3499</v>
+      </c>
+      <c r="L301" s="4" t="s">
+        <v>3501</v>
+      </c>
+      <c r="M301" s="4" t="s">
+        <v>3502</v>
+      </c>
+      <c r="N301" s="4" t="s">
+        <v>3503</v>
+      </c>
+      <c r="O301" s="4" t="s">
+        <v>3504</v>
+      </c>
+      <c r="P301" s="4" t="s">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>3427</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>3428</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>3522</v>
+      </c>
+      <c r="D302" s="4" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>3524</v>
+      </c>
+      <c r="F302" s="4" t="s">
+        <v>3525</v>
+      </c>
+      <c r="G302" s="4" t="s">
+        <v>3526</v>
+      </c>
+      <c r="H302" s="4" t="s">
+        <v>3514</v>
+      </c>
+      <c r="I302" s="4" t="s">
+        <v>3513</v>
+      </c>
+      <c r="J302" s="4" t="s">
+        <v>3515</v>
+      </c>
+      <c r="K302" s="4" t="s">
+        <v>3516</v>
+      </c>
+      <c r="L302" s="4" t="s">
+        <v>3518</v>
+      </c>
+      <c r="M302" s="4" t="s">
+        <v>3519</v>
+      </c>
+      <c r="N302" s="5" t="s">
+        <v>3517</v>
+      </c>
+      <c r="O302" s="4" t="s">
+        <v>3520</v>
+      </c>
+      <c r="P302" s="4" t="s">
+        <v>3521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/II Core/Localization Strings.xlsx
+++ b/II Core/Localization Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ibi\Documents\Infirmary Integrated\II Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563277F-FDE8-4B0D-B436-FCCE3839ADD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D003709F-827A-4D4C-A7DA-D80D5641A4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="203" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7284,51 +7284,6 @@
     <t>STATUS:UpdateAvailable</t>
   </si>
   <si>
-    <t>Infirmary Integrated needs updating. Click here for version {0}</t>
-  </si>
-  <si>
-    <t>Le programme doit être mis à jour. Cliquez ici pour la version {0}</t>
-  </si>
-  <si>
-    <t>El programa necesita ser actualizado. Haga clic aquí para la versión {0}</t>
-  </si>
-  <si>
-    <t>برنامه باید به روز شود. اینجا کلیک کنید برای نسخه {0}</t>
-  </si>
-  <si>
-    <t>Das Programm muss aktualisiert werden. Klicken Sie hier für Version {0}</t>
-  </si>
-  <si>
-    <t>该程序需要更新。 单击此处查看版本{0}</t>
-  </si>
-  <si>
-    <t>يحتاج البرنامج إلى التحديث. انقر هنا للحصول على الإصدار {0}</t>
-  </si>
-  <si>
-    <t>ፕሮግራሙ መዘመን ያስፈልገዋል. ለዚህ እትም {0} ጠቅ ያድርጉ</t>
-  </si>
-  <si>
-    <t>יש לעדכן את התוכנית. לחץ כאן לגרסה {0}</t>
-  </si>
-  <si>
-    <t>कार्यक्रम को अद्यतन करने की आवश्यकता है। संस्करण {0} के लिए यहां क्लिक करें</t>
-  </si>
-  <si>
-    <t>Il programma deve essere aggiornato. Clicca qui per la versione {0}</t>
-  </si>
-  <si>
-    <t>프로그램을 업데이트해야합니다. 버전 {0}을 보려면 여기를 클릭하십시오.</t>
-  </si>
-  <si>
-    <t>O programa precisa ser atualizado. Clique aqui para a versão {0}</t>
-  </si>
-  <si>
-    <t>Программа должна быть обновлена. Нажмите здесь для версии {0}</t>
-  </si>
-  <si>
-    <t>Mpango huo unahitaji kubadilishwa. Bofya hapa kwa toleo {0}</t>
-  </si>
-  <si>
     <t>PE:PacemakerCaptureThreshold</t>
   </si>
   <si>
@@ -11710,6 +11665,51 @@
   </si>
   <si>
     <t>ዝማኔዎችን ይመልከቱ</t>
+  </si>
+  <si>
+    <t>አዘምን</t>
+  </si>
+  <si>
+    <t>تحديث</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Aktualisieren</t>
+  </si>
+  <si>
+    <t>به روز رسانی</t>
+  </si>
+  <si>
+    <t>Actualizar</t>
+  </si>
+  <si>
+    <t>Mettre à jour</t>
+  </si>
+  <si>
+    <t>עדכון</t>
+  </si>
+  <si>
+    <t>अद्यतन</t>
+  </si>
+  <si>
+    <t>Aggiornare</t>
+  </si>
+  <si>
+    <t>업데이트</t>
+  </si>
+  <si>
+    <t>Atualizar</t>
+  </si>
+  <si>
+    <t>Обновлять</t>
+  </si>
+  <si>
+    <t>Sasisha</t>
+  </si>
+  <si>
+    <t>更新</t>
   </si>
 </sst>
 </file>
@@ -12081,8 +12081,8 @@
   <dimension ref="A1:P320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A285" sqref="A285:XFD285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="60.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12104,7 +12104,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3703</v>
+        <v>3688</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>2030</v>
@@ -12116,10 +12116,10 @@
         <v>777</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>3705</v>
+        <v>3690</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>3706</v>
+        <v>3691</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>778</v>
@@ -12137,7 +12137,7 @@
         <v>782</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>3707</v>
+        <v>3692</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>780</v>
@@ -12146,7 +12146,7 @@
         <v>781</v>
       </c>
       <c r="P1" s="6" t="s">
-        <v>3704</v>
+        <v>3689</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -12301,52 +12301,52 @@
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>3313</v>
+        <v>3298</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>3299</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>3314</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>3329</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>3331</v>
+        <v>3316</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>3332</v>
+        <v>3317</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>3333</v>
+        <v>3318</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>3334</v>
+        <v>3319</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>3335</v>
+        <v>3320</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>3342</v>
+        <v>3327</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>3341</v>
+        <v>3326</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>3336</v>
+        <v>3321</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>3340</v>
+        <v>3325</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>3337</v>
+        <v>3322</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>3338</v>
+        <v>3323</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>3339</v>
+        <v>3324</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>3330</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -12388,7 +12388,7 @@
         <v>786</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>3640</v>
+        <v>3625</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>289</v>
@@ -12438,7 +12438,7 @@
         <v>811</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>3639</v>
+        <v>3624</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>341</v>
@@ -12491,7 +12491,7 @@
         <v>1377</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>3642</v>
+        <v>3627</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>951</v>
@@ -12514,7 +12514,7 @@
         <v>1812</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>3629</v>
+        <v>3614</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>1814</v>
@@ -12541,7 +12541,7 @@
         <v>1378</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>3643</v>
+        <v>3628</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>703</v>
@@ -12564,7 +12564,7 @@
         <v>1811</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>3628</v>
+        <v>3613</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>1816</v>
@@ -12591,7 +12591,7 @@
         <v>1379</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>3644</v>
+        <v>3629</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>1162</v>
@@ -12614,7 +12614,7 @@
         <v>1809</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>3627</v>
+        <v>3612</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>1815</v>
@@ -12641,7 +12641,7 @@
         <v>1380</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>3645</v>
+        <v>3630</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>1210</v>
@@ -12652,52 +12652,52 @@
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>3487</v>
+        <v>3472</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>3488</v>
+        <v>3473</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>3632</v>
+        <v>3617</v>
       </c>
       <c r="D14" s="4" t="s">
+        <v>3616</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3611</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3618</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3610</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3619</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>3620</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3621</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>3622</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3623</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>3626</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>3631</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3626</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3633</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3625</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>3634</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>3635</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3636</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>3637</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>3638</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>3641</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>3646</v>
-      </c>
       <c r="O14" s="3" t="s">
-        <v>3624</v>
+        <v>3609</v>
       </c>
       <c r="P14" s="3" t="s">
-        <v>3630</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -13204,52 +13204,52 @@
     </row>
     <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3201</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>3207</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3206</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3210</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>3202</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>3203</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3211</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>3212</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>3204</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3213</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>3205</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3214</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>3215</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>3216</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>3222</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>3221</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3224</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3225</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3217</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3218</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3226</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3227</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3219</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>3228</v>
-      </c>
-      <c r="M27" s="3" t="s">
-        <v>3220</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>3229</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3230</v>
-      </c>
       <c r="P27" s="3" t="s">
-        <v>3223</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -13404,102 +13404,102 @@
     </row>
     <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>2869</v>
+        <v>2854</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>2872</v>
+        <v>2857</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2902</v>
+        <v>2887</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2907</v>
+        <v>2892</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>2889</v>
+        <v>2874</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>2912</v>
+        <v>2897</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>2888</v>
+        <v>2873</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>2885</v>
+        <v>2870</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>2915</v>
+        <v>2900</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>2918</v>
+        <v>2903</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>2881</v>
+        <v>2866</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>2921</v>
+        <v>2906</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>2875</v>
+        <v>2860</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>2880</v>
+        <v>2865</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>2901</v>
+        <v>2886</v>
       </c>
       <c r="P31" s="3" t="s">
-        <v>2908</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
-        <v>2871</v>
+        <v>2856</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>2873</v>
+        <v>2858</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>2903</v>
+        <v>2888</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>2906</v>
+        <v>2891</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>2890</v>
+        <v>2875</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>2913</v>
+        <v>2898</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>2876</v>
+        <v>2861</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>2884</v>
+        <v>2869</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>2914</v>
+        <v>2899</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>2919</v>
+        <v>2904</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>2882</v>
+        <v>2867</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>2920</v>
+        <v>2905</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>2876</v>
+        <v>2861</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>2879</v>
+        <v>2864</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>2900</v>
+        <v>2885</v>
       </c>
       <c r="P32" s="3" t="s">
-        <v>2909</v>
+        <v>2894</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -13546,7 +13546,7 @@
         <v>587</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>2893</v>
+        <v>2878</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>2258</v>
@@ -13554,52 +13554,52 @@
     </row>
     <row r="34" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
-        <v>2870</v>
+        <v>2855</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>2874</v>
+        <v>2859</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>2904</v>
+        <v>2889</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>2905</v>
+        <v>2890</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>2891</v>
+        <v>2876</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>2911</v>
+        <v>2896</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>2887</v>
+        <v>2872</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>2886</v>
+        <v>2871</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>2916</v>
+        <v>2901</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>2917</v>
+        <v>2902</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>2883</v>
+        <v>2868</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>2922</v>
+        <v>2907</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>2877</v>
+        <v>2862</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>2878</v>
+        <v>2863</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>2894</v>
+        <v>2879</v>
       </c>
       <c r="P34" s="3" t="s">
-        <v>2910</v>
+        <v>2895</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -13646,7 +13646,7 @@
         <v>588</v>
       </c>
       <c r="O35" s="3" t="s">
-        <v>2895</v>
+        <v>2880</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>2259</v>
@@ -13696,7 +13696,7 @@
         <v>589</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>2896</v>
+        <v>2881</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>2260</v>
@@ -13746,7 +13746,7 @@
         <v>590</v>
       </c>
       <c r="O37" s="3" t="s">
-        <v>2897</v>
+        <v>2882</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>2261</v>
@@ -13796,7 +13796,7 @@
         <v>591</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>2898</v>
+        <v>2883</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>2262</v>
@@ -13846,7 +13846,7 @@
         <v>592</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>2899</v>
+        <v>2884</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>2263</v>
@@ -13896,7 +13896,7 @@
         <v>593</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>2892</v>
+        <v>2877</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>2264</v>
@@ -14254,52 +14254,52 @@
     </row>
     <row r="48" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>2807</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>2812</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>2822</v>
-      </c>
       <c r="D48" s="3" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>2817</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>2820</v>
+      </c>
+      <c r="H48" s="3" t="s">
         <v>2825</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="I48" s="3" t="s">
+        <v>2828</v>
+      </c>
+      <c r="J48" s="3" t="s">
         <v>2832</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>2854</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>2835</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>2840</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>2843</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>2847</v>
-      </c>
       <c r="K48" s="3" t="s">
-        <v>2851</v>
+        <v>2836</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>2856</v>
+        <v>2841</v>
       </c>
       <c r="M48" s="3" t="s">
-        <v>2859</v>
+        <v>2844</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>2819</v>
+        <v>2804</v>
       </c>
       <c r="O48" s="3" t="s">
-        <v>2816</v>
+        <v>2801</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>2829</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="49" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -14354,202 +14354,202 @@
     </row>
     <row r="50" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>2808</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="D50" s="3" t="s">
+        <v>2812</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>2821</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>2826</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>2829</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>2833</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>2837</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>2845</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>2805</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>2802</v>
+      </c>
+      <c r="P50" s="3" t="s">
         <v>2813</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>2823</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>2827</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>2833</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>2853</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>2836</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>2841</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>2844</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>2848</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>2852</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>2857</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>2860</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>2820</v>
-      </c>
-      <c r="O50" s="3" t="s">
-        <v>2817</v>
-      </c>
-      <c r="P50" s="3" t="s">
-        <v>2828</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>2809</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>2814</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>2824</v>
-      </c>
       <c r="D51" s="3" t="s">
-        <v>2826</v>
+        <v>2811</v>
       </c>
       <c r="E51" s="3" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>2840</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>2822</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2827</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>2830</v>
+      </c>
+      <c r="J51" s="3" t="s">
         <v>2834</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>2855</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>2837</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>2842</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>2845</v>
-      </c>
-      <c r="J51" s="3" t="s">
-        <v>2849</v>
-      </c>
       <c r="K51" s="3" t="s">
-        <v>2850</v>
+        <v>2835</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>2858</v>
+        <v>2843</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>2861</v>
+        <v>2846</v>
       </c>
       <c r="N51" s="3" t="s">
-        <v>2821</v>
+        <v>2806</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>2818</v>
+        <v>2803</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>2830</v>
+        <v>2815</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
-        <v>2810</v>
+        <v>2795</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>2862</v>
+        <v>2847</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>2863</v>
+        <v>2848</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>2838</v>
+        <v>2823</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="L52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="M52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>2864</v>
+        <v>2849</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>2815</v>
+        <v>2800</v>
       </c>
       <c r="P52" s="3" t="s">
-        <v>2831</v>
+        <v>2816</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="3" t="s">
-        <v>2868</v>
+        <v>2853</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>2811</v>
+        <v>2796</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>2822</v>
+        <v>2807</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>2865</v>
+        <v>2850</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>2811</v>
+        <v>2796</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>2846</v>
+        <v>2831</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>2839</v>
+        <v>2824</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>2811</v>
+        <v>2796</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>2846</v>
+        <v>2831</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>2846</v>
+        <v>2831</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>2811</v>
+        <v>2796</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>2846</v>
+        <v>2831</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>2811</v>
+        <v>2796</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>2867</v>
+        <v>2852</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>2811</v>
+        <v>2796</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>2866</v>
+        <v>2851</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -14604,202 +14604,202 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
+        <v>2910</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>2911</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>2917</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>2918</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>2919</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>2920</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>2921</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>2922</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>2923</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>2924</v>
+      </c>
+      <c r="O55" s="2" t="s">
         <v>2925</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>2926</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>2927</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>2928</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>2930</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>2931</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>2932</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>2933</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>2934</v>
-      </c>
-      <c r="J55" s="2" t="s">
-        <v>2935</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>2936</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>2937</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>2938</v>
-      </c>
-      <c r="N55" s="2" t="s">
-        <v>2939</v>
-      </c>
-      <c r="O55" s="2" t="s">
-        <v>2940</v>
-      </c>
       <c r="P55" s="2" t="s">
-        <v>2929</v>
+        <v>2914</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>2926</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>2927</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>2928</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>2929</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>2931</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>2932</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>2933</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>2934</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>2935</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>2936</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>2937</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>2938</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>2939</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>2940</v>
+      </c>
+      <c r="O56" s="2" t="s">
         <v>2941</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>2942</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>2943</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>2944</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>2946</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>2947</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>2948</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>2949</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>2950</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>2951</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>2952</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>2953</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>2954</v>
-      </c>
-      <c r="N56" s="2" t="s">
-        <v>2955</v>
-      </c>
-      <c r="O56" s="2" t="s">
-        <v>2956</v>
-      </c>
       <c r="P56" s="2" t="s">
-        <v>2945</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>2942</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>2943</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>2944</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>2945</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>2948</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>2949</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>2950</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>2951</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>2952</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>2953</v>
+      </c>
+      <c r="L57" s="2" t="s">
+        <v>2954</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>2955</v>
+      </c>
+      <c r="N57" s="2" t="s">
+        <v>2956</v>
+      </c>
+      <c r="O57" s="2" t="s">
         <v>2957</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>2958</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>2959</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>2960</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>2962</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>2963</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>2964</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>2965</v>
-      </c>
-      <c r="I57" s="2" t="s">
-        <v>2966</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>2967</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>2968</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>2969</v>
-      </c>
-      <c r="M57" s="2" t="s">
-        <v>2970</v>
-      </c>
-      <c r="N57" s="2" t="s">
-        <v>2971</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>2972</v>
-      </c>
       <c r="P57" s="2" t="s">
-        <v>2961</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>2973</v>
+        <v>2958</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>2974</v>
+        <v>2959</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>2959</v>
+        <v>2944</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>2975</v>
+        <v>2960</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>2977</v>
+        <v>2962</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>2978</v>
+        <v>2963</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>2979</v>
+        <v>2964</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>2980</v>
+        <v>2965</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>2981</v>
+        <v>2966</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>2982</v>
+        <v>2967</v>
       </c>
       <c r="K58" s="2" t="s">
-        <v>2983</v>
+        <v>2968</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>2984</v>
+        <v>2969</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>2985</v>
+        <v>2970</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>2986</v>
+        <v>2971</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>2987</v>
+        <v>2972</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>2976</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -14810,46 +14810,46 @@
         <v>1008</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>3695</v>
+        <v>3680</v>
       </c>
       <c r="D60" s="3" t="s">
+        <v>3672</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3640</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>3676</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>3639</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>3638</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>3637</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>3636</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>3635</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3634</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>3633</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3632</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>3687</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>3655</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3691</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3654</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3653</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3652</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>3651</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>3650</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>3649</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3648</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>3647</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3702</v>
-      </c>
       <c r="P60" s="3" t="s">
-        <v>3683</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -14860,46 +14860,46 @@
         <v>1009</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>3698</v>
+        <v>3683</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>3688</v>
+        <v>3673</v>
       </c>
       <c r="E61" s="3" t="s">
+        <v>3641</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>3677</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>3645</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>3648</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>3665</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>3662</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>3651</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>3660</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>3655</v>
+      </c>
+      <c r="N61" s="3" t="s">
         <v>3656</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>3692</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>3660</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>3663</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>3680</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>3677</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>3666</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>3675</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>3670</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>3671</v>
-      </c>
       <c r="O61" s="3" t="s">
-        <v>3699</v>
+        <v>3684</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>3684</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -14910,46 +14910,46 @@
         <v>1010</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>3696</v>
+        <v>3681</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>3689</v>
+        <v>3674</v>
       </c>
       <c r="E62" s="3" t="s">
+        <v>3642</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>3678</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>3646</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>3647</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>3666</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>3652</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3661</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>3653</v>
+      </c>
+      <c r="N62" s="3" t="s">
         <v>3657</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3693</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3661</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3662</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3681</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>3678</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>3667</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>3676</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3668</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>3672</v>
-      </c>
       <c r="O62" s="3" t="s">
-        <v>3700</v>
+        <v>3685</v>
       </c>
       <c r="P62" s="3" t="s">
-        <v>3685</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -14960,243 +14960,243 @@
         <v>1011</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>3697</v>
+        <v>3682</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>3690</v>
+        <v>3675</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>3643</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>3679</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>3644</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>3649</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>3667</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>3664</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>3650</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>3659</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>3654</v>
+      </c>
+      <c r="N63" s="3" t="s">
         <v>3658</v>
       </c>
-      <c r="F63" s="3" t="s">
-        <v>3694</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>3659</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>3664</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>3682</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>3679</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>3665</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>3674</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>3669</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>3673</v>
-      </c>
       <c r="O63" s="3" t="s">
-        <v>3701</v>
+        <v>3686</v>
       </c>
       <c r="P63" s="3" t="s">
-        <v>3686</v>
+        <v>3671</v>
       </c>
     </row>
     <row r="65" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>3005</v>
+        <v>2990</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>3011</v>
+        <v>2996</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>3051</v>
+        <v>3036</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>3049</v>
+        <v>3034</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>3012</v>
+        <v>2997</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>3052</v>
+        <v>3037</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>3013</v>
+        <v>2998</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>3014</v>
+        <v>2999</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>3036</v>
+        <v>3021</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>3053</v>
+        <v>3038</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>3015</v>
+        <v>3000</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>3054</v>
+        <v>3039</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>3016</v>
+        <v>3001</v>
       </c>
       <c r="N65" s="3" t="s">
-        <v>3017</v>
+        <v>3002</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>3048</v>
+        <v>3033</v>
       </c>
       <c r="P65" s="3" t="s">
-        <v>3050</v>
+        <v>3035</v>
       </c>
     </row>
     <row r="66" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
+        <v>2991</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>2995</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>3046</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>3008</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>3007</v>
+      </c>
+      <c r="H66" s="3" t="s">
         <v>3006</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>3010</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>3061</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>3062</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>3023</v>
-      </c>
-      <c r="G66" s="3" t="s">
+      <c r="I66" s="3" t="s">
         <v>3022</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3021</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3037</v>
-      </c>
       <c r="J66" s="3" t="s">
-        <v>3064</v>
+        <v>3049</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>3020</v>
+        <v>3005</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>3065</v>
+        <v>3050</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>3019</v>
+        <v>3004</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>3018</v>
+        <v>3003</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>3066</v>
+        <v>3051</v>
       </c>
       <c r="P66" s="3" t="s">
-        <v>3063</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="67" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>3007</v>
+        <v>2992</v>
       </c>
       <c r="B67" s="3" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>3045</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>3044</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>3009</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>3060</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>3059</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>3024</v>
-      </c>
       <c r="F67" s="3" t="s">
-        <v>3057</v>
+        <v>3042</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>3025</v>
+        <v>3010</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>3026</v>
+        <v>3011</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>3038</v>
+        <v>3023</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>3056</v>
+        <v>3041</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>3027</v>
+        <v>3012</v>
       </c>
       <c r="L67" s="3" t="s">
-        <v>3055</v>
+        <v>3040</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>3028</v>
+        <v>3013</v>
       </c>
       <c r="N67" s="3" t="s">
-        <v>3029</v>
+        <v>3014</v>
       </c>
       <c r="O67" s="3" t="s">
-        <v>3047</v>
+        <v>3032</v>
       </c>
       <c r="P67" s="3" t="s">
-        <v>3058</v>
+        <v>3043</v>
       </c>
     </row>
     <row r="68" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>3008</v>
+        <v>2993</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>3004</v>
+        <v>2989</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>3043</v>
+        <v>3028</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>3040</v>
+        <v>3025</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>3035</v>
+        <v>3020</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>3041</v>
+        <v>3026</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>3033</v>
+        <v>3018</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>3034</v>
+        <v>3019</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>3039</v>
+        <v>3024</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>3044</v>
+        <v>3029</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>3032</v>
+        <v>3017</v>
       </c>
       <c r="L68" s="3" t="s">
-        <v>3045</v>
+        <v>3030</v>
       </c>
       <c r="M68" s="3" t="s">
+        <v>3016</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>3015</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>3031</v>
       </c>
-      <c r="N68" s="3" t="s">
-        <v>3030</v>
-      </c>
-      <c r="O68" s="3" t="s">
-        <v>3046</v>
-      </c>
       <c r="P68" s="3" t="s">
-        <v>3042</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -15251,52 +15251,52 @@
     </row>
     <row r="71" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
+        <v>3066</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>3067</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>3081</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>3082</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>3096</v>
-      </c>
       <c r="D71" s="3" t="s">
-        <v>3095</v>
+        <v>3080</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>3083</v>
+        <v>3068</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>3093</v>
+        <v>3078</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>3084</v>
+        <v>3069</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>3085</v>
+        <v>3070</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>3086</v>
+        <v>3071</v>
       </c>
       <c r="J71" s="3" t="s">
-        <v>3092</v>
+        <v>3077</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>3087</v>
+        <v>3072</v>
       </c>
       <c r="L71" s="3" t="s">
-        <v>3091</v>
+        <v>3076</v>
       </c>
       <c r="M71" s="3" t="s">
-        <v>3088</v>
+        <v>3073</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>3089</v>
+        <v>3074</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>3090</v>
+        <v>3075</v>
       </c>
       <c r="P71" s="3" t="s">
-        <v>3094</v>
+        <v>3079</v>
       </c>
     </row>
     <row r="72" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -15451,202 +15451,202 @@
     </row>
     <row r="75" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>3714</v>
+        <v>3699</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>3719</v>
+        <v>3704</v>
       </c>
       <c r="C75" s="3" t="s">
+        <v>3814</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>3862</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>3821</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>3858</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>3854</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>3851</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>3825</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>3847</v>
+      </c>
+      <c r="L75" s="3" t="s">
         <v>3829</v>
       </c>
-      <c r="D75" s="3" t="s">
-        <v>3832</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>3877</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>3836</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>3873</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>3869</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>3866</v>
-      </c>
-      <c r="J75" s="3" t="s">
-        <v>3840</v>
-      </c>
-      <c r="K75" s="3" t="s">
-        <v>3862</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>3844</v>
-      </c>
       <c r="M75" s="3" t="s">
-        <v>3858</v>
+        <v>3843</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>3854</v>
+        <v>3839</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>3848</v>
+        <v>3833</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>3852</v>
+        <v>3837</v>
       </c>
     </row>
     <row r="76" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>3724</v>
+        <v>3709</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>3725</v>
+        <v>3710</v>
       </c>
       <c r="C76" s="3" t="s">
+        <v>3815</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>3818</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>3822</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>3859</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>3855</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>3852</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>3826</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>3848</v>
+      </c>
+      <c r="L76" s="3" t="s">
         <v>3830</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3833</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>3878</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3837</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3874</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3870</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3867</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>3841</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>3863</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>3845</v>
-      </c>
       <c r="M76" s="3" t="s">
-        <v>3859</v>
+        <v>3844</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>3855</v>
+        <v>3840</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>3849</v>
+        <v>3834</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>3853</v>
+        <v>3838</v>
       </c>
     </row>
     <row r="77" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>3716</v>
+        <v>3701</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>3715</v>
+        <v>3700</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>3816</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>3819</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>3864</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>3823</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>3860</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>3856</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>3853</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>3827</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>3849</v>
+      </c>
+      <c r="L77" s="3" t="s">
         <v>3831</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>3834</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>3879</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>3838</v>
-      </c>
-      <c r="G77" s="3" t="s">
-        <v>3875</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>3871</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>3868</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>3842</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>3864</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>3846</v>
-      </c>
       <c r="M77" s="3" t="s">
-        <v>3860</v>
+        <v>3845</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>3856</v>
+        <v>3841</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>3850</v>
+        <v>3835</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>3759</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="78" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>3717</v>
+        <v>3702</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>3718</v>
+        <v>3703</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>3771</v>
+        <v>3756</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>3835</v>
+        <v>3820</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>3880</v>
+        <v>3865</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>3839</v>
+        <v>3824</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>3876</v>
+        <v>3861</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>3872</v>
+        <v>3857</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>3795</v>
+        <v>3780</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>3843</v>
+        <v>3828</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>3865</v>
+        <v>3850</v>
       </c>
       <c r="L78" s="3" t="s">
-        <v>3847</v>
+        <v>3832</v>
       </c>
       <c r="M78" s="3" t="s">
-        <v>3861</v>
+        <v>3846</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>3857</v>
+        <v>3842</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>3851</v>
+        <v>3836</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>3770</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="79" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -15801,52 +15801,52 @@
     </row>
     <row r="82" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>3738</v>
+        <v>3723</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>3737</v>
+        <v>3722</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>3894</v>
+        <v>3879</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>3893</v>
+        <v>3878</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>3881</v>
+        <v>3866</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>3892</v>
+        <v>3877</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>3882</v>
+        <v>3867</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>3883</v>
+        <v>3868</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>3891</v>
+        <v>3876</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>3890</v>
+        <v>3875</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>3884</v>
+        <v>3869</v>
       </c>
       <c r="L82" s="3" t="s">
-        <v>3889</v>
+        <v>3874</v>
       </c>
       <c r="M82" s="3" t="s">
-        <v>3885</v>
+        <v>3870</v>
       </c>
       <c r="N82" s="3" t="s">
-        <v>3886</v>
+        <v>3871</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>3888</v>
+        <v>3873</v>
       </c>
       <c r="P82" s="3" t="s">
-        <v>3887</v>
+        <v>3872</v>
       </c>
     </row>
     <row r="83" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -16353,553 +16353,553 @@
     <row r="94" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="95" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>2459</v>
+        <v>2444</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>2460</v>
+        <v>2445</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>2616</v>
+        <v>2601</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>2602</v>
+        <v>2587</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>2470</v>
+        <v>2455</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>2590</v>
+        <v>2575</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>2482</v>
+        <v>2467</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>2491</v>
+        <v>2476</v>
       </c>
       <c r="I95" s="3" t="s">
-        <v>2577</v>
+        <v>2562</v>
       </c>
       <c r="J95" s="3" t="s">
-        <v>2564</v>
+        <v>2549</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>2503</v>
+        <v>2488</v>
       </c>
       <c r="L95" s="3" t="s">
-        <v>2551</v>
+        <v>2536</v>
       </c>
       <c r="M95" s="3" t="s">
-        <v>2512</v>
+        <v>2497</v>
       </c>
       <c r="N95" s="3" t="s">
-        <v>2525</v>
+        <v>2510</v>
       </c>
       <c r="O95" s="3" t="s">
-        <v>2536</v>
+        <v>2521</v>
       </c>
       <c r="P95" s="3" t="s">
-        <v>2629</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>2462</v>
+        <v>2447</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>2463</v>
+        <v>2448</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>2618</v>
+        <v>2603</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>2604</v>
+        <v>2589</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>2472</v>
+        <v>2457</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>2592</v>
+        <v>2577</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>2483</v>
+        <v>2468</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>2492</v>
+        <v>2477</v>
       </c>
       <c r="I96" s="3" t="s">
-        <v>2579</v>
+        <v>2564</v>
       </c>
       <c r="J96" s="3" t="s">
-        <v>2566</v>
+        <v>2551</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>2502</v>
+        <v>2487</v>
       </c>
       <c r="L96" s="3" t="s">
-        <v>2553</v>
+        <v>2538</v>
       </c>
       <c r="M96" s="3" t="s">
-        <v>2514</v>
+        <v>2499</v>
       </c>
       <c r="N96" s="3" t="s">
-        <v>2527</v>
+        <v>2512</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>2535</v>
+        <v>2520</v>
       </c>
       <c r="P96" s="3" t="s">
-        <v>2631</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="97" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>3297</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>3313</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>3300</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>3301</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>3302</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>3303</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>3304</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>3305</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>3311</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="K97" s="3" t="s">
+        <v>3306</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>3310</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>3307</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>3308</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>3309</v>
+      </c>
+      <c r="P97" s="3" t="s">
         <v>3312</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>3328</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>3315</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>3316</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>3317</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>3318</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>3319</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>3320</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>3326</v>
-      </c>
-      <c r="K97" s="3" t="s">
-        <v>3321</v>
-      </c>
-      <c r="L97" s="3" t="s">
-        <v>3325</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>3322</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>3323</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>3324</v>
-      </c>
-      <c r="P97" s="3" t="s">
-        <v>3327</v>
       </c>
     </row>
     <row r="98" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="99" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>2923</v>
+        <v>2908</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>2924</v>
+        <v>2909</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3080</v>
+        <v>3065</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>3079</v>
+        <v>3064</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>3072</v>
+        <v>3057</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>3077</v>
+        <v>3062</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>3073</v>
+        <v>3058</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>3074</v>
+        <v>3059</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>3075</v>
+        <v>3060</v>
       </c>
       <c r="J99" s="3" t="s">
-        <v>3076</v>
+        <v>3061</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>3071</v>
+        <v>3056</v>
       </c>
       <c r="L99" s="3" t="s">
-        <v>3068</v>
+        <v>3053</v>
       </c>
       <c r="M99" s="3" t="s">
-        <v>3069</v>
+        <v>3054</v>
       </c>
       <c r="N99" s="3" t="s">
-        <v>3070</v>
+        <v>3055</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>3067</v>
+        <v>3052</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>3078</v>
+        <v>3063</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>3137</v>
+        <v>3122</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>3138</v>
+        <v>3123</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>3140</v>
+        <v>3125</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>3141</v>
+        <v>3126</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>3142</v>
+        <v>3127</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>3143</v>
+        <v>3128</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>3144</v>
+        <v>3129</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>3145</v>
+        <v>3130</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>3146</v>
+        <v>3131</v>
       </c>
       <c r="J100" s="3" t="s">
-        <v>3147</v>
+        <v>3132</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>3144</v>
+        <v>3129</v>
       </c>
       <c r="L100" s="3" t="s">
-        <v>3148</v>
+        <v>3133</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>3144</v>
+        <v>3129</v>
       </c>
       <c r="N100" s="3" t="s">
-        <v>3149</v>
+        <v>3134</v>
       </c>
       <c r="O100" s="3" t="s">
-        <v>3150</v>
+        <v>3135</v>
       </c>
       <c r="P100" s="3" t="s">
-        <v>3139</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="101" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>3129</v>
+        <v>3114</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>3133</v>
+        <v>3118</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>3167</v>
+        <v>3152</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>3168</v>
+        <v>3153</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>3169</v>
+        <v>3154</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>3170</v>
+        <v>3155</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>3171</v>
+        <v>3156</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>3172</v>
+        <v>3157</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>3173</v>
+        <v>3158</v>
       </c>
       <c r="J101" s="3" t="s">
-        <v>3174</v>
+        <v>3159</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>3175</v>
+        <v>3160</v>
       </c>
       <c r="L101" s="3" t="s">
-        <v>3165</v>
+        <v>3150</v>
       </c>
       <c r="M101" s="3" t="s">
-        <v>3176</v>
+        <v>3161</v>
       </c>
       <c r="N101" s="3" t="s">
-        <v>3164</v>
+        <v>3149</v>
       </c>
       <c r="O101" s="3" t="s">
-        <v>3177</v>
+        <v>3162</v>
       </c>
       <c r="P101" s="3" t="s">
-        <v>3166</v>
+        <v>3151</v>
       </c>
     </row>
     <row r="102" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>3130</v>
+        <v>3115</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>3136</v>
+        <v>3121</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>3191</v>
+        <v>3176</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>3189</v>
+        <v>3174</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>3180</v>
+        <v>3165</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>3188</v>
+        <v>3173</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>3181</v>
+        <v>3166</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>3182</v>
+        <v>3167</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>3187</v>
+        <v>3172</v>
       </c>
       <c r="J102" s="3" t="s">
-        <v>3186</v>
+        <v>3171</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>3183</v>
+        <v>3168</v>
       </c>
       <c r="L102" s="3" t="s">
-        <v>3185</v>
+        <v>3170</v>
       </c>
       <c r="M102" s="3" t="s">
-        <v>3179</v>
+        <v>3164</v>
       </c>
       <c r="N102" s="3" t="s">
-        <v>3184</v>
+        <v>3169</v>
       </c>
       <c r="O102" s="3" t="s">
-        <v>3178</v>
+        <v>3163</v>
       </c>
       <c r="P102" s="3" t="s">
-        <v>3190</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="103" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>3131</v>
+        <v>3116</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>3132</v>
+        <v>3117</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>3152</v>
+        <v>3137</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>3153</v>
+        <v>3138</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>3155</v>
+        <v>3140</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>3156</v>
+        <v>3141</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>3157</v>
+        <v>3142</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>3158</v>
+        <v>3143</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>3159</v>
+        <v>3144</v>
       </c>
       <c r="J103" s="3" t="s">
-        <v>3160</v>
+        <v>3145</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>3161</v>
+        <v>3146</v>
       </c>
       <c r="L103" s="3" t="s">
-        <v>3162</v>
+        <v>3147</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>3157</v>
+        <v>3142</v>
       </c>
       <c r="N103" s="3" t="s">
-        <v>3163</v>
+        <v>3148</v>
       </c>
       <c r="O103" s="3" t="s">
-        <v>3151</v>
+        <v>3136</v>
       </c>
       <c r="P103" s="3" t="s">
-        <v>3154</v>
+        <v>3139</v>
       </c>
     </row>
     <row r="104" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>3134</v>
+        <v>3119</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>3135</v>
+        <v>3120</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>3192</v>
+        <v>3177</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>3194</v>
+        <v>3179</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>3196</v>
+        <v>3181</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>3195</v>
+        <v>3180</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>3197</v>
+        <v>3182</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>3198</v>
+        <v>3183</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>3201</v>
+        <v>3186</v>
       </c>
       <c r="J104" s="3" t="s">
-        <v>3202</v>
+        <v>3187</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>3199</v>
+        <v>3184</v>
       </c>
       <c r="L104" s="3" t="s">
-        <v>3203</v>
+        <v>3188</v>
       </c>
       <c r="M104" s="3" t="s">
-        <v>3200</v>
+        <v>3185</v>
       </c>
       <c r="N104" s="3" t="s">
-        <v>3204</v>
+        <v>3189</v>
       </c>
       <c r="O104" s="3" t="s">
-        <v>3205</v>
+        <v>3190</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>3193</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="105" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
+        <v>3082</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>3085</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>3086</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>3088</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>3090</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>3094</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>3093</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>3092</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>3091</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>3095</v>
+      </c>
+      <c r="L105" s="3" t="s">
         <v>3097</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>3100</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>3101</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>3103</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>3105</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>3109</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>3108</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>3107</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>3106</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>3110</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>3112</v>
-      </c>
       <c r="M105" s="3" t="s">
-        <v>3111</v>
+        <v>3096</v>
       </c>
       <c r="N105" s="3" t="s">
-        <v>3113</v>
+        <v>3098</v>
       </c>
       <c r="O105" s="3" t="s">
-        <v>3114</v>
+        <v>3099</v>
       </c>
       <c r="P105" s="3" t="s">
-        <v>3104</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="106" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>3098</v>
+        <v>3083</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>3099</v>
+        <v>3084</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>3128</v>
+        <v>3113</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>3126</v>
+        <v>3111</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>3122</v>
+        <v>3107</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>3123</v>
+        <v>3108</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>3121</v>
+        <v>3106</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>3120</v>
+        <v>3105</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>3124</v>
+        <v>3109</v>
       </c>
       <c r="J106" s="3" t="s">
-        <v>3125</v>
+        <v>3110</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>3118</v>
+        <v>3103</v>
       </c>
       <c r="L106" s="3" t="s">
-        <v>3119</v>
+        <v>3104</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>3117</v>
+        <v>3102</v>
       </c>
       <c r="N106" s="3" t="s">
-        <v>3116</v>
+        <v>3101</v>
       </c>
       <c r="O106" s="3" t="s">
-        <v>3115</v>
+        <v>3100</v>
       </c>
       <c r="P106" s="3" t="s">
-        <v>3127</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="107" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -17355,52 +17355,52 @@
     </row>
     <row r="117" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>3478</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E117" s="3" t="s">
         <v>3493</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>3494</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>3505</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>3506</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>3508</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>3509</v>
-      </c>
       <c r="G117" s="3" t="s">
-        <v>3496</v>
+        <v>3481</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>3497</v>
+        <v>3482</v>
       </c>
       <c r="I117" s="3" t="s">
-        <v>3498</v>
+        <v>3483</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>3499</v>
+        <v>3484</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>3500</v>
+        <v>3485</v>
       </c>
       <c r="L117" s="3" t="s">
-        <v>3501</v>
+        <v>3486</v>
       </c>
       <c r="M117" s="3" t="s">
-        <v>3502</v>
+        <v>3487</v>
       </c>
       <c r="N117" s="3" t="s">
-        <v>3503</v>
+        <v>3488</v>
       </c>
       <c r="O117" s="3" t="s">
-        <v>3504</v>
+        <v>3489</v>
       </c>
       <c r="P117" s="3" t="s">
-        <v>3507</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="118" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -17608,7 +17608,7 @@
         <v>21</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>2737</v>
+        <v>2722</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>1509</v>
@@ -17655,52 +17655,52 @@
     </row>
     <row r="123" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
+        <v>2723</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>2732</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>2733</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>2736</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>2737</v>
+      </c>
+      <c r="H123" s="3" t="s">
         <v>2738</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="I123" s="3" t="s">
         <v>2739</v>
       </c>
-      <c r="C123" s="3" t="s">
-        <v>2747</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>2748</v>
-      </c>
-      <c r="E123" s="3" t="s">
-        <v>2750</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>2751</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>2752</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>2753</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>2754</v>
-      </c>
       <c r="J123" s="3" t="s">
-        <v>2755</v>
+        <v>2740</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>2756</v>
+        <v>2741</v>
       </c>
       <c r="L123" s="3" t="s">
-        <v>2757</v>
+        <v>2742</v>
       </c>
       <c r="M123" s="3" t="s">
-        <v>2758</v>
+        <v>2743</v>
       </c>
       <c r="N123" s="3" t="s">
-        <v>2759</v>
+        <v>2744</v>
       </c>
       <c r="O123" s="3" t="s">
-        <v>2746</v>
+        <v>2731</v>
       </c>
       <c r="P123" s="3" t="s">
-        <v>2749</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="124" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -17955,252 +17955,252 @@
     </row>
     <row r="129" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>2434</v>
+        <v>2419</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>2741</v>
+        <v>2726</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>2448</v>
+        <v>2433</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>2447</v>
+        <v>2432</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>2445</v>
+        <v>2430</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>2444</v>
+        <v>2429</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>2443</v>
+        <v>2428</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>2442</v>
+        <v>2427</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>2441</v>
+        <v>2426</v>
       </c>
       <c r="J129" s="3" t="s">
-        <v>2440</v>
+        <v>2425</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>2439</v>
+        <v>2424</v>
       </c>
       <c r="L129" s="3" t="s">
-        <v>2438</v>
+        <v>2423</v>
       </c>
       <c r="M129" s="3" t="s">
-        <v>2437</v>
+        <v>2422</v>
       </c>
       <c r="N129" s="3" t="s">
-        <v>2436</v>
+        <v>2421</v>
       </c>
       <c r="O129" s="3" t="s">
-        <v>2435</v>
+        <v>2420</v>
       </c>
       <c r="P129" s="3" t="s">
-        <v>2446</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="130" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>2742</v>
+        <v>2727</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>2744</v>
+        <v>2729</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>2767</v>
+        <v>2752</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>2768</v>
+        <v>2753</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>2766</v>
+        <v>2751</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>2770</v>
+        <v>2755</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>2765</v>
+        <v>2750</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>2764</v>
+        <v>2749</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>2771</v>
+        <v>2756</v>
       </c>
       <c r="J130" s="3" t="s">
-        <v>2772</v>
+        <v>2757</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>2763</v>
+        <v>2748</v>
       </c>
       <c r="L130" s="3" t="s">
-        <v>2773</v>
+        <v>2758</v>
       </c>
       <c r="M130" s="3" t="s">
-        <v>2762</v>
+        <v>2747</v>
       </c>
       <c r="N130" s="3" t="s">
-        <v>2760</v>
+        <v>2745</v>
       </c>
       <c r="O130" s="3" t="s">
-        <v>2761</v>
+        <v>2746</v>
       </c>
       <c r="P130" s="3" t="s">
-        <v>2769</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="131" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>2743</v>
+        <v>2728</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>2745</v>
+        <v>2730</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>2774</v>
+        <v>2759</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>2775</v>
+        <v>2760</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>2777</v>
+        <v>2762</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>2778</v>
+        <v>2763</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>2779</v>
+        <v>2764</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>2780</v>
+        <v>2765</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>2787</v>
+        <v>2772</v>
       </c>
       <c r="J131" s="3" t="s">
-        <v>2786</v>
+        <v>2771</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>2781</v>
+        <v>2766</v>
       </c>
       <c r="L131" s="3" t="s">
-        <v>2785</v>
+        <v>2770</v>
       </c>
       <c r="M131" s="3" t="s">
-        <v>2782</v>
+        <v>2767</v>
       </c>
       <c r="N131" s="3" t="s">
-        <v>2784</v>
+        <v>2769</v>
       </c>
       <c r="O131" s="3" t="s">
-        <v>2783</v>
+        <v>2768</v>
       </c>
       <c r="P131" s="3" t="s">
-        <v>2776</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
+        <v>2973</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>2974</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>2976</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>2979</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>2980</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>2981</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>2982</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>2983</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>2984</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>2985</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>2986</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>2987</v>
+      </c>
+      <c r="O132" s="2" t="s">
         <v>2988</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>2989</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>2990</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>2991</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>2993</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>2994</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>2995</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>2996</v>
-      </c>
-      <c r="I132" s="2" t="s">
-        <v>2997</v>
-      </c>
-      <c r="J132" s="2" t="s">
-        <v>2998</v>
-      </c>
-      <c r="K132" s="2" t="s">
-        <v>2999</v>
-      </c>
-      <c r="L132" s="2" t="s">
-        <v>3000</v>
-      </c>
-      <c r="M132" s="2" t="s">
-        <v>3001</v>
-      </c>
-      <c r="N132" s="2" t="s">
-        <v>3002</v>
-      </c>
-      <c r="O132" s="2" t="s">
-        <v>3003</v>
-      </c>
       <c r="P132" s="2" t="s">
-        <v>2992</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="133" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>2725</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>2630</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>2663</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>2662</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>2670</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>2676</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>2696</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>2703</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>2708</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>2715</v>
+      </c>
+      <c r="P133" s="3" t="s">
         <v>2644</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>2740</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>2645</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>2652</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>2671</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>2678</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>2677</v>
-      </c>
-      <c r="H133" s="3" t="s">
-        <v>2685</v>
-      </c>
-      <c r="I133" s="3" t="s">
-        <v>2691</v>
-      </c>
-      <c r="J133" s="3" t="s">
-        <v>2697</v>
-      </c>
-      <c r="K133" s="3" t="s">
-        <v>2704</v>
-      </c>
-      <c r="L133" s="3" t="s">
-        <v>2711</v>
-      </c>
-      <c r="M133" s="3" t="s">
-        <v>2718</v>
-      </c>
-      <c r="N133" s="3" t="s">
-        <v>2723</v>
-      </c>
-      <c r="O133" s="3" t="s">
-        <v>2730</v>
-      </c>
-      <c r="P133" s="3" t="s">
-        <v>2659</v>
       </c>
     </row>
     <row r="134" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -18285,7 +18285,7 @@
         <v>2084</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>3520</v>
+        <v>3505</v>
       </c>
       <c r="L135" s="3" t="s">
         <v>845</v>
@@ -18311,46 +18311,46 @@
         <v>990</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>3512</v>
+        <v>3497</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>3511</v>
+        <v>3496</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>3513</v>
+        <v>3498</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>3514</v>
+        <v>3499</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>3515</v>
+        <v>3500</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>3516</v>
+        <v>3501</v>
       </c>
       <c r="I136" s="3" t="s">
-        <v>3517</v>
+        <v>3502</v>
       </c>
       <c r="J136" s="3" t="s">
-        <v>3518</v>
+        <v>3503</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>3519</v>
+        <v>3504</v>
       </c>
       <c r="L136" s="3" t="s">
-        <v>3521</v>
+        <v>3506</v>
       </c>
       <c r="M136" s="3" t="s">
-        <v>3515</v>
+        <v>3500</v>
       </c>
       <c r="N136" s="3" t="s">
-        <v>3522</v>
+        <v>3507</v>
       </c>
       <c r="O136" s="3" t="s">
-        <v>3523</v>
+        <v>3508</v>
       </c>
       <c r="P136" s="3" t="s">
-        <v>3510</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="137" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -18361,46 +18361,46 @@
         <v>991</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>3526</v>
+        <v>3511</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>3529</v>
+        <v>3514</v>
       </c>
       <c r="E137" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>3527</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>3530</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>3532</v>
+      </c>
+      <c r="J137" s="3" t="s">
         <v>3536</v>
       </c>
-      <c r="F137" s="3" t="s">
+      <c r="K137" s="3" t="s">
         <v>3539</v>
       </c>
-      <c r="G137" s="3" t="s">
+      <c r="L137" s="3" t="s">
         <v>3542</v>
       </c>
-      <c r="H137" s="3" t="s">
-        <v>3545</v>
-      </c>
-      <c r="I137" s="3" t="s">
+      <c r="M137" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="N137" s="3" t="s">
         <v>3547</v>
       </c>
-      <c r="J137" s="3" t="s">
-        <v>3551</v>
-      </c>
-      <c r="K137" s="3" t="s">
-        <v>3554</v>
-      </c>
-      <c r="L137" s="3" t="s">
-        <v>3557</v>
-      </c>
-      <c r="M137" s="3" t="s">
-        <v>3559</v>
-      </c>
-      <c r="N137" s="3" t="s">
-        <v>3562</v>
-      </c>
       <c r="O137" s="3" t="s">
-        <v>3524</v>
+        <v>3509</v>
       </c>
       <c r="P137" s="3" t="s">
-        <v>3533</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="138" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -18411,46 +18411,46 @@
         <v>992</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>3527</v>
+        <v>3512</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>3530</v>
+        <v>3515</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>3535</v>
+        <v>3520</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>3540</v>
+        <v>3525</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>3541</v>
+        <v>3526</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>3546</v>
+        <v>3531</v>
       </c>
       <c r="I138" s="3" t="s">
+        <v>3533</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>3537</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>3538</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>3543</v>
+      </c>
+      <c r="M138" s="3" t="s">
+        <v>3526</v>
+      </c>
+      <c r="N138" s="3" t="s">
         <v>3548</v>
       </c>
-      <c r="J138" s="3" t="s">
-        <v>3552</v>
-      </c>
-      <c r="K138" s="3" t="s">
-        <v>3553</v>
-      </c>
-      <c r="L138" s="3" t="s">
-        <v>3558</v>
-      </c>
-      <c r="M138" s="3" t="s">
-        <v>3541</v>
-      </c>
-      <c r="N138" s="3" t="s">
-        <v>3563</v>
-      </c>
       <c r="O138" s="3" t="s">
-        <v>3525</v>
+        <v>3510</v>
       </c>
       <c r="P138" s="3" t="s">
-        <v>3534</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="139" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -18461,46 +18461,46 @@
         <v>994</v>
       </c>
       <c r="C139" s="3" t="s">
+        <v>3513</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>3523</v>
+      </c>
+      <c r="G139" s="3" t="s">
         <v>3528</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>3531</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>3537</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>3538</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>3543</v>
-      </c>
       <c r="H139" s="3" t="s">
-        <v>3544</v>
+        <v>3529</v>
       </c>
       <c r="I139" s="3" t="s">
+        <v>3534</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>3535</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>3540</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>3541</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>3545</v>
+      </c>
+      <c r="N139" s="3" t="s">
+        <v>3546</v>
+      </c>
+      <c r="O139" s="3" t="s">
         <v>3549</v>
       </c>
-      <c r="J139" s="3" t="s">
-        <v>3550</v>
-      </c>
-      <c r="K139" s="3" t="s">
-        <v>3555</v>
-      </c>
-      <c r="L139" s="3" t="s">
-        <v>3556</v>
-      </c>
-      <c r="M139" s="3" t="s">
-        <v>3560</v>
-      </c>
-      <c r="N139" s="3" t="s">
-        <v>3561</v>
-      </c>
-      <c r="O139" s="3" t="s">
-        <v>3564</v>
-      </c>
       <c r="P139" s="3" t="s">
-        <v>3532</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="140" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -18508,49 +18508,49 @@
         <v>987</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>3492</v>
+        <v>3477</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>3618</v>
+        <v>3603</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>3605</v>
+        <v>3590</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>3587</v>
+        <v>3572</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>3611</v>
+        <v>3596</v>
       </c>
       <c r="G140" s="3" t="s">
+        <v>3571</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>3570</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>3597</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>3602</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>3569</v>
+      </c>
+      <c r="L140" s="3" t="s">
         <v>3586</v>
       </c>
-      <c r="H140" s="3" t="s">
-        <v>3585</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>3612</v>
-      </c>
-      <c r="J140" s="3" t="s">
-        <v>3617</v>
-      </c>
-      <c r="K140" s="3" t="s">
-        <v>3584</v>
-      </c>
-      <c r="L140" s="3" t="s">
-        <v>3601</v>
-      </c>
       <c r="M140" s="3" t="s">
-        <v>3583</v>
+        <v>3568</v>
       </c>
       <c r="N140" s="3" t="s">
-        <v>3582</v>
+        <v>3567</v>
       </c>
       <c r="O140" s="3" t="s">
-        <v>3622</v>
+        <v>3607</v>
       </c>
       <c r="P140" s="3" t="s">
-        <v>3606</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="141" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -18561,46 +18561,46 @@
         <v>1012</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>3619</v>
+        <v>3604</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>3604</v>
+        <v>3589</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>3588</v>
+        <v>3573</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>3610</v>
+        <v>3595</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>3589</v>
+        <v>3574</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>3590</v>
+        <v>3575</v>
       </c>
       <c r="I141" s="3" t="s">
-        <v>3613</v>
+        <v>3598</v>
       </c>
       <c r="J141" s="3" t="s">
-        <v>3616</v>
+        <v>3601</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>3591</v>
+        <v>3576</v>
       </c>
       <c r="L141" s="3" t="s">
-        <v>3602</v>
+        <v>3587</v>
       </c>
       <c r="M141" s="3" t="s">
+        <v>3577</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>3578</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>3608</v>
+      </c>
+      <c r="P141" s="3" t="s">
         <v>3592</v>
-      </c>
-      <c r="N141" s="3" t="s">
-        <v>3593</v>
-      </c>
-      <c r="O141" s="3" t="s">
-        <v>3623</v>
-      </c>
-      <c r="P141" s="3" t="s">
-        <v>3607</v>
       </c>
     </row>
     <row r="142" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -18611,70 +18611,70 @@
         <v>993</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>3620</v>
+        <v>3605</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>3603</v>
+        <v>3588</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>3595</v>
+        <v>3580</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>3609</v>
+        <v>3594</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>3596</v>
+        <v>3581</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>3597</v>
+        <v>3582</v>
       </c>
       <c r="I142" s="3" t="s">
-        <v>3614</v>
+        <v>3599</v>
       </c>
       <c r="J142" s="3" t="s">
-        <v>3615</v>
+        <v>3600</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>3598</v>
+        <v>3583</v>
       </c>
       <c r="L142" s="3" t="s">
-        <v>3600</v>
+        <v>3585</v>
       </c>
       <c r="M142" s="3" t="s">
-        <v>3599</v>
+        <v>3584</v>
       </c>
       <c r="N142" s="3" t="s">
-        <v>3594</v>
+        <v>3579</v>
       </c>
       <c r="O142" s="3" t="s">
-        <v>3621</v>
+        <v>3606</v>
       </c>
       <c r="P142" s="3" t="s">
-        <v>3608</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="143" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="144" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>2632</v>
+        <v>2617</v>
       </c>
       <c r="B144" s="3" t="s">
+        <v>2623</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>2631</v>
+      </c>
+      <c r="D144" s="3" t="s">
         <v>2638</v>
       </c>
-      <c r="C144" s="3" t="s">
-        <v>2646</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>2653</v>
-      </c>
       <c r="E144" s="3" t="s">
-        <v>2638</v>
+        <v>2623</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>2679</v>
+        <v>2664</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>2638</v>
+        <v>2623</v>
       </c>
       <c r="H144" s="3" t="s">
         <v>535</v>
@@ -18683,275 +18683,275 @@
         <v>1682</v>
       </c>
       <c r="J144" s="3" t="s">
-        <v>2698</v>
+        <v>2683</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>2705</v>
+        <v>2690</v>
       </c>
       <c r="L144" s="3" t="s">
-        <v>2712</v>
+        <v>2697</v>
       </c>
       <c r="M144" s="3" t="s">
-        <v>2638</v>
+        <v>2623</v>
       </c>
       <c r="N144" s="3" t="s">
-        <v>2724</v>
+        <v>2709</v>
       </c>
       <c r="O144" s="3" t="s">
-        <v>2731</v>
+        <v>2716</v>
       </c>
       <c r="P144" s="3" t="s">
-        <v>2660</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="145" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>2633</v>
+        <v>2618</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>2642</v>
+        <v>2627</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>2647</v>
+        <v>2632</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>2654</v>
+        <v>2639</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>2666</v>
+        <v>2651</v>
       </c>
       <c r="F145" s="3" t="s">
+        <v>2665</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>2657</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>2671</v>
+      </c>
+      <c r="I145" s="3" t="s">
         <v>2680</v>
       </c>
-      <c r="G145" s="3" t="s">
-        <v>2672</v>
-      </c>
-      <c r="H145" s="3" t="s">
-        <v>2686</v>
-      </c>
-      <c r="I145" s="3" t="s">
-        <v>2695</v>
-      </c>
       <c r="J145" s="3" t="s">
-        <v>2699</v>
+        <v>2684</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>2706</v>
+        <v>2691</v>
       </c>
       <c r="L145" s="3" t="s">
-        <v>2713</v>
+        <v>2698</v>
       </c>
       <c r="M145" s="3" t="s">
-        <v>2719</v>
+        <v>2704</v>
       </c>
       <c r="N145" s="3" t="s">
-        <v>2725</v>
+        <v>2710</v>
       </c>
       <c r="O145" s="3" t="s">
-        <v>2732</v>
+        <v>2717</v>
       </c>
       <c r="P145" s="3" t="s">
-        <v>2661</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="146" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>2634</v>
+        <v>2619</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>2643</v>
+        <v>2628</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>2648</v>
+        <v>2633</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>2655</v>
+        <v>2640</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>2667</v>
+        <v>2652</v>
       </c>
       <c r="F146" s="3" t="s">
+        <v>2666</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>2658</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>2672</v>
+      </c>
+      <c r="I146" s="3" t="s">
         <v>2681</v>
       </c>
-      <c r="G146" s="3" t="s">
-        <v>2673</v>
-      </c>
-      <c r="H146" s="3" t="s">
-        <v>2687</v>
-      </c>
-      <c r="I146" s="3" t="s">
-        <v>2696</v>
-      </c>
       <c r="J146" s="3" t="s">
-        <v>2700</v>
+        <v>2685</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>2707</v>
+        <v>2692</v>
       </c>
       <c r="L146" s="3" t="s">
-        <v>2714</v>
+        <v>2699</v>
       </c>
       <c r="M146" s="3" t="s">
-        <v>2720</v>
+        <v>2705</v>
       </c>
       <c r="N146" s="3" t="s">
-        <v>2726</v>
+        <v>2711</v>
       </c>
       <c r="O146" s="3" t="s">
-        <v>2733</v>
+        <v>2718</v>
       </c>
       <c r="P146" s="3" t="s">
-        <v>2662</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="147" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>2635</v>
+        <v>2620</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>2639</v>
+        <v>2624</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>2649</v>
+        <v>2634</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>2656</v>
+        <v>2641</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>2668</v>
+        <v>2653</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>2682</v>
+        <v>2667</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>2674</v>
+        <v>2659</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>2688</v>
+        <v>2673</v>
       </c>
       <c r="I147" s="3" t="s">
-        <v>2692</v>
+        <v>2677</v>
       </c>
       <c r="J147" s="3" t="s">
-        <v>2701</v>
+        <v>2686</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>2708</v>
+        <v>2693</v>
       </c>
       <c r="L147" s="3" t="s">
-        <v>2715</v>
+        <v>2700</v>
       </c>
       <c r="M147" s="3" t="s">
-        <v>2721</v>
+        <v>2706</v>
       </c>
       <c r="N147" s="3" t="s">
-        <v>2727</v>
+        <v>2712</v>
       </c>
       <c r="O147" s="3" t="s">
-        <v>2734</v>
+        <v>2719</v>
       </c>
       <c r="P147" s="3" t="s">
-        <v>2663</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="148" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>2636</v>
+        <v>2621</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>2640</v>
+        <v>2625</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>2650</v>
+        <v>2635</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>2657</v>
+        <v>2642</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>2669</v>
+        <v>2654</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>2683</v>
+        <v>2668</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>2675</v>
+        <v>2660</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>2689</v>
+        <v>2674</v>
       </c>
       <c r="I148" s="3" t="s">
-        <v>2693</v>
+        <v>2678</v>
       </c>
       <c r="J148" s="3" t="s">
-        <v>2702</v>
+        <v>2687</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>2709</v>
+        <v>2694</v>
       </c>
       <c r="L148" s="3" t="s">
-        <v>2716</v>
+        <v>2701</v>
       </c>
       <c r="M148" s="3" t="s">
-        <v>2675</v>
+        <v>2660</v>
       </c>
       <c r="N148" s="3" t="s">
-        <v>2728</v>
+        <v>2713</v>
       </c>
       <c r="O148" s="3" t="s">
-        <v>2735</v>
+        <v>2720</v>
       </c>
       <c r="P148" s="3" t="s">
-        <v>2664</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="149" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>2637</v>
+        <v>2622</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>2641</v>
+        <v>2626</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>2651</v>
+        <v>2636</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>2658</v>
+        <v>2643</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>2670</v>
+        <v>2655</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>2684</v>
+        <v>2669</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>2676</v>
+        <v>2661</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>2690</v>
+        <v>2675</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>2694</v>
+        <v>2679</v>
       </c>
       <c r="J149" s="3" t="s">
-        <v>2703</v>
+        <v>2688</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>2710</v>
+        <v>2695</v>
       </c>
       <c r="L149" s="3" t="s">
-        <v>2717</v>
+        <v>2702</v>
       </c>
       <c r="M149" s="3" t="s">
-        <v>2722</v>
+        <v>2707</v>
       </c>
       <c r="N149" s="3" t="s">
-        <v>2729</v>
+        <v>2714</v>
       </c>
       <c r="O149" s="3" t="s">
-        <v>2736</v>
+        <v>2721</v>
       </c>
       <c r="P149" s="3" t="s">
-        <v>2665</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="151" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -19706,52 +19706,52 @@
     </row>
     <row r="166" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>2782</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>2781</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>2778</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>2777</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>2776</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>2775</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>2783</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>2785</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>2786</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>2787</v>
+      </c>
+      <c r="N166" s="3" t="s">
         <v>2788</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="O166" s="3" t="s">
         <v>2789</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>2797</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>2794</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>2793</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>2792</v>
-      </c>
-      <c r="H166" s="3" t="s">
-        <v>2791</v>
-      </c>
-      <c r="I166" s="3" t="s">
-        <v>2790</v>
-      </c>
-      <c r="J166" s="3" t="s">
-        <v>2798</v>
-      </c>
-      <c r="K166" s="3" t="s">
-        <v>2800</v>
-      </c>
-      <c r="L166" s="3" t="s">
-        <v>2801</v>
-      </c>
-      <c r="M166" s="3" t="s">
-        <v>2802</v>
-      </c>
-      <c r="N166" s="3" t="s">
-        <v>2803</v>
-      </c>
-      <c r="O166" s="3" t="s">
-        <v>2804</v>
-      </c>
       <c r="P166" s="3" t="s">
-        <v>2795</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="167" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -19783,7 +19783,7 @@
         <v>1882</v>
       </c>
       <c r="J167" s="3" t="s">
-        <v>2799</v>
+        <v>2784</v>
       </c>
       <c r="K167" s="3" t="s">
         <v>1343</v>
@@ -20598,52 +20598,52 @@
     </row>
     <row r="185" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="3" t="s">
-        <v>2805</v>
+        <v>2790</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>2806</v>
+        <v>2791</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>2797</v>
+        <v>2782</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>2796</v>
+        <v>2781</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>2794</v>
+        <v>2779</v>
       </c>
       <c r="F185" s="3" t="s">
-        <v>2793</v>
+        <v>2778</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>2792</v>
+        <v>2777</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>2791</v>
+        <v>2776</v>
       </c>
       <c r="I185" s="3" t="s">
-        <v>2790</v>
+        <v>2775</v>
       </c>
       <c r="J185" s="3" t="s">
-        <v>2798</v>
+        <v>2783</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>2800</v>
+        <v>2785</v>
       </c>
       <c r="L185" s="3" t="s">
-        <v>2801</v>
+        <v>2786</v>
       </c>
       <c r="M185" s="3" t="s">
-        <v>2802</v>
+        <v>2787</v>
       </c>
       <c r="N185" s="3" t="s">
-        <v>2803</v>
+        <v>2788</v>
       </c>
       <c r="O185" s="3" t="s">
-        <v>2804</v>
+        <v>2789</v>
       </c>
       <c r="P185" s="3" t="s">
-        <v>2795</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="186" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -21887,152 +21887,152 @@
     </row>
     <row r="212" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="3" t="s">
-        <v>3264</v>
+        <v>3249</v>
       </c>
       <c r="B212" s="3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>3268</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>3267</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>3270</v>
+      </c>
+      <c r="F212" s="3" t="s">
         <v>3266</v>
       </c>
-      <c r="C212" s="3" t="s">
-        <v>3283</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>3282</v>
-      </c>
-      <c r="E212" s="3" t="s">
-        <v>3285</v>
-      </c>
-      <c r="F212" s="3" t="s">
-        <v>3281</v>
-      </c>
       <c r="G212" s="3" t="s">
-        <v>3286</v>
+        <v>3271</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>3287</v>
+        <v>3272</v>
       </c>
       <c r="I212" s="3" t="s">
-        <v>3288</v>
+        <v>3273</v>
       </c>
       <c r="J212" s="3" t="s">
-        <v>3289</v>
+        <v>3274</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>3290</v>
+        <v>3275</v>
       </c>
       <c r="L212" s="3" t="s">
-        <v>3291</v>
+        <v>3276</v>
       </c>
       <c r="M212" s="3" t="s">
-        <v>3292</v>
+        <v>3277</v>
       </c>
       <c r="N212" s="3" t="s">
-        <v>3293</v>
+        <v>3278</v>
       </c>
       <c r="O212" s="3" t="s">
-        <v>3294</v>
+        <v>3279</v>
       </c>
       <c r="P212" s="3" t="s">
-        <v>3284</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="213" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="3" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>3250</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>3262</v>
+      </c>
+      <c r="D213" s="3" t="s">
         <v>3263</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="E213" s="3" t="s">
+        <v>3253</v>
+      </c>
+      <c r="F213" s="3" t="s">
         <v>3265</v>
       </c>
-      <c r="C213" s="3" t="s">
-        <v>3277</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>3278</v>
-      </c>
-      <c r="E213" s="3" t="s">
-        <v>3268</v>
-      </c>
-      <c r="F213" s="3" t="s">
-        <v>3280</v>
-      </c>
       <c r="G213" s="3" t="s">
-        <v>3269</v>
+        <v>3254</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>3270</v>
+        <v>3255</v>
       </c>
       <c r="I213" s="3" t="s">
-        <v>3271</v>
+        <v>3256</v>
       </c>
       <c r="J213" s="3" t="s">
-        <v>3272</v>
+        <v>3257</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>3267</v>
+        <v>3252</v>
       </c>
       <c r="L213" s="3" t="s">
-        <v>3273</v>
+        <v>3258</v>
       </c>
       <c r="M213" s="3" t="s">
-        <v>3274</v>
+        <v>3259</v>
       </c>
       <c r="N213" s="3" t="s">
-        <v>3275</v>
+        <v>3260</v>
       </c>
       <c r="O213" s="3" t="s">
-        <v>3276</v>
+        <v>3261</v>
       </c>
       <c r="P213" s="3" t="s">
-        <v>3279</v>
+        <v>3264</v>
       </c>
     </row>
     <row r="214" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="3" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>3281</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>3283</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>3284</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>3286</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>3287</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>3288</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>3289</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>3290</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>3291</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>3292</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>3293</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>3294</v>
+      </c>
+      <c r="N214" s="3" t="s">
         <v>3295</v>
       </c>
-      <c r="B214" s="3" t="s">
-        <v>3296</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>3298</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>3299</v>
-      </c>
-      <c r="E214" s="3" t="s">
-        <v>3301</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>3302</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>3303</v>
-      </c>
-      <c r="H214" s="3" t="s">
-        <v>3304</v>
-      </c>
-      <c r="I214" s="3" t="s">
-        <v>3305</v>
-      </c>
-      <c r="J214" s="3" t="s">
-        <v>3306</v>
-      </c>
-      <c r="K214" s="3" t="s">
-        <v>3307</v>
-      </c>
-      <c r="L214" s="3" t="s">
-        <v>3308</v>
-      </c>
-      <c r="M214" s="3" t="s">
-        <v>3309</v>
-      </c>
-      <c r="N214" s="3" t="s">
-        <v>3310</v>
-      </c>
       <c r="O214" s="3" t="s">
-        <v>3297</v>
+        <v>3282</v>
       </c>
       <c r="P214" s="3" t="s">
-        <v>3300</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="215" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -22087,102 +22087,102 @@
     </row>
     <row r="216" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="3" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>3330</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>3341</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>3342</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>3344</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>3345</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>3334</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>3335</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>3339</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>3340</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>3336</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>3337</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>3333</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>3332</v>
+      </c>
+      <c r="O216" s="3" t="s">
+        <v>3338</v>
+      </c>
+      <c r="P216" s="3" t="s">
         <v>3343</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>3345</v>
-      </c>
-      <c r="C216" s="3" t="s">
-        <v>3356</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>3357</v>
-      </c>
-      <c r="E216" s="3" t="s">
-        <v>3359</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>3360</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>3349</v>
-      </c>
-      <c r="H216" s="3" t="s">
-        <v>3350</v>
-      </c>
-      <c r="I216" s="3" t="s">
-        <v>3354</v>
-      </c>
-      <c r="J216" s="3" t="s">
-        <v>3355</v>
-      </c>
-      <c r="K216" s="3" t="s">
-        <v>3351</v>
-      </c>
-      <c r="L216" s="3" t="s">
-        <v>3352</v>
-      </c>
-      <c r="M216" s="3" t="s">
-        <v>3348</v>
-      </c>
-      <c r="N216" s="3" t="s">
-        <v>3347</v>
-      </c>
-      <c r="O216" s="3" t="s">
-        <v>3353</v>
-      </c>
-      <c r="P216" s="3" t="s">
-        <v>3358</v>
       </c>
     </row>
     <row r="217" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="3" t="s">
-        <v>3344</v>
+        <v>3329</v>
       </c>
       <c r="B217" s="3" t="s">
+        <v>3331</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>3347</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>3348</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>3350</v>
+      </c>
+      <c r="F217" s="3" t="s">
         <v>3346</v>
       </c>
-      <c r="C217" s="3" t="s">
-        <v>3362</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>3363</v>
-      </c>
-      <c r="E217" s="3" t="s">
-        <v>3365</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>3361</v>
-      </c>
       <c r="G217" s="3" t="s">
-        <v>3366</v>
+        <v>3351</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>3367</v>
+        <v>3352</v>
       </c>
       <c r="I217" s="3" t="s">
-        <v>3368</v>
+        <v>3353</v>
       </c>
       <c r="J217" s="3" t="s">
-        <v>3369</v>
+        <v>3354</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>3370</v>
+        <v>3355</v>
       </c>
       <c r="L217" s="3" t="s">
-        <v>3371</v>
+        <v>3356</v>
       </c>
       <c r="M217" s="3" t="s">
-        <v>3372</v>
+        <v>3357</v>
       </c>
       <c r="N217" s="3" t="s">
-        <v>3373</v>
+        <v>3358</v>
       </c>
       <c r="O217" s="3" t="s">
-        <v>3374</v>
+        <v>3359</v>
       </c>
       <c r="P217" s="3" t="s">
-        <v>3364</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="218" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -22387,52 +22387,52 @@
     </row>
     <row r="222" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="3" t="s">
-        <v>3233</v>
+        <v>3218</v>
       </c>
       <c r="B222" s="3" t="s">
+        <v>3219</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>3243</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>3244</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>3246</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>3247</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>3235</v>
+      </c>
+      <c r="H222" s="3" t="s">
         <v>3234</v>
       </c>
-      <c r="C222" s="3" t="s">
-        <v>3258</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>3259</v>
-      </c>
-      <c r="E222" s="3" t="s">
-        <v>3261</v>
-      </c>
-      <c r="F222" s="3" t="s">
-        <v>3262</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>3250</v>
-      </c>
-      <c r="H222" s="3" t="s">
-        <v>3249</v>
-      </c>
       <c r="I222" s="3" t="s">
-        <v>3251</v>
+        <v>3236</v>
       </c>
       <c r="J222" s="3" t="s">
-        <v>3252</v>
+        <v>3237</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>3253</v>
+        <v>3238</v>
       </c>
       <c r="L222" s="3" t="s">
-        <v>3254</v>
+        <v>3239</v>
       </c>
       <c r="M222" s="3" t="s">
-        <v>3255</v>
+        <v>3240</v>
       </c>
       <c r="N222" s="3" t="s">
-        <v>3256</v>
+        <v>3241</v>
       </c>
       <c r="O222" s="3" t="s">
-        <v>3257</v>
+        <v>3242</v>
       </c>
       <c r="P222" s="3" t="s">
-        <v>3260</v>
+        <v>3245</v>
       </c>
     </row>
     <row r="224" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -22837,52 +22837,52 @@
     </row>
     <row r="232" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="3" t="s">
-        <v>3495</v>
+        <v>3480</v>
       </c>
       <c r="B232" s="3" t="s">
+        <v>3479</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>3490</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>3493</v>
+      </c>
+      <c r="F232" s="3" t="s">
         <v>3494</v>
       </c>
-      <c r="C232" s="3" t="s">
-        <v>3505</v>
-      </c>
-      <c r="D232" s="3" t="s">
-        <v>3506</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>3508</v>
-      </c>
-      <c r="F232" s="3" t="s">
-        <v>3509</v>
-      </c>
       <c r="G232" s="3" t="s">
-        <v>3496</v>
+        <v>3481</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>3497</v>
+        <v>3482</v>
       </c>
       <c r="I232" s="3" t="s">
-        <v>3498</v>
+        <v>3483</v>
       </c>
       <c r="J232" s="3" t="s">
-        <v>3499</v>
+        <v>3484</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>3500</v>
+        <v>3485</v>
       </c>
       <c r="L232" s="3" t="s">
-        <v>3501</v>
+        <v>3486</v>
       </c>
       <c r="M232" s="3" t="s">
-        <v>3502</v>
+        <v>3487</v>
       </c>
       <c r="N232" s="3" t="s">
-        <v>3503</v>
+        <v>3488</v>
       </c>
       <c r="O232" s="3" t="s">
-        <v>3504</v>
+        <v>3489</v>
       </c>
       <c r="P232" s="3" t="s">
-        <v>3507</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="233" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -23140,46 +23140,46 @@
         <v>1046</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>3208</v>
+        <v>3193</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>1554</v>
       </c>
       <c r="D238" s="3" t="s">
-        <v>3214</v>
+        <v>3199</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>3212</v>
+        <v>3197</v>
       </c>
       <c r="F238" s="3" t="s">
-        <v>3214</v>
+        <v>3199</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>3206</v>
+        <v>3191</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>3207</v>
+        <v>3192</v>
       </c>
       <c r="I238" s="3" t="s">
-        <v>3213</v>
+        <v>3198</v>
       </c>
       <c r="J238" s="3" t="s">
         <v>2223</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>3208</v>
+        <v>3193</v>
       </c>
       <c r="L238" s="3" t="s">
-        <v>3211</v>
+        <v>3196</v>
       </c>
       <c r="M238" s="3" t="s">
-        <v>3208</v>
+        <v>3193</v>
       </c>
       <c r="N238" s="3" t="s">
-        <v>3210</v>
+        <v>3195</v>
       </c>
       <c r="O238" s="3" t="s">
-        <v>3209</v>
+        <v>3194</v>
       </c>
       <c r="P238" s="3" t="s">
         <v>2209</v>
@@ -23238,7 +23238,7 @@
     </row>
     <row r="241" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="3" t="s">
-        <v>3231</v>
+        <v>3216</v>
       </c>
       <c r="B241" s="3" t="s">
         <v>1035</v>
@@ -23288,52 +23288,52 @@
     </row>
     <row r="242" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="3" t="s">
+        <v>3217</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>3221</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>3228</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>3229</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>3227</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>3229</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>3226</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>3225</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>3231</v>
+      </c>
+      <c r="J242" s="3" t="s">
         <v>3232</v>
       </c>
-      <c r="B242" s="3" t="s">
-        <v>3236</v>
-      </c>
-      <c r="C242" s="3" t="s">
-        <v>3243</v>
-      </c>
-      <c r="D242" s="3" t="s">
-        <v>3244</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>3242</v>
-      </c>
-      <c r="F242" s="3" t="s">
-        <v>3244</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>3241</v>
-      </c>
-      <c r="H242" s="3" t="s">
-        <v>3240</v>
-      </c>
-      <c r="I242" s="3" t="s">
-        <v>3246</v>
-      </c>
-      <c r="J242" s="3" t="s">
-        <v>3247</v>
-      </c>
       <c r="K242" s="3" t="s">
-        <v>3238</v>
+        <v>3223</v>
       </c>
       <c r="L242" s="3" t="s">
-        <v>3248</v>
+        <v>3233</v>
       </c>
       <c r="M242" s="3" t="s">
-        <v>3239</v>
+        <v>3224</v>
       </c>
       <c r="N242" s="3" t="s">
-        <v>3237</v>
+        <v>3222</v>
       </c>
       <c r="O242" s="3" t="s">
-        <v>3235</v>
+        <v>3220</v>
       </c>
       <c r="P242" s="3" t="s">
-        <v>3245</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="243" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -24991,102 +24991,102 @@
     </row>
     <row r="277" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="3" t="s">
-        <v>3489</v>
+        <v>3474</v>
       </c>
       <c r="B277" s="3" t="s">
         <v>991</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>3526</v>
+        <v>3511</v>
       </c>
       <c r="D277" s="3" t="s">
-        <v>3529</v>
+        <v>3514</v>
       </c>
       <c r="E277" s="3" t="s">
+        <v>3521</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>3524</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>3560</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>3562</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>3532</v>
+      </c>
+      <c r="J277" s="3" t="s">
         <v>3536</v>
       </c>
-      <c r="F277" s="3" t="s">
-        <v>3539</v>
-      </c>
-      <c r="G277" s="3" t="s">
-        <v>3575</v>
-      </c>
-      <c r="H277" s="3" t="s">
-        <v>3577</v>
-      </c>
-      <c r="I277" s="3" t="s">
+      <c r="K277" s="3" t="s">
+        <v>3558</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>3542</v>
+      </c>
+      <c r="M277" s="3" t="s">
+        <v>3544</v>
+      </c>
+      <c r="N277" s="3" t="s">
         <v>3547</v>
       </c>
-      <c r="J277" s="3" t="s">
-        <v>3551</v>
-      </c>
-      <c r="K277" s="3" t="s">
-        <v>3573</v>
-      </c>
-      <c r="L277" s="3" t="s">
-        <v>3557</v>
-      </c>
-      <c r="M277" s="3" t="s">
-        <v>3559</v>
-      </c>
-      <c r="N277" s="3" t="s">
-        <v>3562</v>
-      </c>
       <c r="O277" s="3" t="s">
-        <v>3524</v>
+        <v>3509</v>
       </c>
       <c r="P277" s="3" t="s">
-        <v>3533</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="278" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="3" t="s">
-        <v>3490</v>
+        <v>3475</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>3491</v>
+        <v>3476</v>
       </c>
       <c r="C278" s="3" t="s">
+        <v>3551</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>3554</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>3555</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>3561</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>3563</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>3556</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>3557</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>3559</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>3564</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>3565</v>
+      </c>
+      <c r="N278" s="3" t="s">
         <v>3566</v>
       </c>
-      <c r="D278" s="3" t="s">
-        <v>3567</v>
-      </c>
-      <c r="E278" s="3" t="s">
-        <v>3569</v>
-      </c>
-      <c r="F278" s="3" t="s">
-        <v>3570</v>
-      </c>
-      <c r="G278" s="3" t="s">
-        <v>3576</v>
-      </c>
-      <c r="H278" s="3" t="s">
-        <v>3578</v>
-      </c>
-      <c r="I278" s="3" t="s">
-        <v>3571</v>
-      </c>
-      <c r="J278" s="3" t="s">
-        <v>3572</v>
-      </c>
-      <c r="K278" s="3" t="s">
-        <v>3574</v>
-      </c>
-      <c r="L278" s="3" t="s">
-        <v>3579</v>
-      </c>
-      <c r="M278" s="3" t="s">
-        <v>3580</v>
-      </c>
-      <c r="N278" s="3" t="s">
-        <v>3581</v>
-      </c>
       <c r="O278" s="3" t="s">
-        <v>3565</v>
+        <v>3550</v>
       </c>
       <c r="P278" s="3" t="s">
-        <v>3568</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="279" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -25296,49 +25296,49 @@
         <v>2418</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>2419</v>
+        <v>3882</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>2426</v>
+        <v>3880</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>2425</v>
+        <v>3881</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>2423</v>
+        <v>3883</v>
       </c>
       <c r="F285" s="3" t="s">
-        <v>2422</v>
+        <v>3884</v>
       </c>
       <c r="G285" s="3" t="s">
-        <v>2421</v>
+        <v>3885</v>
       </c>
       <c r="H285" s="3" t="s">
-        <v>2420</v>
+        <v>3886</v>
       </c>
       <c r="I285" s="3" t="s">
-        <v>2427</v>
+        <v>3887</v>
       </c>
       <c r="J285" s="3" t="s">
-        <v>2428</v>
+        <v>3888</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>2429</v>
+        <v>3889</v>
       </c>
       <c r="L285" s="3" t="s">
-        <v>2430</v>
+        <v>3890</v>
       </c>
       <c r="M285" s="3" t="s">
-        <v>2431</v>
+        <v>3891</v>
       </c>
       <c r="N285" s="3" t="s">
-        <v>2432</v>
+        <v>3892</v>
       </c>
       <c r="O285" s="3" t="s">
-        <v>2433</v>
+        <v>3893</v>
       </c>
       <c r="P285" s="3" t="s">
-        <v>2424</v>
+        <v>3894</v>
       </c>
     </row>
     <row r="286" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -25495,10 +25495,10 @@
     <row r="290" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="291" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="3" t="s">
-        <v>3708</v>
+        <v>3693</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>3710</v>
+        <v>3695</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>1487</v>
@@ -25545,7 +25545,7 @@
     </row>
     <row r="292" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="3" t="s">
-        <v>3709</v>
+        <v>3694</v>
       </c>
       <c r="B292" s="3" t="s">
         <v>83</v>
@@ -25596,57 +25596,57 @@
     <row r="293" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="294" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="3" t="s">
-        <v>3712</v>
+        <v>3697</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>3711</v>
+        <v>3696</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>3757</v>
+        <v>3742</v>
       </c>
       <c r="D294" s="3" t="s">
-        <v>3744</v>
+        <v>3729</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>3745</v>
+        <v>3730</v>
       </c>
       <c r="F294" s="3" t="s">
-        <v>3746</v>
+        <v>3731</v>
       </c>
       <c r="G294" s="3" t="s">
-        <v>3747</v>
+        <v>3732</v>
       </c>
       <c r="H294" s="3" t="s">
-        <v>3748</v>
+        <v>3733</v>
       </c>
       <c r="I294" s="3" t="s">
-        <v>3749</v>
+        <v>3734</v>
       </c>
       <c r="J294" s="3" t="s">
-        <v>3750</v>
+        <v>3735</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>3751</v>
+        <v>3736</v>
       </c>
       <c r="L294" s="3" t="s">
-        <v>3752</v>
+        <v>3737</v>
       </c>
       <c r="M294" s="3" t="s">
-        <v>3753</v>
+        <v>3738</v>
       </c>
       <c r="N294" s="3" t="s">
-        <v>3754</v>
+        <v>3739</v>
       </c>
       <c r="O294" s="3" t="s">
-        <v>3755</v>
+        <v>3740</v>
       </c>
       <c r="P294" s="3" t="s">
-        <v>3756</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="295" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="3" t="s">
-        <v>3713</v>
+        <v>3698</v>
       </c>
       <c r="B295" s="3" t="s">
         <v>2403</v>
@@ -25699,322 +25699,322 @@
     </row>
     <row r="297" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" s="3" t="s">
-        <v>3722</v>
+        <v>3707</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>3720</v>
+        <v>3705</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>3758</v>
+        <v>3743</v>
       </c>
       <c r="D297" s="3" t="s">
-        <v>3785</v>
+        <v>3770</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>3764</v>
+        <v>3749</v>
       </c>
       <c r="F297" s="3" t="s">
-        <v>3793</v>
+        <v>3778</v>
       </c>
       <c r="G297" s="4" t="s">
-        <v>3763</v>
+        <v>3748</v>
       </c>
       <c r="H297" s="3" t="s">
-        <v>3762</v>
+        <v>3747</v>
       </c>
       <c r="I297" s="3" t="s">
-        <v>3794</v>
+        <v>3779</v>
       </c>
       <c r="J297" s="3" t="s">
-        <v>3798</v>
+        <v>3783</v>
       </c>
       <c r="K297" s="3" t="s">
-        <v>3761</v>
+        <v>3746</v>
       </c>
       <c r="L297" s="3" t="s">
-        <v>3802</v>
+        <v>3787</v>
       </c>
       <c r="M297" s="3" t="s">
-        <v>3760</v>
+        <v>3745</v>
       </c>
       <c r="N297" s="3" t="s">
-        <v>3806</v>
+        <v>3791</v>
       </c>
       <c r="O297" s="3" t="s">
-        <v>3812</v>
+        <v>3797</v>
       </c>
       <c r="P297" s="3" t="s">
-        <v>3759</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="298" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="3" t="s">
-        <v>3723</v>
+        <v>3708</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>3721</v>
+        <v>3706</v>
       </c>
       <c r="C298" s="3" t="s">
+        <v>3756</v>
+      </c>
+      <c r="D298" s="3" t="s">
         <v>3771</v>
       </c>
-      <c r="D298" s="3" t="s">
-        <v>3786</v>
-      </c>
       <c r="E298" s="3" t="s">
-        <v>3765</v>
+        <v>3750</v>
       </c>
       <c r="F298" s="3" t="s">
+        <v>3777</v>
+      </c>
+      <c r="G298" s="4" t="s">
+        <v>3751</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>3752</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>3780</v>
+      </c>
+      <c r="J298" s="3" t="s">
+        <v>3784</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>3753</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>3788</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>3754</v>
+      </c>
+      <c r="N298" s="3" t="s">
         <v>3792</v>
       </c>
-      <c r="G298" s="4" t="s">
-        <v>3766</v>
-      </c>
-      <c r="H298" s="3" t="s">
-        <v>3767</v>
-      </c>
-      <c r="I298" s="3" t="s">
-        <v>3795</v>
-      </c>
-      <c r="J298" s="3" t="s">
-        <v>3799</v>
-      </c>
-      <c r="K298" s="3" t="s">
-        <v>3768</v>
-      </c>
-      <c r="L298" s="3" t="s">
-        <v>3803</v>
-      </c>
-      <c r="M298" s="3" t="s">
-        <v>3769</v>
-      </c>
-      <c r="N298" s="3" t="s">
-        <v>3807</v>
-      </c>
       <c r="O298" s="3" t="s">
-        <v>3813</v>
+        <v>3798</v>
       </c>
       <c r="P298" s="3" t="s">
-        <v>3770</v>
+        <v>3755</v>
       </c>
     </row>
     <row r="299" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="3" t="s">
-        <v>3740</v>
+        <v>3725</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>3741</v>
+        <v>3726</v>
       </c>
       <c r="C299" s="3" t="s">
+        <v>3757</v>
+      </c>
+      <c r="D299" s="3" t="s">
         <v>3772</v>
       </c>
-      <c r="D299" s="3" t="s">
-        <v>3787</v>
-      </c>
       <c r="E299" s="3" t="s">
-        <v>3778</v>
+        <v>3763</v>
       </c>
       <c r="F299" s="3" t="s">
-        <v>3791</v>
+        <v>3776</v>
       </c>
       <c r="G299" s="4" t="s">
-        <v>3776</v>
+        <v>3761</v>
       </c>
       <c r="H299" s="3" t="s">
-        <v>3777</v>
+        <v>3762</v>
       </c>
       <c r="I299" s="3" t="s">
-        <v>3796</v>
+        <v>3781</v>
       </c>
       <c r="J299" s="3" t="s">
-        <v>3800</v>
+        <v>3785</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>3774</v>
+        <v>3759</v>
       </c>
       <c r="L299" s="3" t="s">
-        <v>3804</v>
+        <v>3789</v>
       </c>
       <c r="M299" s="3" t="s">
-        <v>3775</v>
+        <v>3760</v>
       </c>
       <c r="N299" s="3" t="s">
-        <v>3808</v>
+        <v>3793</v>
       </c>
       <c r="O299" s="3" t="s">
-        <v>3810</v>
+        <v>3795</v>
       </c>
       <c r="P299" s="3" t="s">
-        <v>3773</v>
+        <v>3758</v>
       </c>
     </row>
     <row r="300" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="3" t="s">
-        <v>3742</v>
+        <v>3727</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>3743</v>
+        <v>3728</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>3789</v>
+        <v>3774</v>
       </c>
       <c r="D300" s="3" t="s">
-        <v>3788</v>
+        <v>3773</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>3779</v>
+        <v>3764</v>
       </c>
       <c r="F300" s="3" t="s">
+        <v>3775</v>
+      </c>
+      <c r="G300" s="4" t="s">
+        <v>3766</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>3765</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>3782</v>
+      </c>
+      <c r="J300" s="3" t="s">
+        <v>3786</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>3767</v>
+      </c>
+      <c r="L300" s="3" t="s">
         <v>3790</v>
       </c>
-      <c r="G300" s="4" t="s">
-        <v>3781</v>
-      </c>
-      <c r="H300" s="3" t="s">
-        <v>3780</v>
-      </c>
-      <c r="I300" s="3" t="s">
-        <v>3797</v>
-      </c>
-      <c r="J300" s="3" t="s">
-        <v>3801</v>
-      </c>
-      <c r="K300" s="3" t="s">
-        <v>3782</v>
-      </c>
-      <c r="L300" s="3" t="s">
-        <v>3805</v>
-      </c>
       <c r="M300" s="3" t="s">
-        <v>3783</v>
+        <v>3768</v>
       </c>
       <c r="N300" s="3" t="s">
-        <v>3809</v>
+        <v>3794</v>
       </c>
       <c r="O300" s="3" t="s">
-        <v>3811</v>
+        <v>3796</v>
       </c>
       <c r="P300" s="3" t="s">
-        <v>3784</v>
+        <v>3769</v>
       </c>
     </row>
     <row r="301" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="3" t="s">
-        <v>3728</v>
+        <v>3713</v>
       </c>
       <c r="B301" s="3" t="s">
+        <v>2434</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>2591</v>
+      </c>
+      <c r="D301" s="3" t="s">
+        <v>2590</v>
+      </c>
+      <c r="E301" s="3" t="s">
         <v>2449</v>
       </c>
-      <c r="C301" s="3" t="s">
-        <v>2606</v>
-      </c>
-      <c r="D301" s="3" t="s">
-        <v>2605</v>
-      </c>
-      <c r="E301" s="3" t="s">
-        <v>2464</v>
-      </c>
       <c r="F301" s="3" t="s">
-        <v>2580</v>
+        <v>2565</v>
       </c>
       <c r="G301" s="3" t="s">
-        <v>2474</v>
+        <v>2459</v>
       </c>
       <c r="H301" s="3" t="s">
-        <v>2485</v>
+        <v>2470</v>
       </c>
       <c r="I301" s="3" t="s">
-        <v>2567</v>
+        <v>2552</v>
       </c>
       <c r="J301" s="3" t="s">
-        <v>2554</v>
+        <v>2539</v>
       </c>
       <c r="K301" s="3" t="s">
-        <v>2496</v>
+        <v>2481</v>
       </c>
       <c r="L301" s="3" t="s">
-        <v>2542</v>
+        <v>2527</v>
       </c>
       <c r="M301" s="3" t="s">
-        <v>2515</v>
+        <v>2500</v>
       </c>
       <c r="N301" s="3" t="s">
-        <v>2516</v>
+        <v>2501</v>
       </c>
       <c r="O301" s="3" t="s">
-        <v>2528</v>
+        <v>2513</v>
       </c>
       <c r="P301" s="3" t="s">
-        <v>2619</v>
+        <v>2604</v>
       </c>
     </row>
     <row r="302" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="3" t="s">
-        <v>3729</v>
+        <v>3714</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>2453</v>
+        <v>2438</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>2607</v>
+        <v>2592</v>
       </c>
       <c r="D302" s="3" t="s">
-        <v>2593</v>
+        <v>2578</v>
       </c>
       <c r="E302" s="3" t="s">
-        <v>2453</v>
+        <v>2438</v>
       </c>
       <c r="F302" s="3" t="s">
-        <v>2581</v>
+        <v>2566</v>
       </c>
       <c r="G302" s="3" t="s">
-        <v>2475</v>
+        <v>2460</v>
       </c>
       <c r="H302" s="3" t="s">
-        <v>2486</v>
+        <v>2471</v>
       </c>
       <c r="I302" s="3" t="s">
-        <v>2568</v>
+        <v>2553</v>
       </c>
       <c r="J302" s="3" t="s">
-        <v>2555</v>
+        <v>2540</v>
       </c>
       <c r="K302" s="3" t="s">
-        <v>2497</v>
+        <v>2482</v>
       </c>
       <c r="L302" s="3" t="s">
-        <v>2543</v>
+        <v>2528</v>
       </c>
       <c r="M302" s="3" t="s">
-        <v>2475</v>
+        <v>2460</v>
       </c>
       <c r="N302" s="3" t="s">
-        <v>2517</v>
+        <v>2502</v>
       </c>
       <c r="O302" s="3" t="s">
-        <v>2529</v>
+        <v>2514</v>
       </c>
       <c r="P302" s="3" t="s">
-        <v>2620</v>
+        <v>2605</v>
       </c>
     </row>
     <row r="303" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="3" t="s">
-        <v>3730</v>
+        <v>3715</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>2452</v>
+        <v>2437</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>2608</v>
+        <v>2593</v>
       </c>
       <c r="D303" s="3" t="s">
-        <v>2594</v>
+        <v>2579</v>
       </c>
       <c r="E303" s="3" t="s">
         <v>1075</v>
       </c>
       <c r="F303" s="3" t="s">
-        <v>2582</v>
+        <v>2567</v>
       </c>
       <c r="G303" s="3" t="s">
         <v>1081</v>
@@ -26023,13 +26023,13 @@
         <v>1082</v>
       </c>
       <c r="I303" s="3" t="s">
-        <v>2569</v>
+        <v>2554</v>
       </c>
       <c r="J303" s="3" t="s">
-        <v>2556</v>
+        <v>2541</v>
       </c>
       <c r="K303" s="3" t="s">
-        <v>2498</v>
+        <v>2483</v>
       </c>
       <c r="L303" s="3" t="s">
         <v>1084</v>
@@ -26041,810 +26041,810 @@
         <v>1078</v>
       </c>
       <c r="O303" s="3" t="s">
-        <v>2530</v>
+        <v>2515</v>
       </c>
       <c r="P303" s="3" t="s">
-        <v>2621</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="304" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="3" t="s">
-        <v>3726</v>
+        <v>3711</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>2450</v>
+        <v>2435</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>2609</v>
+        <v>2594</v>
       </c>
       <c r="D304" s="3" t="s">
-        <v>2595</v>
+        <v>2580</v>
       </c>
       <c r="E304" s="3" t="s">
-        <v>2450</v>
+        <v>2435</v>
       </c>
       <c r="F304" s="3" t="s">
-        <v>2583</v>
+        <v>2568</v>
       </c>
       <c r="G304" s="3" t="s">
-        <v>2476</v>
+        <v>2461</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>2487</v>
+        <v>2472</v>
       </c>
       <c r="I304" s="3" t="s">
-        <v>2570</v>
+        <v>2555</v>
       </c>
       <c r="J304" s="3" t="s">
-        <v>2557</v>
+        <v>2542</v>
       </c>
       <c r="K304" s="3" t="s">
-        <v>2450</v>
+        <v>2435</v>
       </c>
       <c r="L304" s="3" t="s">
-        <v>2544</v>
+        <v>2529</v>
       </c>
       <c r="M304" s="3" t="s">
-        <v>2476</v>
+        <v>2461</v>
       </c>
       <c r="N304" s="3" t="s">
-        <v>2518</v>
+        <v>2503</v>
       </c>
       <c r="O304" s="3" t="s">
-        <v>2541</v>
+        <v>2526</v>
       </c>
       <c r="P304" s="3" t="s">
-        <v>2622</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="305" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="3" t="s">
-        <v>3727</v>
+        <v>3712</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>2451</v>
+        <v>2436</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>2610</v>
+        <v>2595</v>
       </c>
       <c r="D305" s="3" t="s">
-        <v>2596</v>
+        <v>2581</v>
       </c>
       <c r="E305" s="3" t="s">
-        <v>2465</v>
+        <v>2450</v>
       </c>
       <c r="F305" s="3" t="s">
-        <v>2584</v>
+        <v>2569</v>
       </c>
       <c r="G305" s="3" t="s">
-        <v>2477</v>
+        <v>2462</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>2451</v>
+        <v>2436</v>
       </c>
       <c r="I305" s="3" t="s">
-        <v>2571</v>
+        <v>2556</v>
       </c>
       <c r="J305" s="3" t="s">
-        <v>2558</v>
+        <v>2543</v>
       </c>
       <c r="K305" s="3" t="s">
-        <v>2477</v>
+        <v>2462</v>
       </c>
       <c r="L305" s="3" t="s">
-        <v>2545</v>
+        <v>2530</v>
       </c>
       <c r="M305" s="3" t="s">
-        <v>2477</v>
+        <v>2462</v>
       </c>
       <c r="N305" s="3" t="s">
-        <v>2519</v>
+        <v>2504</v>
       </c>
       <c r="O305" s="3" t="s">
-        <v>2532</v>
+        <v>2517</v>
       </c>
       <c r="P305" s="3" t="s">
-        <v>2623</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="306" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="3" t="s">
-        <v>3731</v>
+        <v>3716</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>2454</v>
+        <v>2439</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>2611</v>
+        <v>2596</v>
       </c>
       <c r="D306" s="3" t="s">
-        <v>2597</v>
+        <v>2582</v>
       </c>
       <c r="E306" s="3" t="s">
-        <v>2466</v>
+        <v>2451</v>
       </c>
       <c r="F306" s="3" t="s">
-        <v>2585</v>
+        <v>2570</v>
       </c>
       <c r="G306" s="3" t="s">
-        <v>2478</v>
+        <v>2463</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>2488</v>
+        <v>2473</v>
       </c>
       <c r="I306" s="3" t="s">
-        <v>2572</v>
+        <v>2557</v>
       </c>
       <c r="J306" s="3" t="s">
-        <v>2559</v>
+        <v>2544</v>
       </c>
       <c r="K306" s="3" t="s">
-        <v>2499</v>
+        <v>2484</v>
       </c>
       <c r="L306" s="3" t="s">
-        <v>2546</v>
+        <v>2531</v>
       </c>
       <c r="M306" s="3" t="s">
-        <v>2507</v>
+        <v>2492</v>
       </c>
       <c r="N306" s="3" t="s">
-        <v>2520</v>
+        <v>2505</v>
       </c>
       <c r="O306" s="3" t="s">
-        <v>2531</v>
+        <v>2516</v>
       </c>
       <c r="P306" s="3" t="s">
-        <v>2624</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="307" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="3" t="s">
-        <v>3732</v>
+        <v>3717</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>2455</v>
+        <v>2440</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>2612</v>
+        <v>2597</v>
       </c>
       <c r="D307" s="3" t="s">
-        <v>2598</v>
+        <v>2583</v>
       </c>
       <c r="E307" s="3" t="s">
-        <v>2467</v>
+        <v>2452</v>
       </c>
       <c r="F307" s="3" t="s">
-        <v>2586</v>
+        <v>2571</v>
       </c>
       <c r="G307" s="3" t="s">
-        <v>2479</v>
+        <v>2464</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>2489</v>
+        <v>2474</v>
       </c>
       <c r="I307" s="3" t="s">
-        <v>2573</v>
+        <v>2558</v>
       </c>
       <c r="J307" s="3" t="s">
-        <v>2560</v>
+        <v>2545</v>
       </c>
       <c r="K307" s="3" t="s">
-        <v>2500</v>
+        <v>2485</v>
       </c>
       <c r="L307" s="3" t="s">
-        <v>2547</v>
+        <v>2532</v>
       </c>
       <c r="M307" s="3" t="s">
-        <v>2508</v>
+        <v>2493</v>
       </c>
       <c r="N307" s="3" t="s">
-        <v>2521</v>
+        <v>2506</v>
       </c>
       <c r="O307" s="3" t="s">
-        <v>2538</v>
+        <v>2523</v>
       </c>
       <c r="P307" s="3" t="s">
-        <v>2625</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="308" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="3" t="s">
-        <v>3733</v>
+        <v>3718</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>2456</v>
+        <v>2441</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>2613</v>
+        <v>2598</v>
       </c>
       <c r="D308" s="3" t="s">
-        <v>2599</v>
+        <v>2584</v>
       </c>
       <c r="E308" s="3" t="s">
-        <v>2468</v>
+        <v>2453</v>
       </c>
       <c r="F308" s="3" t="s">
-        <v>2587</v>
+        <v>2572</v>
       </c>
       <c r="G308" s="3" t="s">
-        <v>2540</v>
+        <v>2525</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>2490</v>
+        <v>2475</v>
       </c>
       <c r="I308" s="3" t="s">
-        <v>2574</v>
+        <v>2559</v>
       </c>
       <c r="J308" s="3" t="s">
-        <v>2561</v>
+        <v>2546</v>
       </c>
       <c r="K308" s="3" t="s">
-        <v>2501</v>
+        <v>2486</v>
       </c>
       <c r="L308" s="3" t="s">
-        <v>2548</v>
+        <v>2533</v>
       </c>
       <c r="M308" s="3" t="s">
-        <v>2509</v>
+        <v>2494</v>
       </c>
       <c r="N308" s="3" t="s">
-        <v>2522</v>
+        <v>2507</v>
       </c>
       <c r="O308" s="3" t="s">
-        <v>2539</v>
+        <v>2524</v>
       </c>
       <c r="P308" s="3" t="s">
-        <v>2626</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="309" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="3" t="s">
-        <v>3734</v>
+        <v>3719</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>2457</v>
+        <v>2442</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>2614</v>
+        <v>2599</v>
       </c>
       <c r="D309" s="3" t="s">
-        <v>2600</v>
+        <v>2585</v>
       </c>
       <c r="E309" s="3" t="s">
-        <v>2469</v>
+        <v>2454</v>
       </c>
       <c r="F309" s="3" t="s">
-        <v>2588</v>
+        <v>2573</v>
       </c>
       <c r="G309" s="3" t="s">
+        <v>2465</v>
+      </c>
+      <c r="H309" s="3" t="s">
         <v>2480</v>
       </c>
-      <c r="H309" s="3" t="s">
+      <c r="I309" s="3" t="s">
+        <v>2560</v>
+      </c>
+      <c r="J309" s="3" t="s">
+        <v>2547</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>2534</v>
+      </c>
+      <c r="M309" s="3" t="s">
         <v>2495</v>
       </c>
-      <c r="I309" s="3" t="s">
-        <v>2575</v>
-      </c>
-      <c r="J309" s="3" t="s">
-        <v>2562</v>
-      </c>
-      <c r="K309" s="3" t="s">
-        <v>2506</v>
-      </c>
-      <c r="L309" s="3" t="s">
-        <v>2549</v>
-      </c>
-      <c r="M309" s="3" t="s">
-        <v>2510</v>
-      </c>
       <c r="N309" s="3" t="s">
-        <v>2523</v>
+        <v>2508</v>
       </c>
       <c r="O309" s="3" t="s">
-        <v>2533</v>
+        <v>2518</v>
       </c>
       <c r="P309" s="3" t="s">
-        <v>2627</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="310" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="3" t="s">
-        <v>3735</v>
+        <v>3720</v>
       </c>
       <c r="B310" s="3" t="s">
+        <v>2443</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D310" s="3" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E310" s="3" t="s">
         <v>2458</v>
       </c>
-      <c r="C310" s="3" t="s">
-        <v>2615</v>
-      </c>
-      <c r="D310" s="3" t="s">
-        <v>2601</v>
-      </c>
-      <c r="E310" s="3" t="s">
-        <v>2473</v>
-      </c>
       <c r="F310" s="3" t="s">
-        <v>2589</v>
+        <v>2574</v>
       </c>
       <c r="G310" s="3" t="s">
-        <v>2481</v>
+        <v>2466</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>2494</v>
+        <v>2479</v>
       </c>
       <c r="I310" s="3" t="s">
-        <v>2576</v>
+        <v>2561</v>
       </c>
       <c r="J310" s="3" t="s">
-        <v>2563</v>
+        <v>2548</v>
       </c>
       <c r="K310" s="3" t="s">
-        <v>2505</v>
+        <v>2490</v>
       </c>
       <c r="L310" s="3" t="s">
-        <v>2550</v>
+        <v>2535</v>
       </c>
       <c r="M310" s="3" t="s">
-        <v>2511</v>
+        <v>2496</v>
       </c>
       <c r="N310" s="3" t="s">
-        <v>2524</v>
+        <v>2509</v>
       </c>
       <c r="O310" s="3" t="s">
-        <v>2534</v>
+        <v>2519</v>
       </c>
       <c r="P310" s="3" t="s">
-        <v>2628</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="311" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" s="3" t="s">
-        <v>3736</v>
+        <v>3721</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>2461</v>
+        <v>2446</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>2617</v>
+        <v>2602</v>
       </c>
       <c r="D311" s="3" t="s">
-        <v>2603</v>
+        <v>2588</v>
       </c>
       <c r="E311" s="3" t="s">
-        <v>2471</v>
+        <v>2456</v>
       </c>
       <c r="F311" s="3" t="s">
-        <v>2591</v>
+        <v>2576</v>
       </c>
       <c r="G311" s="3" t="s">
-        <v>2484</v>
+        <v>2469</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>2493</v>
+        <v>2478</v>
       </c>
       <c r="I311" s="3" t="s">
-        <v>2578</v>
+        <v>2563</v>
       </c>
       <c r="J311" s="3" t="s">
-        <v>2565</v>
+        <v>2550</v>
       </c>
       <c r="K311" s="3" t="s">
-        <v>2504</v>
+        <v>2489</v>
       </c>
       <c r="L311" s="3" t="s">
-        <v>2552</v>
+        <v>2537</v>
       </c>
       <c r="M311" s="3" t="s">
-        <v>2513</v>
+        <v>2498</v>
       </c>
       <c r="N311" s="3" t="s">
-        <v>2526</v>
+        <v>2511</v>
       </c>
       <c r="O311" s="3" t="s">
-        <v>2537</v>
+        <v>2522</v>
       </c>
       <c r="P311" s="3" t="s">
-        <v>2630</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="313" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="3" t="s">
+        <v>3370</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>3371</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D313" s="3" t="s">
+        <v>3377</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>3379</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>3380</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>3381</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>3382</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>3374</v>
+      </c>
+      <c r="J313" s="3" t="s">
+        <v>3375</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>3383</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>3384</v>
+      </c>
+      <c r="M313" s="3" t="s">
         <v>3385</v>
       </c>
-      <c r="B313" s="3" t="s">
+      <c r="N313" s="3" t="s">
         <v>3386</v>
       </c>
-      <c r="C313" s="3" t="s">
-        <v>3391</v>
-      </c>
-      <c r="D313" s="3" t="s">
-        <v>3392</v>
-      </c>
-      <c r="E313" s="3" t="s">
-        <v>3394</v>
-      </c>
-      <c r="F313" s="3" t="s">
-        <v>3395</v>
-      </c>
-      <c r="G313" s="3" t="s">
-        <v>3396</v>
-      </c>
-      <c r="H313" s="3" t="s">
-        <v>3397</v>
-      </c>
-      <c r="I313" s="3" t="s">
-        <v>3389</v>
-      </c>
-      <c r="J313" s="3" t="s">
-        <v>3390</v>
-      </c>
-      <c r="K313" s="3" t="s">
-        <v>3398</v>
-      </c>
-      <c r="L313" s="3" t="s">
-        <v>3399</v>
-      </c>
-      <c r="M313" s="3" t="s">
-        <v>3400</v>
-      </c>
-      <c r="N313" s="3" t="s">
-        <v>3401</v>
-      </c>
       <c r="O313" s="3" t="s">
-        <v>3402</v>
+        <v>3387</v>
       </c>
       <c r="P313" s="3" t="s">
-        <v>3393</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="314" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="3" t="s">
-        <v>3739</v>
+        <v>3724</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>3818</v>
+        <v>3803</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>3819</v>
+        <v>3804</v>
       </c>
       <c r="D314" s="3" t="s">
-        <v>3820</v>
+        <v>3805</v>
       </c>
       <c r="E314" s="3" t="s">
-        <v>3821</v>
+        <v>3806</v>
       </c>
       <c r="F314" s="3" t="s">
-        <v>3822</v>
+        <v>3807</v>
       </c>
       <c r="G314" s="3" t="s">
-        <v>3823</v>
+        <v>3808</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>3824</v>
+        <v>3809</v>
       </c>
       <c r="I314" s="3" t="s">
-        <v>3825</v>
+        <v>3810</v>
       </c>
       <c r="J314" s="3" t="s">
-        <v>3826</v>
+        <v>3811</v>
       </c>
       <c r="K314" s="3" t="s">
-        <v>3827</v>
+        <v>3812</v>
       </c>
       <c r="L314" s="3" t="s">
-        <v>3817</v>
+        <v>3802</v>
       </c>
       <c r="M314" s="3" t="s">
-        <v>3828</v>
+        <v>3813</v>
       </c>
       <c r="N314" s="3" t="s">
-        <v>3816</v>
+        <v>3801</v>
       </c>
       <c r="O314" s="3" t="s">
-        <v>3814</v>
+        <v>3799</v>
       </c>
       <c r="P314" s="3" t="s">
-        <v>3815</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="315" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="3" t="s">
-        <v>3375</v>
+        <v>3360</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>3376</v>
+        <v>3361</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>3414</v>
+        <v>3399</v>
       </c>
       <c r="D315" s="3" t="s">
-        <v>3415</v>
+        <v>3400</v>
       </c>
       <c r="E315" s="3" t="s">
-        <v>3411</v>
+        <v>3396</v>
       </c>
       <c r="F315" s="3" t="s">
-        <v>3412</v>
+        <v>3397</v>
       </c>
       <c r="G315" s="3" t="s">
-        <v>3405</v>
+        <v>3390</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>3406</v>
+        <v>3391</v>
       </c>
       <c r="I315" s="3" t="s">
-        <v>3413</v>
+        <v>3398</v>
       </c>
       <c r="J315" s="3" t="s">
-        <v>3410</v>
+        <v>3395</v>
       </c>
       <c r="K315" s="3" t="s">
-        <v>3407</v>
+        <v>3392</v>
       </c>
       <c r="L315" s="3" t="s">
-        <v>3409</v>
+        <v>3394</v>
       </c>
       <c r="M315" s="3" t="s">
-        <v>3408</v>
+        <v>3393</v>
       </c>
       <c r="N315" s="3" t="s">
-        <v>3404</v>
+        <v>3389</v>
       </c>
       <c r="O315" s="3" t="s">
-        <v>3403</v>
+        <v>3388</v>
       </c>
       <c r="P315" s="3" t="s">
-        <v>3416</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="316" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="3" t="s">
-        <v>3377</v>
+        <v>3362</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>3381</v>
+        <v>3366</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>3419</v>
+        <v>3404</v>
       </c>
       <c r="D316" s="3" t="s">
-        <v>3418</v>
+        <v>3403</v>
       </c>
       <c r="E316" s="3" t="s">
-        <v>3420</v>
+        <v>3405</v>
       </c>
       <c r="F316" s="3" t="s">
-        <v>3421</v>
+        <v>3406</v>
       </c>
       <c r="G316" s="3" t="s">
-        <v>3422</v>
+        <v>3407</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>3423</v>
+        <v>3408</v>
       </c>
       <c r="I316" s="3" t="s">
-        <v>3424</v>
+        <v>3409</v>
       </c>
       <c r="J316" s="3" t="s">
-        <v>3425</v>
+        <v>3410</v>
       </c>
       <c r="K316" s="3" t="s">
-        <v>3426</v>
+        <v>3411</v>
       </c>
       <c r="L316" s="3" t="s">
-        <v>3427</v>
+        <v>3412</v>
       </c>
       <c r="M316" s="3" t="s">
-        <v>3428</v>
+        <v>3413</v>
       </c>
       <c r="N316" s="3" t="s">
-        <v>3429</v>
+        <v>3414</v>
       </c>
       <c r="O316" s="3" t="s">
-        <v>3430</v>
+        <v>3415</v>
       </c>
       <c r="P316" s="3" t="s">
-        <v>3417</v>
+        <v>3402</v>
       </c>
     </row>
     <row r="317" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="3" t="s">
-        <v>3378</v>
+        <v>3363</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>3382</v>
+        <v>3367</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>3433</v>
+        <v>3418</v>
       </c>
       <c r="D317" s="3" t="s">
-        <v>3434</v>
+        <v>3419</v>
       </c>
       <c r="E317" s="3" t="s">
-        <v>3436</v>
+        <v>3421</v>
       </c>
       <c r="F317" s="3" t="s">
-        <v>3437</v>
+        <v>3422</v>
       </c>
       <c r="G317" s="3" t="s">
-        <v>3438</v>
+        <v>3423</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>3439</v>
+        <v>3424</v>
       </c>
       <c r="I317" s="3" t="s">
-        <v>3440</v>
+        <v>3425</v>
       </c>
       <c r="J317" s="3" t="s">
-        <v>3441</v>
+        <v>3426</v>
       </c>
       <c r="K317" s="3" t="s">
-        <v>3442</v>
+        <v>3427</v>
       </c>
       <c r="L317" s="3" t="s">
-        <v>3443</v>
+        <v>3428</v>
       </c>
       <c r="M317" s="3" t="s">
-        <v>3444</v>
+        <v>3429</v>
       </c>
       <c r="N317" s="3" t="s">
-        <v>3432</v>
+        <v>3417</v>
       </c>
       <c r="O317" s="3" t="s">
-        <v>3431</v>
+        <v>3416</v>
       </c>
       <c r="P317" s="3" t="s">
-        <v>3435</v>
+        <v>3420</v>
       </c>
     </row>
     <row r="318" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" s="3" t="s">
-        <v>3379</v>
+        <v>3364</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>3383</v>
+        <v>3368</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>3450</v>
+        <v>3435</v>
       </c>
       <c r="D318" s="3" t="s">
-        <v>3451</v>
+        <v>3436</v>
       </c>
       <c r="E318" s="3" t="s">
-        <v>3453</v>
+        <v>3438</v>
       </c>
       <c r="F318" s="3" t="s">
-        <v>3454</v>
+        <v>3439</v>
       </c>
       <c r="G318" s="3" t="s">
-        <v>3455</v>
+        <v>3440</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>3456</v>
+        <v>3441</v>
       </c>
       <c r="I318" s="3" t="s">
-        <v>3457</v>
+        <v>3442</v>
       </c>
       <c r="J318" s="3" t="s">
-        <v>3458</v>
+        <v>3443</v>
       </c>
       <c r="K318" s="3" t="s">
-        <v>3446</v>
+        <v>3431</v>
       </c>
       <c r="L318" s="3" t="s">
-        <v>3447</v>
+        <v>3432</v>
       </c>
       <c r="M318" s="3" t="s">
-        <v>3445</v>
+        <v>3430</v>
       </c>
       <c r="N318" s="3" t="s">
-        <v>3448</v>
+        <v>3433</v>
       </c>
       <c r="O318" s="3" t="s">
-        <v>3449</v>
+        <v>3434</v>
       </c>
       <c r="P318" s="3" t="s">
-        <v>3452</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="319" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="3" t="s">
-        <v>3380</v>
+        <v>3365</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>3384</v>
+        <v>3369</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>3467</v>
+        <v>3452</v>
       </c>
       <c r="D319" s="3" t="s">
-        <v>3466</v>
+        <v>3451</v>
       </c>
       <c r="E319" s="3" t="s">
-        <v>3469</v>
+        <v>3454</v>
       </c>
       <c r="F319" s="3" t="s">
-        <v>3470</v>
+        <v>3455</v>
       </c>
       <c r="G319" s="3" t="s">
-        <v>3471</v>
+        <v>3456</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>3472</v>
+        <v>3457</v>
       </c>
       <c r="I319" s="3" t="s">
-        <v>3460</v>
+        <v>3445</v>
       </c>
       <c r="J319" s="3" t="s">
-        <v>3459</v>
+        <v>3444</v>
       </c>
       <c r="K319" s="3" t="s">
-        <v>3461</v>
+        <v>3446</v>
       </c>
       <c r="L319" s="3" t="s">
-        <v>3462</v>
+        <v>3447</v>
       </c>
       <c r="M319" s="3" t="s">
-        <v>3463</v>
+        <v>3448</v>
       </c>
       <c r="N319" s="3" t="s">
-        <v>3464</v>
+        <v>3449</v>
       </c>
       <c r="O319" s="3" t="s">
-        <v>3465</v>
+        <v>3450</v>
       </c>
       <c r="P319" s="3" t="s">
-        <v>3468</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="320" spans="1:16" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="3" t="s">
-        <v>3387</v>
+        <v>3372</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>3388</v>
+        <v>3373</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>3482</v>
+        <v>3467</v>
       </c>
       <c r="D320" s="3" t="s">
-        <v>3483</v>
+        <v>3468</v>
       </c>
       <c r="E320" s="3" t="s">
-        <v>3485</v>
+        <v>3470</v>
       </c>
       <c r="F320" s="3" t="s">
-        <v>3486</v>
+        <v>3471</v>
       </c>
       <c r="G320" s="3" t="s">
-        <v>3474</v>
+        <v>3459</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>3473</v>
+        <v>3458</v>
       </c>
       <c r="I320" s="3" t="s">
-        <v>3475</v>
+        <v>3460</v>
       </c>
       <c r="J320" s="3" t="s">
-        <v>3476</v>
+        <v>3461</v>
       </c>
       <c r="K320" s="3" t="s">
-        <v>3478</v>
+        <v>3463</v>
       </c>
       <c r="L320" s="3" t="s">
-        <v>3479</v>
+        <v>3464</v>
       </c>
       <c r="M320" s="4" t="s">
-        <v>3477</v>
+        <v>3462</v>
       </c>
       <c r="N320" s="3" t="s">
-        <v>3480</v>
+        <v>3465</v>
       </c>
       <c r="O320" s="3" t="s">
-        <v>3481</v>
+        <v>3466</v>
       </c>
       <c r="P320" s="3" t="s">
-        <v>3484</v>
+        <v>3469</v>
       </c>
     </row>
   </sheetData>
